--- a/Archive/ROSE results.xlsx
+++ b/Archive/ROSE results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/colab/CSV_logs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/idea4 MIL/MIL-SI tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0AAEAC97-BAF7-C843-AF57-E175F81E2668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B4C981-0E18-AF44-9712-7D75FE0BB941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="2020" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3100" yWindow="2020" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="78">
   <si>
     <t xml:space="preserve">Train </t>
   </si>
@@ -196,12 +196,72 @@
   </si>
   <si>
     <t>ViT_384_401_PT_lf25_b4_p32_ROSE_MIL</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_p32_MIL_05_ROSE</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_p32_MIL_12_ROSE</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_p32_MIL_15_ROSE</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_p32_MIL_18_ROSE</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_p32_MIL_25_ROSE</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_p32_MIL_30_ROSE</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_p32_NCLSMIL_ROSE</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_ROSE_CutMix_CLS</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_ROSE_Cutout_CLS</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_ROSE_Mixup_CLS</t>
+  </si>
+  <si>
+    <t>Different head balance</t>
+  </si>
+  <si>
+    <t>CLS+0.5CLS_MIL+0.5MIL</t>
+  </si>
+  <si>
+    <t>CLS+1.2CLS_MIL+1.2MIL</t>
+  </si>
+  <si>
+    <t>CLS+1.5CLS_MIL+1.5MIL</t>
+  </si>
+  <si>
+    <t>CLS+1.8CLS_MIL+1.8MIL</t>
+  </si>
+  <si>
+    <t>CLS+3.0CLS_MIL+3.0MIL</t>
+  </si>
+  <si>
+    <t>CLS+2.5CLS_MIL+2.5MIL</t>
+  </si>
+  <si>
+    <t>CLS+MIL, no cls step MIL regression</t>
+  </si>
+  <si>
+    <t>Patch-wish augmentations</t>
+  </si>
+  <si>
+    <t>MIL-SI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1141,11 +1201,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2272,69 +2332,74 @@
         <v>86.291486291486194</v>
       </c>
     </row>
+    <row r="10" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
+      <c r="A11" t="s">
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8">
+        <v>384</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
       <c r="G11">
-        <v>49</v>
-      </c>
-      <c r="H11" s="14">
-        <v>99.410609037328001</v>
+        <v>39</v>
+      </c>
+      <c r="H11">
+        <v>95.505617977528004</v>
       </c>
       <c r="I11">
-        <v>99.441100601891605</v>
+        <v>96.054306321595206</v>
       </c>
       <c r="J11">
-        <v>99.655320982335198</v>
+        <v>97.125697125697101</v>
       </c>
       <c r="K11">
-        <v>99.655320982335198</v>
+        <v>97.125697125697101</v>
       </c>
       <c r="L11">
-        <v>98.953301127214104</v>
+        <v>92.4328722538649</v>
       </c>
       <c r="M11">
-        <v>99.3532740501212</v>
+        <v>94.430590191188699</v>
       </c>
       <c r="N11">
-        <v>99.548095545513206</v>
+        <v>96.587030716723504</v>
       </c>
       <c r="O11">
-        <v>99.3532740501212</v>
+        <v>94.430590191188699</v>
       </c>
       <c r="P11">
-        <v>98.953301127214104</v>
+        <v>92.4328722538649</v>
       </c>
       <c r="Q11">
-        <v>98.953301127214104</v>
+        <v>92.4328722538649</v>
       </c>
       <c r="R11">
-        <v>99.655320982335198</v>
+        <v>97.125697125697101</v>
       </c>
       <c r="S11">
-        <v>99.441100601891605</v>
+        <v>96.054306321595206</v>
       </c>
       <c r="T11">
-        <v>99.152884227511095</v>
-      </c>
-      <c r="U11" s="14">
-        <v>93.516699410608993</v>
+        <v>93.421052631578902</v>
+      </c>
+      <c r="U11">
+        <v>93.503937007874001</v>
       </c>
       <c r="V11">
         <v>95.166163141993906</v>
@@ -2346,22 +2411,22 @@
         <v>94.879518072289102</v>
       </c>
       <c r="Y11">
-        <v>90.960451977401107</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="Z11">
-        <v>90.449438202247194</v>
+        <v>90.395480225988706</v>
       </c>
       <c r="AA11">
         <v>95.022624434389101</v>
       </c>
       <c r="AB11">
-        <v>90.449438202247194</v>
+        <v>90.395480225988706</v>
       </c>
       <c r="AC11">
-        <v>90.960451977401107</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="AD11">
-        <v>90.960451977401107</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="AE11">
         <v>94.879518072289102</v>
@@ -2370,331 +2435,336 @@
         <v>95.166163141993906</v>
       </c>
       <c r="AG11">
-        <v>90.704225352112601</v>
-      </c>
-      <c r="AH11" s="14">
-        <v>93.9960629921259</v>
+        <v>90.6515580736544</v>
+      </c>
+      <c r="AH11">
+        <v>92.716535433070803</v>
       </c>
       <c r="AI11">
-        <v>95.0524737631184</v>
+        <v>94.410876132930497</v>
       </c>
       <c r="AJ11">
-        <v>95.770392749244706</v>
+        <v>94.410876132930497</v>
       </c>
       <c r="AK11">
-        <v>95.770392749244706</v>
+        <v>94.410876132930497</v>
       </c>
       <c r="AL11">
-        <v>90.677966101694906</v>
+        <v>89.548022598870006</v>
       </c>
       <c r="AM11">
-        <v>91.977077363896797</v>
+        <v>89.548022598870006</v>
       </c>
       <c r="AN11">
-        <v>95.410082768999203</v>
+        <v>94.410876132930497</v>
       </c>
       <c r="AO11">
-        <v>91.977077363896797</v>
+        <v>89.548022598870006</v>
       </c>
       <c r="AP11">
-        <v>90.677966101694906</v>
+        <v>89.548022598870006</v>
       </c>
       <c r="AQ11">
-        <v>90.677966101694906</v>
+        <v>89.548022598870006</v>
       </c>
       <c r="AR11">
-        <v>95.770392749244706</v>
+        <v>94.410876132930497</v>
       </c>
       <c r="AS11">
-        <v>95.0524737631184</v>
+        <v>94.410876132930497</v>
       </c>
       <c r="AT11">
-        <v>91.322901849217601</v>
+        <v>89.548022598870006</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="33" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>40</v>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8">
+        <v>384</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>93.286516853932497</v>
+      </c>
+      <c r="I12">
+        <v>94.215227562739202</v>
+      </c>
+      <c r="J12">
+        <v>95.556514236410607</v>
+      </c>
+      <c r="K12">
+        <v>95.556514236410607</v>
+      </c>
+      <c r="L12">
+        <v>89.049919484702002</v>
+      </c>
+      <c r="M12">
+        <v>91.480562448304298</v>
+      </c>
+      <c r="N12">
+        <v>94.881130863139802</v>
+      </c>
+      <c r="O12">
+        <v>91.480562448304298</v>
+      </c>
+      <c r="P12">
+        <v>89.049919484702002</v>
+      </c>
+      <c r="Q12">
+        <v>89.049919484702002</v>
+      </c>
+      <c r="R12">
+        <v>95.556514236410607</v>
+      </c>
+      <c r="S12">
+        <v>94.215227562739202</v>
+      </c>
+      <c r="T12">
+        <v>90.248878008975893</v>
+      </c>
+      <c r="U12">
+        <v>91.732283464566905</v>
+      </c>
+      <c r="V12">
+        <v>93.154761904761898</v>
+      </c>
+      <c r="W12">
+        <v>94.277108433734895</v>
+      </c>
+      <c r="X12">
+        <v>94.277108433734895</v>
+      </c>
+      <c r="Y12">
+        <v>86.931818181818102</v>
+      </c>
+      <c r="Z12">
+        <v>88.953488372093005</v>
+      </c>
+      <c r="AA12">
+        <v>93.712574850299404</v>
+      </c>
+      <c r="AB12">
+        <v>88.953488372093005</v>
+      </c>
+      <c r="AC12">
+        <v>86.931818181818102</v>
+      </c>
+      <c r="AD12">
+        <v>86.931818181818102</v>
+      </c>
+      <c r="AE12">
+        <v>94.277108433734895</v>
+      </c>
+      <c r="AF12">
+        <v>93.154761904761898</v>
+      </c>
+      <c r="AG12">
+        <v>87.931034482758605</v>
+      </c>
+      <c r="AH12">
+        <v>92.322834645669204</v>
+      </c>
+      <c r="AI12">
+        <v>92.941176470588204</v>
+      </c>
+      <c r="AJ12">
+        <v>95.468277945619306</v>
+      </c>
+      <c r="AK12">
+        <v>95.468277945619306</v>
+      </c>
+      <c r="AL12">
+        <v>86.440677966101603</v>
+      </c>
+      <c r="AM12">
+        <v>91.071428571428498</v>
+      </c>
+      <c r="AN12">
+        <v>94.187779433681001</v>
+      </c>
+      <c r="AO12">
+        <v>91.071428571428498</v>
+      </c>
+      <c r="AP12">
+        <v>86.440677966101603</v>
+      </c>
+      <c r="AQ12">
+        <v>86.440677966101603</v>
+      </c>
+      <c r="AR12">
+        <v>95.468277945619306</v>
+      </c>
+      <c r="AS12">
+        <v>92.941176470588204</v>
+      </c>
+      <c r="AT12">
+        <v>88.695652173913004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8">
+        <v>384</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>93.876404494382001</v>
+      </c>
+      <c r="I13">
+        <v>94.748078565328697</v>
+      </c>
+      <c r="J13">
+        <v>95.894554883318904</v>
+      </c>
+      <c r="K13">
+        <v>95.894554883318904</v>
+      </c>
+      <c r="L13">
+        <v>90.128410914927699</v>
+      </c>
+      <c r="M13">
+        <v>92.200328407224902</v>
+      </c>
+      <c r="N13">
+        <v>95.317869415807493</v>
+      </c>
+      <c r="O13">
+        <v>92.200328407224902</v>
+      </c>
+      <c r="P13">
+        <v>90.128410914927699</v>
+      </c>
+      <c r="Q13">
+        <v>90.128410914927699</v>
+      </c>
+      <c r="R13">
+        <v>95.894554883318904</v>
+      </c>
+      <c r="S13">
+        <v>94.748078565328697</v>
+      </c>
+      <c r="T13">
+        <v>91.152597402597394</v>
+      </c>
+      <c r="U13">
+        <v>93.8976377952755</v>
+      </c>
+      <c r="V13">
+        <v>94.925373134328296</v>
+      </c>
+      <c r="W13">
+        <v>95.783132530120398</v>
+      </c>
+      <c r="X13">
+        <v>95.783132530120398</v>
+      </c>
+      <c r="Y13">
+        <v>90.340909090909093</v>
+      </c>
+      <c r="Z13">
+        <v>91.907514450866998</v>
+      </c>
+      <c r="AA13">
+        <v>95.352323838080906</v>
+      </c>
+      <c r="AB13">
+        <v>91.907514450866998</v>
+      </c>
+      <c r="AC13">
+        <v>90.340909090909093</v>
+      </c>
+      <c r="AD13">
+        <v>90.340909090909093</v>
+      </c>
+      <c r="AE13">
+        <v>95.783132530120398</v>
+      </c>
+      <c r="AF13">
+        <v>94.925373134328296</v>
+      </c>
+      <c r="AG13">
+        <v>91.117478510028604</v>
+      </c>
+      <c r="AH13">
+        <v>92.519685039370003</v>
+      </c>
+      <c r="AI13">
+        <v>94.528875379939194</v>
+      </c>
+      <c r="AJ13">
+        <v>93.957703927492403</v>
+      </c>
+      <c r="AK13">
+        <v>93.957703927492403</v>
+      </c>
+      <c r="AL13">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AM13">
+        <v>88.826815642458101</v>
+      </c>
+      <c r="AN13">
+        <v>94.242424242424207</v>
+      </c>
+      <c r="AO13">
+        <v>88.826815642458101</v>
+      </c>
+      <c r="AP13">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AQ13">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AR13">
+        <v>93.957703927492403</v>
+      </c>
+      <c r="AS13">
+        <v>94.528875379939194</v>
+      </c>
+      <c r="AT13">
+        <v>89.325842696629195</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="8">
-        <v>384</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>49</v>
-      </c>
-      <c r="H14">
-        <v>96.996912714005006</v>
-      </c>
-      <c r="I14">
-        <v>97.592433361994793</v>
-      </c>
-      <c r="J14">
-        <v>97.802671262386895</v>
-      </c>
-      <c r="K14">
-        <v>97.802671262386895</v>
-      </c>
-      <c r="L14">
-        <v>95.491143317230197</v>
-      </c>
-      <c r="M14">
-        <v>95.877122069522997</v>
-      </c>
-      <c r="N14">
-        <v>97.697439208091197</v>
-      </c>
-      <c r="O14">
-        <v>95.877122069522997</v>
-      </c>
-      <c r="P14">
-        <v>95.491143317230197</v>
-      </c>
-      <c r="Q14">
-        <v>95.491143317230197</v>
-      </c>
-      <c r="R14">
-        <v>97.802671262386895</v>
-      </c>
-      <c r="S14">
-        <v>97.592433361994793</v>
-      </c>
-      <c r="T14">
-        <v>95.683743444937406</v>
-      </c>
-      <c r="U14">
-        <v>92.927308447937094</v>
-      </c>
-      <c r="V14">
-        <v>93.786982248520701</v>
-      </c>
-      <c r="W14">
-        <v>95.481927710843294</v>
-      </c>
-      <c r="X14">
-        <v>95.481927710843294</v>
-      </c>
-      <c r="Y14">
-        <v>88.135593220338905</v>
-      </c>
-      <c r="Z14">
-        <v>91.228070175438603</v>
-      </c>
-      <c r="AA14">
-        <v>94.626865671641795</v>
-      </c>
-      <c r="AB14">
-        <v>91.228070175438603</v>
-      </c>
-      <c r="AC14">
-        <v>88.135593220338905</v>
-      </c>
-      <c r="AD14">
-        <v>88.135593220338905</v>
-      </c>
-      <c r="AE14">
-        <v>95.481927710843294</v>
-      </c>
-      <c r="AF14">
-        <v>93.786982248520701</v>
-      </c>
-      <c r="AG14">
-        <v>89.655172413793096</v>
-      </c>
-      <c r="AH14">
-        <v>90.649606299212607</v>
-      </c>
-      <c r="AI14">
-        <v>91.875923190546501</v>
-      </c>
-      <c r="AJ14">
-        <v>93.957703927492403</v>
-      </c>
-      <c r="AK14">
-        <v>93.957703927492403</v>
-      </c>
-      <c r="AL14">
-        <v>84.463276836158101</v>
-      </c>
-      <c r="AM14">
-        <v>88.200589970501397</v>
-      </c>
-      <c r="AN14">
-        <v>92.905153099327805</v>
-      </c>
-      <c r="AO14">
-        <v>88.200589970501397</v>
-      </c>
-      <c r="AP14">
-        <v>84.463276836158101</v>
-      </c>
-      <c r="AQ14">
-        <v>84.463276836158101</v>
-      </c>
-      <c r="AR14">
-        <v>93.957703927492403</v>
-      </c>
-      <c r="AS14">
-        <v>91.875923190546501</v>
-      </c>
-      <c r="AT14">
-        <v>86.291486291486194</v>
-      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>39</v>
-      </c>
-      <c r="H15">
-        <v>97.502104967723795</v>
-      </c>
-      <c r="I15">
-        <v>98.020654044750401</v>
-      </c>
-      <c r="J15">
-        <v>98.147350280051697</v>
-      </c>
-      <c r="K15">
-        <v>98.147350280051697</v>
-      </c>
-      <c r="L15">
-        <v>96.296296296296205</v>
-      </c>
-      <c r="M15">
-        <v>96.529459241323593</v>
-      </c>
-      <c r="N15">
-        <v>98.083961248654404</v>
-      </c>
-      <c r="O15">
-        <v>96.529459241323593</v>
-      </c>
-      <c r="P15">
-        <v>96.296296296296205</v>
-      </c>
-      <c r="Q15">
-        <v>96.296296296296205</v>
-      </c>
-      <c r="R15">
-        <v>98.147350280051697</v>
-      </c>
-      <c r="S15">
-        <v>98.020654044750401</v>
-      </c>
-      <c r="T15">
-        <v>96.412736799677504</v>
-      </c>
-      <c r="U15">
-        <v>92.534381139489199</v>
-      </c>
-      <c r="V15">
-        <v>95.092024539877301</v>
-      </c>
-      <c r="W15">
-        <v>93.3734939759036</v>
-      </c>
-      <c r="X15">
-        <v>93.3734939759036</v>
-      </c>
-      <c r="Y15">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="Z15">
-        <v>87.978142076502706</v>
-      </c>
-      <c r="AA15">
-        <v>94.224924012157999</v>
-      </c>
-      <c r="AB15">
-        <v>87.978142076502706</v>
-      </c>
-      <c r="AC15">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="AD15">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="AE15">
-        <v>93.3734939759036</v>
-      </c>
-      <c r="AF15">
-        <v>95.092024539877301</v>
-      </c>
-      <c r="AG15">
-        <v>89.4444444444444</v>
-      </c>
-      <c r="AH15">
-        <v>92.125984251968504</v>
-      </c>
-      <c r="AI15">
-        <v>93.175074183976193</v>
-      </c>
-      <c r="AJ15">
-        <v>94.864048338368505</v>
-      </c>
-      <c r="AK15">
-        <v>94.864048338368505</v>
-      </c>
-      <c r="AL15">
-        <v>87.005649717514103</v>
-      </c>
-      <c r="AM15">
-        <v>90.058479532163702</v>
-      </c>
-      <c r="AN15">
-        <v>94.011976047904199</v>
-      </c>
-      <c r="AO15">
-        <v>90.058479532163702</v>
-      </c>
-      <c r="AP15">
-        <v>87.005649717514103</v>
-      </c>
-      <c r="AQ15">
-        <v>87.005649717514103</v>
-      </c>
-      <c r="AR15">
-        <v>94.864048338368505</v>
-      </c>
-      <c r="AS15">
-        <v>93.175074183976193</v>
-      </c>
-      <c r="AT15">
-        <v>88.505747126436702</v>
+    <row r="15" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
@@ -2707,10 +2777,10 @@
       <c r="C16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="19" t="s">
         <v>22</v>
       </c>
       <c r="F16">
@@ -2719,7 +2789,7 @@
       <c r="G16">
         <v>49</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="14">
         <v>99.410609037328001</v>
       </c>
       <c r="I16">
@@ -2758,7 +2828,7 @@
       <c r="T16">
         <v>99.152884227511095</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="14">
         <v>93.516699410608993</v>
       </c>
       <c r="V16">
@@ -2797,7 +2867,7 @@
       <c r="AG16">
         <v>90.704225352112601</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="14">
         <v>93.9960629921259</v>
       </c>
       <c r="AI16">
@@ -2836,30 +2906,24 @@
       <c r="AT16">
         <v>91.322901849217601</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:46" ht="33" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8">
+        <v>384</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>22</v>
@@ -2868,137 +2932,137 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19">
-        <v>98.484423238843604</v>
+        <v>96.996912714005006</v>
       </c>
       <c r="I19">
-        <v>98.710786420283597</v>
+        <v>97.592433361994793</v>
       </c>
       <c r="J19">
-        <v>98.965962947005593</v>
+        <v>97.802671262386895</v>
       </c>
       <c r="K19">
-        <v>98.965962947005593</v>
+        <v>97.802671262386895</v>
       </c>
       <c r="L19">
-        <v>97.584541062801904</v>
+        <v>95.491143317230197</v>
       </c>
       <c r="M19">
-        <v>98.058252427184399</v>
+        <v>95.877122069522997</v>
       </c>
       <c r="N19">
-        <v>98.8382099827883</v>
+        <v>97.697439208091197</v>
       </c>
       <c r="O19">
-        <v>98.058252427184399</v>
+        <v>95.877122069522997</v>
       </c>
       <c r="P19">
-        <v>97.584541062801904</v>
+        <v>95.491143317230197</v>
       </c>
       <c r="Q19">
-        <v>97.584541062801904</v>
+        <v>95.491143317230197</v>
       </c>
       <c r="R19">
-        <v>98.965962947005593</v>
+        <v>97.802671262386895</v>
       </c>
       <c r="S19">
-        <v>98.710786420283597</v>
+        <v>97.592433361994793</v>
       </c>
       <c r="T19">
-        <v>97.820823244552003</v>
+        <v>95.683743444937406</v>
       </c>
       <c r="U19">
-        <v>92.141453831041204</v>
+        <v>92.927308447937094</v>
       </c>
       <c r="V19">
-        <v>93.975903614457806</v>
+        <v>93.786982248520701</v>
       </c>
       <c r="W19">
-        <v>93.975903614457806</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="X19">
-        <v>93.975903614457806</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="Y19">
-        <v>88.700564971751405</v>
+        <v>88.135593220338905</v>
       </c>
       <c r="Z19">
-        <v>88.700564971751405</v>
+        <v>91.228070175438603</v>
       </c>
       <c r="AA19">
-        <v>93.975903614457806</v>
+        <v>94.626865671641795</v>
       </c>
       <c r="AB19">
-        <v>88.700564971751405</v>
+        <v>91.228070175438603</v>
       </c>
       <c r="AC19">
-        <v>88.700564971751405</v>
+        <v>88.135593220338905</v>
       </c>
       <c r="AD19">
-        <v>88.700564971751405</v>
+        <v>88.135593220338905</v>
       </c>
       <c r="AE19">
-        <v>93.975903614457806</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="AF19">
-        <v>93.975903614457806</v>
+        <v>93.786982248520701</v>
       </c>
       <c r="AG19">
-        <v>88.700564971751405</v>
+        <v>89.655172413793096</v>
       </c>
       <c r="AH19">
-        <v>93.6023622047244</v>
+        <v>90.649606299212607</v>
       </c>
       <c r="AI19">
-        <v>93.961708394697993</v>
+        <v>91.875923190546501</v>
       </c>
       <c r="AJ19">
-        <v>96.374622356495394</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AK19">
-        <v>96.374622356495394</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AL19">
-        <v>88.418079096045204</v>
+        <v>84.463276836158101</v>
       </c>
       <c r="AM19">
-        <v>92.878338278931693</v>
+        <v>88.200589970501397</v>
       </c>
       <c r="AN19">
-        <v>95.152870991797101</v>
+        <v>92.905153099327805</v>
       </c>
       <c r="AO19">
-        <v>92.878338278931693</v>
+        <v>88.200589970501397</v>
       </c>
       <c r="AP19">
-        <v>88.418079096045204</v>
+        <v>84.463276836158101</v>
       </c>
       <c r="AQ19">
-        <v>88.418079096045204</v>
+        <v>84.463276836158101</v>
       </c>
       <c r="AR19">
-        <v>96.374622356495394</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AS19">
-        <v>93.961708394697993</v>
+        <v>91.875923190546501</v>
       </c>
       <c r="AT19">
-        <v>90.593342981186595</v>
+        <v>86.291486291486194</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>51</v>
+      <c r="A20" t="s">
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="9" t="s">
@@ -3008,70 +3072,70 @@
         <v>50</v>
       </c>
       <c r="G20">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>99.410609037328001</v>
+        <v>97.502104967723795</v>
       </c>
       <c r="I20">
-        <v>99.441100601891605</v>
+        <v>98.020654044750401</v>
       </c>
       <c r="J20">
-        <v>99.655320982335198</v>
+        <v>98.147350280051697</v>
       </c>
       <c r="K20">
-        <v>99.655320982335198</v>
+        <v>98.147350280051697</v>
       </c>
       <c r="L20">
-        <v>98.953301127214104</v>
+        <v>96.296296296296205</v>
       </c>
       <c r="M20">
-        <v>99.3532740501212</v>
+        <v>96.529459241323593</v>
       </c>
       <c r="N20">
-        <v>99.548095545513206</v>
+        <v>98.083961248654404</v>
       </c>
       <c r="O20">
-        <v>99.3532740501212</v>
+        <v>96.529459241323593</v>
       </c>
       <c r="P20">
-        <v>98.953301127214104</v>
+        <v>96.296296296296205</v>
       </c>
       <c r="Q20">
-        <v>98.953301127214104</v>
+        <v>96.296296296296205</v>
       </c>
       <c r="R20">
-        <v>99.655320982335198</v>
+        <v>98.147350280051697</v>
       </c>
       <c r="S20">
-        <v>99.441100601891605</v>
+        <v>98.020654044750401</v>
       </c>
       <c r="T20">
-        <v>99.152884227511095</v>
+        <v>96.412736799677504</v>
       </c>
       <c r="U20">
-        <v>93.516699410608993</v>
+        <v>92.534381139489199</v>
       </c>
       <c r="V20">
-        <v>95.166163141993906</v>
+        <v>95.092024539877301</v>
       </c>
       <c r="W20">
-        <v>94.879518072289102</v>
+        <v>93.3734939759036</v>
       </c>
       <c r="X20">
-        <v>94.879518072289102</v>
+        <v>93.3734939759036</v>
       </c>
       <c r="Y20">
         <v>90.960451977401107</v>
       </c>
       <c r="Z20">
-        <v>90.449438202247194</v>
+        <v>87.978142076502706</v>
       </c>
       <c r="AA20">
-        <v>95.022624434389101</v>
+        <v>94.224924012157999</v>
       </c>
       <c r="AB20">
-        <v>90.449438202247194</v>
+        <v>87.978142076502706</v>
       </c>
       <c r="AC20">
         <v>90.960451977401107</v>
@@ -3080,66 +3144,66 @@
         <v>90.960451977401107</v>
       </c>
       <c r="AE20">
-        <v>94.879518072289102</v>
+        <v>93.3734939759036</v>
       </c>
       <c r="AF20">
-        <v>95.166163141993906</v>
+        <v>95.092024539877301</v>
       </c>
       <c r="AG20">
-        <v>90.704225352112601</v>
+        <v>89.4444444444444</v>
       </c>
       <c r="AH20">
-        <v>93.9960629921259</v>
+        <v>92.125984251968504</v>
       </c>
       <c r="AI20">
-        <v>95.0524737631184</v>
+        <v>93.175074183976193</v>
       </c>
       <c r="AJ20">
-        <v>95.770392749244706</v>
+        <v>94.864048338368505</v>
       </c>
       <c r="AK20">
-        <v>95.770392749244706</v>
+        <v>94.864048338368505</v>
       </c>
       <c r="AL20">
-        <v>90.677966101694906</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AM20">
-        <v>91.977077363896797</v>
+        <v>90.058479532163702</v>
       </c>
       <c r="AN20">
-        <v>95.410082768999203</v>
+        <v>94.011976047904199</v>
       </c>
       <c r="AO20">
-        <v>91.977077363896797</v>
+        <v>90.058479532163702</v>
       </c>
       <c r="AP20">
-        <v>90.677966101694906</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AQ20">
-        <v>90.677966101694906</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AR20">
-        <v>95.770392749244706</v>
+        <v>94.864048338368505</v>
       </c>
       <c r="AS20">
-        <v>95.0524737631184</v>
+        <v>93.175074183976193</v>
       </c>
       <c r="AT20">
-        <v>91.322901849217601</v>
+        <v>88.505747126436702</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>32</v>
+      <c r="C21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>22</v>
@@ -3148,138 +3212,138 @@
         <v>50</v>
       </c>
       <c r="G21">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H21">
-        <v>99.382542801010302</v>
+        <v>99.438675273645799</v>
       </c>
       <c r="I21">
-        <v>99.611566681053006</v>
+        <v>99.441340782122893</v>
       </c>
       <c r="J21">
-        <v>99.439896596294702</v>
+        <v>99.6984058595433</v>
       </c>
       <c r="K21">
-        <v>99.439896596294702</v>
+        <v>99.6984058595433</v>
       </c>
       <c r="L21">
-        <v>99.275362318840493</v>
+        <v>98.953301127214104</v>
       </c>
       <c r="M21">
-        <v>98.956661316211793</v>
+        <v>99.433656957928804</v>
       </c>
       <c r="N21">
-        <v>99.525657611039193</v>
+        <v>99.569707401032701</v>
       </c>
       <c r="O21">
-        <v>98.956661316211793</v>
+        <v>99.433656957928804</v>
       </c>
       <c r="P21">
-        <v>99.275362318840493</v>
+        <v>98.953301127214104</v>
       </c>
       <c r="Q21">
-        <v>99.275362318840493</v>
+        <v>98.953301127214104</v>
       </c>
       <c r="R21">
-        <v>99.439896596294702</v>
+        <v>99.6984058595433</v>
       </c>
       <c r="S21">
-        <v>99.611566681053006</v>
+        <v>99.441340782122893</v>
       </c>
       <c r="T21">
-        <v>99.115755627009605</v>
+        <v>99.192897497982202</v>
       </c>
       <c r="U21">
         <v>93.713163064832997</v>
       </c>
       <c r="V21">
-        <v>94.910179640718496</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="W21">
-        <v>95.481927710843294</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="X21">
-        <v>95.481927710843294</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="Y21">
-        <v>90.395480225988706</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="Z21">
-        <v>91.428571428571402</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AA21">
-        <v>95.195195195195197</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="AB21">
-        <v>91.428571428571402</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AC21">
-        <v>90.395480225988706</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AD21">
-        <v>90.395480225988706</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AE21">
-        <v>95.481927710843294</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="AF21">
-        <v>94.910179640718496</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="AG21">
-        <v>90.909090909090907</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AH21">
-        <v>93.110236220472402</v>
+        <v>93.405511811023601</v>
       </c>
       <c r="AI21">
-        <v>94.179104477611901</v>
+        <v>94.336810730253305</v>
       </c>
       <c r="AJ21">
-        <v>95.317220543806599</v>
+        <v>95.619335347431999</v>
       </c>
       <c r="AK21">
-        <v>95.317220543806599</v>
+        <v>95.619335347431999</v>
       </c>
       <c r="AL21">
-        <v>88.983050847457605</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AM21">
-        <v>91.040462427745595</v>
+        <v>91.594202898550705</v>
       </c>
       <c r="AN21">
-        <v>94.744744744744693</v>
+        <v>94.973743435858907</v>
       </c>
       <c r="AO21">
-        <v>91.040462427745595</v>
+        <v>91.594202898550705</v>
       </c>
       <c r="AP21">
-        <v>88.983050847457605</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AQ21">
-        <v>88.983050847457605</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AR21">
-        <v>95.317220543806599</v>
+        <v>95.619335347431999</v>
       </c>
       <c r="AS21">
-        <v>94.179104477611901</v>
+        <v>94.336810730253305</v>
       </c>
       <c r="AT21">
-        <v>90</v>
+        <v>90.414878397711007</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>55</v>
+      <c r="A22" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>29</v>
+      <c r="D22" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>22</v>
@@ -3288,279 +3352,280 @@
         <v>50</v>
       </c>
       <c r="G22">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H22">
-        <v>99.915801291046805</v>
+        <v>99.410609037328001</v>
       </c>
       <c r="I22">
-        <v>99.9568965517241</v>
+        <v>99.441100601891605</v>
       </c>
       <c r="J22">
-        <v>99.913830245583796</v>
+        <v>99.655320982335198</v>
       </c>
       <c r="K22">
-        <v>99.913830245583796</v>
+        <v>99.655320982335198</v>
       </c>
       <c r="L22">
-        <v>99.919484702093399</v>
+        <v>98.953301127214104</v>
       </c>
       <c r="M22">
-        <v>99.839098954143196</v>
+        <v>99.3532740501212</v>
       </c>
       <c r="N22">
-        <v>99.9353587588881</v>
+        <v>99.548095545513206</v>
       </c>
       <c r="O22">
-        <v>99.839098954143196</v>
+        <v>99.3532740501212</v>
       </c>
       <c r="P22">
-        <v>99.919484702093399</v>
+        <v>98.953301127214104</v>
       </c>
       <c r="Q22">
-        <v>99.919484702093399</v>
+        <v>98.953301127214104</v>
       </c>
       <c r="R22">
-        <v>99.913830245583796</v>
+        <v>99.655320982335198</v>
       </c>
       <c r="S22">
-        <v>99.9568965517241</v>
+        <v>99.441100601891605</v>
       </c>
       <c r="T22">
-        <v>99.8792756539235</v>
+        <v>99.152884227511095</v>
       </c>
       <c r="U22">
-        <v>92.927308447937094</v>
+        <v>93.516699410608993</v>
       </c>
       <c r="V22">
-        <v>93.274853801169499</v>
+        <v>95.166163141993906</v>
       </c>
       <c r="W22">
-        <v>96.084337349397501</v>
+        <v>94.879518072289102</v>
       </c>
       <c r="X22">
-        <v>96.084337349397501</v>
+        <v>94.879518072289102</v>
       </c>
       <c r="Y22">
-        <v>87.005649717514103</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="Z22">
-        <v>92.215568862275404</v>
+        <v>90.449438202247194</v>
       </c>
       <c r="AA22">
-        <v>94.658753709198805</v>
+        <v>95.022624434389101</v>
       </c>
       <c r="AB22">
-        <v>92.215568862275404</v>
+        <v>90.449438202247194</v>
       </c>
       <c r="AC22">
-        <v>87.005649717514103</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AD22">
-        <v>87.005649717514103</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AE22">
-        <v>96.084337349397501</v>
+        <v>94.879518072289102</v>
       </c>
       <c r="AF22">
-        <v>93.274853801169499</v>
+        <v>95.166163141993906</v>
       </c>
       <c r="AG22">
-        <v>89.534883720930196</v>
+        <v>90.704225352112601</v>
       </c>
       <c r="AH22">
-        <v>92.618110236220403</v>
+        <v>93.9960629921259</v>
       </c>
       <c r="AI22">
-        <v>92.474674384949296</v>
+        <v>95.0524737631184</v>
       </c>
       <c r="AJ22">
-        <v>96.525679758308101</v>
+        <v>95.770392749244706</v>
       </c>
       <c r="AK22">
-        <v>96.525679758308101</v>
+        <v>95.770392749244706</v>
       </c>
       <c r="AL22">
-        <v>85.310734463276802</v>
+        <v>90.677966101694906</v>
       </c>
       <c r="AM22">
-        <v>92.923076923076906</v>
+        <v>91.977077363896797</v>
       </c>
       <c r="AN22">
-        <v>94.456762749445602</v>
+        <v>95.410082768999203</v>
       </c>
       <c r="AO22">
-        <v>92.923076923076906</v>
+        <v>91.977077363896797</v>
       </c>
       <c r="AP22">
-        <v>85.310734463276802</v>
+        <v>90.677966101694906</v>
       </c>
       <c r="AQ22">
-        <v>85.310734463276802</v>
+        <v>90.677966101694906</v>
       </c>
       <c r="AR22">
-        <v>96.525679758308101</v>
+        <v>95.770392749244706</v>
       </c>
       <c r="AS22">
-        <v>92.474674384949296</v>
+        <v>95.0524737631184</v>
       </c>
       <c r="AT22">
-        <v>88.9543446244477</v>
+        <v>91.322901849217601</v>
       </c>
     </row>
     <row r="23" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
       <c r="C23" s="18"/>
       <c r="D23" s="12"/>
       <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:46" ht="33" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="8">
-        <v>384</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F25">
         <v>50</v>
       </c>
       <c r="G25">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H25">
-        <v>94.190289082234003</v>
+        <v>98.484423238843604</v>
       </c>
       <c r="I25">
-        <v>95.017035775127695</v>
+        <v>98.710786420283597</v>
       </c>
       <c r="J25">
-        <v>96.122361051271</v>
+        <v>98.965962947005593</v>
       </c>
       <c r="K25">
-        <v>96.122361051271</v>
+        <v>98.965962947005593</v>
       </c>
       <c r="L25">
-        <v>90.579710144927503</v>
+        <v>97.584541062801904</v>
       </c>
       <c r="M25">
-        <v>92.592592592592595</v>
+        <v>98.058252427184399</v>
       </c>
       <c r="N25">
-        <v>95.566502463054107</v>
+        <v>98.8382099827883</v>
       </c>
       <c r="O25">
-        <v>92.592592592592595</v>
+        <v>98.058252427184399</v>
       </c>
       <c r="P25">
-        <v>90.579710144927503</v>
+        <v>97.584541062801904</v>
       </c>
       <c r="Q25">
-        <v>90.579710144927503</v>
+        <v>97.584541062801904</v>
       </c>
       <c r="R25">
-        <v>96.122361051271</v>
+        <v>98.965962947005593</v>
       </c>
       <c r="S25">
-        <v>95.017035775127695</v>
+        <v>98.710786420283597</v>
       </c>
       <c r="T25">
-        <v>91.575091575091506</v>
+        <v>97.820823244552003</v>
       </c>
       <c r="U25">
-        <v>91.748526522593295</v>
+        <v>92.141453831041204</v>
       </c>
       <c r="V25">
-        <v>92.397660818713405</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="W25">
-        <v>95.180722891566205</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="X25">
-        <v>95.180722891566205</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="Y25">
-        <v>85.310734463276802</v>
+        <v>88.700564971751405</v>
       </c>
       <c r="Z25">
-        <v>90.419161676646695</v>
+        <v>88.700564971751405</v>
       </c>
       <c r="AA25">
-        <v>93.768545994065207</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="AB25">
-        <v>90.419161676646695</v>
+        <v>88.700564971751405</v>
       </c>
       <c r="AC25">
-        <v>85.310734463276802</v>
+        <v>88.700564971751405</v>
       </c>
       <c r="AD25">
-        <v>85.310734463276802</v>
+        <v>88.700564971751405</v>
       </c>
       <c r="AE25">
-        <v>95.180722891566205</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="AF25">
-        <v>92.397660818713405</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="AG25">
-        <v>87.790697674418595</v>
+        <v>88.700564971751405</v>
       </c>
       <c r="AH25">
-        <v>90.354330708661394</v>
+        <v>93.6023622047244</v>
       </c>
       <c r="AI25">
-        <v>90.869565217391298</v>
+        <v>93.961708394697993</v>
       </c>
       <c r="AJ25">
-        <v>94.712990936555897</v>
+        <v>96.374622356495394</v>
       </c>
       <c r="AK25">
-        <v>94.712990936555897</v>
+        <v>96.374622356495394</v>
       </c>
       <c r="AL25">
-        <v>82.203389830508399</v>
+        <v>88.418079096045204</v>
       </c>
       <c r="AM25">
-        <v>89.263803680981596</v>
+        <v>92.878338278931693</v>
       </c>
       <c r="AN25">
-        <v>92.751479289940804</v>
+        <v>95.152870991797101</v>
       </c>
       <c r="AO25">
-        <v>89.263803680981596</v>
+        <v>92.878338278931693</v>
       </c>
       <c r="AP25">
-        <v>82.203389830508399</v>
+        <v>88.418079096045204</v>
       </c>
       <c r="AQ25">
-        <v>82.203389830508399</v>
+        <v>88.418079096045204</v>
       </c>
       <c r="AR25">
-        <v>94.712990936555897</v>
+        <v>96.374622356495394</v>
       </c>
       <c r="AS25">
-        <v>90.869565217391298</v>
+        <v>93.961708394697993</v>
       </c>
       <c r="AT25">
-        <v>85.588235294117595</v>
+        <v>90.593342981186595</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>57</v>
+      <c r="A26" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -3568,139 +3633,1546 @@
       <c r="C26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="10" t="s">
-        <v>23</v>
+      <c r="E26" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F26">
         <v>50</v>
       </c>
       <c r="G26">
+        <v>49</v>
+      </c>
+      <c r="H26">
+        <v>99.410609037328001</v>
+      </c>
+      <c r="I26">
+        <v>99.441100601891605</v>
+      </c>
+      <c r="J26">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="K26">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="L26">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="M26">
+        <v>99.3532740501212</v>
+      </c>
+      <c r="N26">
+        <v>99.548095545513206</v>
+      </c>
+      <c r="O26">
+        <v>99.3532740501212</v>
+      </c>
+      <c r="P26">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="Q26">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="R26">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="S26">
+        <v>99.441100601891605</v>
+      </c>
+      <c r="T26">
+        <v>99.152884227511095</v>
+      </c>
+      <c r="U26">
+        <v>93.516699410608993</v>
+      </c>
+      <c r="V26">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="W26">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="X26">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="Y26">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="Z26">
+        <v>90.449438202247194</v>
+      </c>
+      <c r="AA26">
+        <v>95.022624434389101</v>
+      </c>
+      <c r="AB26">
+        <v>90.449438202247194</v>
+      </c>
+      <c r="AC26">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AD26">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AE26">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="AF26">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="AG26">
+        <v>90.704225352112601</v>
+      </c>
+      <c r="AH26">
+        <v>93.9960629921259</v>
+      </c>
+      <c r="AI26">
+        <v>95.0524737631184</v>
+      </c>
+      <c r="AJ26">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AK26">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AL26">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AM26">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="AN26">
+        <v>95.410082768999203</v>
+      </c>
+      <c r="AO26">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="AP26">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AQ26">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AR26">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AS26">
+        <v>95.0524737631184</v>
+      </c>
+      <c r="AT26">
+        <v>91.322901849217601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
         <v>39</v>
       </c>
-      <c r="H26">
+      <c r="C27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>99.382542801010302</v>
+      </c>
+      <c r="I27">
+        <v>99.611566681053006</v>
+      </c>
+      <c r="J27">
+        <v>99.439896596294702</v>
+      </c>
+      <c r="K27">
+        <v>99.439896596294702</v>
+      </c>
+      <c r="L27">
+        <v>99.275362318840493</v>
+      </c>
+      <c r="M27">
+        <v>98.956661316211793</v>
+      </c>
+      <c r="N27">
+        <v>99.525657611039193</v>
+      </c>
+      <c r="O27">
+        <v>98.956661316211793</v>
+      </c>
+      <c r="P27">
+        <v>99.275362318840493</v>
+      </c>
+      <c r="Q27">
+        <v>99.275362318840493</v>
+      </c>
+      <c r="R27">
+        <v>99.439896596294702</v>
+      </c>
+      <c r="S27">
+        <v>99.611566681053006</v>
+      </c>
+      <c r="T27">
+        <v>99.115755627009605</v>
+      </c>
+      <c r="U27">
+        <v>93.713163064832997</v>
+      </c>
+      <c r="V27">
+        <v>94.910179640718496</v>
+      </c>
+      <c r="W27">
+        <v>95.481927710843294</v>
+      </c>
+      <c r="X27">
+        <v>95.481927710843294</v>
+      </c>
+      <c r="Y27">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="Z27">
+        <v>91.428571428571402</v>
+      </c>
+      <c r="AA27">
+        <v>95.195195195195197</v>
+      </c>
+      <c r="AB27">
+        <v>91.428571428571402</v>
+      </c>
+      <c r="AC27">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AD27">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AE27">
+        <v>95.481927710843294</v>
+      </c>
+      <c r="AF27">
+        <v>94.910179640718496</v>
+      </c>
+      <c r="AG27">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AH27">
+        <v>93.110236220472402</v>
+      </c>
+      <c r="AI27">
+        <v>94.179104477611901</v>
+      </c>
+      <c r="AJ27">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AK27">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AL27">
+        <v>88.983050847457605</v>
+      </c>
+      <c r="AM27">
+        <v>91.040462427745595</v>
+      </c>
+      <c r="AN27">
+        <v>94.744744744744693</v>
+      </c>
+      <c r="AO27">
+        <v>91.040462427745595</v>
+      </c>
+      <c r="AP27">
+        <v>88.983050847457605</v>
+      </c>
+      <c r="AQ27">
+        <v>88.983050847457605</v>
+      </c>
+      <c r="AR27">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AS27">
+        <v>94.179104477611901</v>
+      </c>
+      <c r="AT27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+      <c r="G28">
+        <v>45</v>
+      </c>
+      <c r="H28">
+        <v>99.915801291046805</v>
+      </c>
+      <c r="I28">
+        <v>99.9568965517241</v>
+      </c>
+      <c r="J28">
+        <v>99.913830245583796</v>
+      </c>
+      <c r="K28">
+        <v>99.913830245583796</v>
+      </c>
+      <c r="L28">
+        <v>99.919484702093399</v>
+      </c>
+      <c r="M28">
+        <v>99.839098954143196</v>
+      </c>
+      <c r="N28">
+        <v>99.9353587588881</v>
+      </c>
+      <c r="O28">
+        <v>99.839098954143196</v>
+      </c>
+      <c r="P28">
+        <v>99.919484702093399</v>
+      </c>
+      <c r="Q28">
+        <v>99.919484702093399</v>
+      </c>
+      <c r="R28">
+        <v>99.913830245583796</v>
+      </c>
+      <c r="S28">
+        <v>99.9568965517241</v>
+      </c>
+      <c r="T28">
+        <v>99.8792756539235</v>
+      </c>
+      <c r="U28">
+        <v>92.927308447937094</v>
+      </c>
+      <c r="V28">
+        <v>93.274853801169499</v>
+      </c>
+      <c r="W28">
+        <v>96.084337349397501</v>
+      </c>
+      <c r="X28">
+        <v>96.084337349397501</v>
+      </c>
+      <c r="Y28">
+        <v>87.005649717514103</v>
+      </c>
+      <c r="Z28">
+        <v>92.215568862275404</v>
+      </c>
+      <c r="AA28">
+        <v>94.658753709198805</v>
+      </c>
+      <c r="AB28">
+        <v>92.215568862275404</v>
+      </c>
+      <c r="AC28">
+        <v>87.005649717514103</v>
+      </c>
+      <c r="AD28">
+        <v>87.005649717514103</v>
+      </c>
+      <c r="AE28">
+        <v>96.084337349397501</v>
+      </c>
+      <c r="AF28">
+        <v>93.274853801169499</v>
+      </c>
+      <c r="AG28">
+        <v>89.534883720930196</v>
+      </c>
+      <c r="AH28">
+        <v>92.618110236220403</v>
+      </c>
+      <c r="AI28">
+        <v>92.474674384949296</v>
+      </c>
+      <c r="AJ28">
+        <v>96.525679758308101</v>
+      </c>
+      <c r="AK28">
+        <v>96.525679758308101</v>
+      </c>
+      <c r="AL28">
+        <v>85.310734463276802</v>
+      </c>
+      <c r="AM28">
+        <v>92.923076923076906</v>
+      </c>
+      <c r="AN28">
+        <v>94.456762749445602</v>
+      </c>
+      <c r="AO28">
+        <v>92.923076923076906</v>
+      </c>
+      <c r="AP28">
+        <v>85.310734463276802</v>
+      </c>
+      <c r="AQ28">
+        <v>85.310734463276802</v>
+      </c>
+      <c r="AR28">
+        <v>96.525679758308101</v>
+      </c>
+      <c r="AS28">
+        <v>92.474674384949296</v>
+      </c>
+      <c r="AT28">
+        <v>88.9543446244477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="18"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="18"/>
+    </row>
+    <row r="30" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A30" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="8">
+        <v>384</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>45</v>
+      </c>
+      <c r="H31">
+        <v>94.190289082234003</v>
+      </c>
+      <c r="I31">
+        <v>95.017035775127695</v>
+      </c>
+      <c r="J31">
+        <v>96.122361051271</v>
+      </c>
+      <c r="K31">
+        <v>96.122361051271</v>
+      </c>
+      <c r="L31">
+        <v>90.579710144927503</v>
+      </c>
+      <c r="M31">
+        <v>92.592592592592595</v>
+      </c>
+      <c r="N31">
+        <v>95.566502463054107</v>
+      </c>
+      <c r="O31">
+        <v>92.592592592592595</v>
+      </c>
+      <c r="P31">
+        <v>90.579710144927503</v>
+      </c>
+      <c r="Q31">
+        <v>90.579710144927503</v>
+      </c>
+      <c r="R31">
+        <v>96.122361051271</v>
+      </c>
+      <c r="S31">
+        <v>95.017035775127695</v>
+      </c>
+      <c r="T31">
+        <v>91.575091575091506</v>
+      </c>
+      <c r="U31">
+        <v>91.748526522593295</v>
+      </c>
+      <c r="V31">
+        <v>92.397660818713405</v>
+      </c>
+      <c r="W31">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="X31">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="Y31">
+        <v>85.310734463276802</v>
+      </c>
+      <c r="Z31">
+        <v>90.419161676646695</v>
+      </c>
+      <c r="AA31">
+        <v>93.768545994065207</v>
+      </c>
+      <c r="AB31">
+        <v>90.419161676646695</v>
+      </c>
+      <c r="AC31">
+        <v>85.310734463276802</v>
+      </c>
+      <c r="AD31">
+        <v>85.310734463276802</v>
+      </c>
+      <c r="AE31">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="AF31">
+        <v>92.397660818713405</v>
+      </c>
+      <c r="AG31">
+        <v>87.790697674418595</v>
+      </c>
+      <c r="AH31">
+        <v>90.354330708661394</v>
+      </c>
+      <c r="AI31">
+        <v>90.869565217391298</v>
+      </c>
+      <c r="AJ31">
+        <v>94.712990936555897</v>
+      </c>
+      <c r="AK31">
+        <v>94.712990936555897</v>
+      </c>
+      <c r="AL31">
+        <v>82.203389830508399</v>
+      </c>
+      <c r="AM31">
+        <v>89.263803680981596</v>
+      </c>
+      <c r="AN31">
+        <v>92.751479289940804</v>
+      </c>
+      <c r="AO31">
+        <v>89.263803680981596</v>
+      </c>
+      <c r="AP31">
+        <v>82.203389830508399</v>
+      </c>
+      <c r="AQ31">
+        <v>82.203389830508399</v>
+      </c>
+      <c r="AR31">
+        <v>94.712990936555897</v>
+      </c>
+      <c r="AS31">
+        <v>90.869565217391298</v>
+      </c>
+      <c r="AT31">
+        <v>85.588235294117595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32">
+        <v>39</v>
+      </c>
+      <c r="H32">
         <v>98.428290766208207</v>
       </c>
-      <c r="I26">
+      <c r="I32">
         <v>98.626019750965995</v>
       </c>
-      <c r="J26">
+      <c r="J32">
         <v>98.965962947005593</v>
       </c>
-      <c r="K26">
+      <c r="K32">
         <v>98.965962947005593</v>
       </c>
-      <c r="L26">
+      <c r="L32">
         <v>97.423510466988702</v>
       </c>
-      <c r="M26">
+      <c r="M32">
         <v>98.055105348460202</v>
       </c>
-      <c r="N26">
+      <c r="N32">
         <v>98.795698924731099</v>
       </c>
-      <c r="O26">
+      <c r="O32">
         <v>98.055105348460202</v>
       </c>
-      <c r="P26">
+      <c r="P32">
         <v>97.423510466988702</v>
       </c>
-      <c r="Q26">
+      <c r="Q32">
         <v>97.423510466988702</v>
       </c>
-      <c r="R26">
+      <c r="R32">
         <v>98.965962947005593</v>
       </c>
-      <c r="S26">
+      <c r="S32">
         <v>98.626019750965995</v>
       </c>
-      <c r="T26">
+      <c r="T32">
         <v>97.738287560581497</v>
       </c>
-      <c r="U26">
+      <c r="U32">
         <v>92.927308447937094</v>
       </c>
-      <c r="V26">
+      <c r="V32">
         <v>94.848484848484802</v>
       </c>
-      <c r="W26">
+      <c r="W32">
         <v>94.277108433734895</v>
       </c>
-      <c r="X26">
+      <c r="X32">
         <v>94.277108433734895</v>
       </c>
-      <c r="Y26">
+      <c r="Y32">
         <v>90.395480225988706</v>
       </c>
-      <c r="Z26">
+      <c r="Z32">
         <v>89.385474860335194</v>
       </c>
-      <c r="AA26">
+      <c r="AA32">
         <v>94.561933534743204</v>
       </c>
-      <c r="AB26">
+      <c r="AB32">
         <v>89.385474860335194</v>
       </c>
-      <c r="AC26">
+      <c r="AC32">
         <v>90.395480225988706</v>
       </c>
-      <c r="AD26">
+      <c r="AD32">
         <v>90.395480225988706</v>
       </c>
-      <c r="AE26">
+      <c r="AE32">
         <v>94.277108433734895</v>
       </c>
-      <c r="AF26">
+      <c r="AF32">
         <v>94.848484848484802</v>
       </c>
-      <c r="AG26">
+      <c r="AG32">
         <v>89.887640449438194</v>
       </c>
-      <c r="AH26">
+      <c r="AH32">
         <v>93.011811023622002</v>
       </c>
-      <c r="AI26">
+      <c r="AI32">
         <v>94.1704035874439</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ32">
         <v>95.166163141993906</v>
       </c>
-      <c r="AK26">
+      <c r="AK32">
         <v>95.166163141993906</v>
       </c>
-      <c r="AL26">
+      <c r="AL32">
         <v>88.983050847457605</v>
       </c>
-      <c r="AM26">
+      <c r="AM32">
         <v>90.7780979827089</v>
       </c>
-      <c r="AN26">
+      <c r="AN32">
         <v>94.665664913598704</v>
       </c>
-      <c r="AO26">
+      <c r="AO32">
         <v>90.7780979827089</v>
       </c>
-      <c r="AP26">
+      <c r="AP32">
         <v>88.983050847457605</v>
       </c>
-      <c r="AQ26">
+      <c r="AQ32">
         <v>88.983050847457605</v>
       </c>
-      <c r="AR26">
+      <c r="AR32">
         <v>95.166163141993906</v>
       </c>
-      <c r="AS26">
+      <c r="AS32">
         <v>94.1704035874439</v>
       </c>
-      <c r="AT26">
+      <c r="AT32">
         <v>89.871611982881603</v>
       </c>
+    </row>
+    <row r="33" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="18"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35">
+        <v>26</v>
+      </c>
+      <c r="H35">
+        <v>95.902329497614303</v>
+      </c>
+      <c r="I35">
+        <v>96.454506621102098</v>
+      </c>
+      <c r="J35">
+        <v>97.285652735889698</v>
+      </c>
+      <c r="K35">
+        <v>97.285652735889698</v>
+      </c>
+      <c r="L35">
+        <v>93.317230273752003</v>
+      </c>
+      <c r="M35">
+        <v>94.844517184942703</v>
+      </c>
+      <c r="N35">
+        <v>96.868296868296795</v>
+      </c>
+      <c r="O35">
+        <v>94.844517184942703</v>
+      </c>
+      <c r="P35">
+        <v>93.317230273752003</v>
+      </c>
+      <c r="Q35">
+        <v>93.317230273752003</v>
+      </c>
+      <c r="R35">
+        <v>97.285652735889698</v>
+      </c>
+      <c r="S35">
+        <v>96.454506621102098</v>
+      </c>
+      <c r="T35">
+        <v>94.074675324675297</v>
+      </c>
+      <c r="U35">
+        <v>92.534381139489199</v>
+      </c>
+      <c r="V35">
+        <v>97.115384615384599</v>
+      </c>
+      <c r="W35">
+        <v>91.265060240963805</v>
+      </c>
+      <c r="X35">
+        <v>91.265060240963805</v>
+      </c>
+      <c r="Y35">
+        <v>94.915254237288096</v>
+      </c>
+      <c r="Z35">
+        <v>85.279187817258801</v>
+      </c>
+      <c r="AA35">
+        <v>94.099378881987505</v>
+      </c>
+      <c r="AB35">
+        <v>85.279187817258801</v>
+      </c>
+      <c r="AC35">
+        <v>94.915254237288096</v>
+      </c>
+      <c r="AD35">
+        <v>94.915254237288096</v>
+      </c>
+      <c r="AE35">
+        <v>91.265060240963805</v>
+      </c>
+      <c r="AF35">
+        <v>97.115384615384599</v>
+      </c>
+      <c r="AG35">
+        <v>89.839572192513302</v>
+      </c>
+      <c r="AH35">
+        <v>91.732283464566905</v>
+      </c>
+      <c r="AI35">
+        <v>96.166134185303505</v>
+      </c>
+      <c r="AJ35">
+        <v>90.936555891238598</v>
+      </c>
+      <c r="AK35">
+        <v>90.936555891238598</v>
+      </c>
+      <c r="AL35">
+        <v>93.220338983050794</v>
+      </c>
+      <c r="AM35">
+        <v>84.615384615384599</v>
+      </c>
+      <c r="AN35">
+        <v>93.478260869565204</v>
+      </c>
+      <c r="AO35">
+        <v>84.615384615384599</v>
+      </c>
+      <c r="AP35">
+        <v>93.220338983050794</v>
+      </c>
+      <c r="AQ35">
+        <v>93.220338983050794</v>
+      </c>
+      <c r="AR35">
+        <v>90.936555891238598</v>
+      </c>
+      <c r="AS35">
+        <v>96.166134185303505</v>
+      </c>
+      <c r="AT35">
+        <v>88.709677419354804</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>33</v>
+      </c>
+      <c r="H36">
+        <v>98.456357002525905</v>
+      </c>
+      <c r="I36">
+        <v>98.584905660377302</v>
+      </c>
+      <c r="J36">
+        <v>99.052132701421797</v>
+      </c>
+      <c r="K36">
+        <v>99.052132701421797</v>
+      </c>
+      <c r="L36">
+        <v>97.342995169082101</v>
+      </c>
+      <c r="M36">
+        <v>98.212835093419898</v>
+      </c>
+      <c r="N36">
+        <v>98.817966903073199</v>
+      </c>
+      <c r="O36">
+        <v>98.212835093419898</v>
+      </c>
+      <c r="P36">
+        <v>97.342995169082101</v>
+      </c>
+      <c r="Q36">
+        <v>97.342995169082101</v>
+      </c>
+      <c r="R36">
+        <v>99.052132701421797</v>
+      </c>
+      <c r="S36">
+        <v>98.584905660377302</v>
+      </c>
+      <c r="T36">
+        <v>97.775980590375994</v>
+      </c>
+      <c r="U36">
+        <v>93.320235756385003</v>
+      </c>
+      <c r="V36">
+        <v>97.756410256410206</v>
+      </c>
+      <c r="W36">
+        <v>91.867469879517998</v>
+      </c>
+      <c r="X36">
+        <v>91.867469879517998</v>
+      </c>
+      <c r="Y36">
+        <v>96.045197740112997</v>
+      </c>
+      <c r="Z36">
+        <v>86.294416243654794</v>
+      </c>
+      <c r="AA36">
+        <v>94.720496894409905</v>
+      </c>
+      <c r="AB36">
+        <v>86.294416243654794</v>
+      </c>
+      <c r="AC36">
+        <v>96.045197740112997</v>
+      </c>
+      <c r="AD36">
+        <v>96.045197740112997</v>
+      </c>
+      <c r="AE36">
+        <v>91.867469879517998</v>
+      </c>
+      <c r="AF36">
+        <v>97.756410256410206</v>
+      </c>
+      <c r="AG36">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AH36">
+        <v>92.519685039370003</v>
+      </c>
+      <c r="AI36">
+        <v>95.216049382715994</v>
+      </c>
+      <c r="AJ36">
+        <v>93.202416918428995</v>
+      </c>
+      <c r="AK36">
+        <v>93.202416918428995</v>
+      </c>
+      <c r="AL36">
+        <v>91.242937853107307</v>
+      </c>
+      <c r="AM36">
+        <v>87.771739130434696</v>
+      </c>
+      <c r="AN36">
+        <v>94.198473282442706</v>
+      </c>
+      <c r="AO36">
+        <v>87.771739130434696</v>
+      </c>
+      <c r="AP36">
+        <v>91.242937853107307</v>
+      </c>
+      <c r="AQ36">
+        <v>91.242937853107307</v>
+      </c>
+      <c r="AR36">
+        <v>93.202416918428995</v>
+      </c>
+      <c r="AS36">
+        <v>95.216049382715994</v>
+      </c>
+      <c r="AT36">
+        <v>89.473684210526301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>97.782767330900896</v>
+      </c>
+      <c r="I37">
+        <v>98.235800344233994</v>
+      </c>
+      <c r="J37">
+        <v>98.362774666092207</v>
+      </c>
+      <c r="K37">
+        <v>98.362774666092207</v>
+      </c>
+      <c r="L37">
+        <v>96.698872785829295</v>
+      </c>
+      <c r="M37">
+        <v>96.9330104923325</v>
+      </c>
+      <c r="N37">
+        <v>98.299246501614604</v>
+      </c>
+      <c r="O37">
+        <v>96.9330104923325</v>
+      </c>
+      <c r="P37">
+        <v>96.698872785829295</v>
+      </c>
+      <c r="Q37">
+        <v>96.698872785829295</v>
+      </c>
+      <c r="R37">
+        <v>98.362774666092207</v>
+      </c>
+      <c r="S37">
+        <v>98.235800344233994</v>
+      </c>
+      <c r="T37">
+        <v>96.815800080612604</v>
+      </c>
+      <c r="U37">
+        <v>92.927308447937094</v>
+      </c>
+      <c r="V37">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="W37">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="X37">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="Y37">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="Z37">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AA37">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="AB37">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AC37">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AD37">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AE37">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="AF37">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="AG37">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AH37">
+        <v>93.307086614173201</v>
+      </c>
+      <c r="AI37">
+        <v>94.065281899109706</v>
+      </c>
+      <c r="AJ37">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AK37">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AL37">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AM37">
+        <v>91.812865497076004</v>
+      </c>
+      <c r="AN37">
+        <v>94.910179640718496</v>
+      </c>
+      <c r="AO37">
+        <v>91.812865497076004</v>
+      </c>
+      <c r="AP37">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AQ37">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AR37">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AS37">
+        <v>94.065281899109706</v>
+      </c>
+      <c r="AT37">
+        <v>90.229885057471193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38">
+        <v>32</v>
+      </c>
+      <c r="H38">
+        <v>98.147628403031106</v>
+      </c>
+      <c r="I38">
+        <v>98.286937901498902</v>
+      </c>
+      <c r="J38">
+        <v>98.879793192589403</v>
+      </c>
+      <c r="K38">
+        <v>98.879793192589403</v>
+      </c>
+      <c r="L38">
+        <v>96.779388083735896</v>
+      </c>
+      <c r="M38">
+        <v>97.882736156351797</v>
+      </c>
+      <c r="N38">
+        <v>98.582474226804095</v>
+      </c>
+      <c r="O38">
+        <v>97.882736156351797</v>
+      </c>
+      <c r="P38">
+        <v>96.779388083735896</v>
+      </c>
+      <c r="Q38">
+        <v>96.779388083735896</v>
+      </c>
+      <c r="R38">
+        <v>98.879793192589403</v>
+      </c>
+      <c r="S38">
+        <v>98.286937901498902</v>
+      </c>
+      <c r="T38">
+        <v>97.327935222671996</v>
+      </c>
+      <c r="U38">
+        <v>93.516699410608993</v>
+      </c>
+      <c r="V38">
+        <v>94.894894894894804</v>
+      </c>
+      <c r="W38">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="X38">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="Y38">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="Z38">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AA38">
+        <v>95.037593984962399</v>
+      </c>
+      <c r="AB38">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AC38">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AD38">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AE38">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="AF38">
+        <v>94.894894894894804</v>
+      </c>
+      <c r="AG38">
+        <v>90.6515580736544</v>
+      </c>
+      <c r="AH38">
+        <v>93.405511811023601</v>
+      </c>
+      <c r="AI38">
+        <v>94.602698650674597</v>
+      </c>
+      <c r="AJ38">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AK38">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AL38">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AM38">
+        <v>91.117478510028604</v>
+      </c>
+      <c r="AN38">
+        <v>94.958615500376197</v>
+      </c>
+      <c r="AO38">
+        <v>91.117478510028604</v>
+      </c>
+      <c r="AP38">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AQ38">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AR38">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AS38">
+        <v>94.602698650674597</v>
+      </c>
+      <c r="AT38">
+        <v>90.469416785206207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>99.242211619421795</v>
+      </c>
+      <c r="I39">
+        <v>99.439655172413794</v>
+      </c>
+      <c r="J39">
+        <v>99.3968117190866</v>
+      </c>
+      <c r="K39">
+        <v>99.3968117190866</v>
+      </c>
+      <c r="L39">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="M39">
+        <v>98.873692679002403</v>
+      </c>
+      <c r="N39">
+        <v>99.418228829993495</v>
+      </c>
+      <c r="O39">
+        <v>98.873692679002403</v>
+      </c>
+      <c r="P39">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="Q39">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="R39">
+        <v>99.3968117190866</v>
+      </c>
+      <c r="S39">
+        <v>99.439655172413794</v>
+      </c>
+      <c r="T39">
+        <v>98.913480885311799</v>
+      </c>
+      <c r="U39">
+        <v>93.909626719056902</v>
+      </c>
+      <c r="V39">
+        <v>94.658753709198805</v>
+      </c>
+      <c r="W39">
+        <v>96.084337349397501</v>
+      </c>
+      <c r="X39">
+        <v>96.084337349397501</v>
+      </c>
+      <c r="Y39">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="Z39">
+        <v>92.441860465116207</v>
+      </c>
+      <c r="AA39">
+        <v>95.366218236173395</v>
+      </c>
+      <c r="AB39">
+        <v>92.441860465116207</v>
+      </c>
+      <c r="AC39">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AD39">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AE39">
+        <v>96.084337349397501</v>
+      </c>
+      <c r="AF39">
+        <v>94.658753709198805</v>
+      </c>
+      <c r="AG39">
+        <v>91.117478510028604</v>
+      </c>
+      <c r="AH39">
+        <v>93.503937007874001</v>
+      </c>
+      <c r="AI39">
+        <v>94.082840236686394</v>
+      </c>
+      <c r="AJ39">
+        <v>96.072507552869993</v>
+      </c>
+      <c r="AK39">
+        <v>96.072507552869993</v>
+      </c>
+      <c r="AL39">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AM39">
+        <v>92.352941176470594</v>
+      </c>
+      <c r="AN39">
+        <v>95.067264573990997</v>
+      </c>
+      <c r="AO39">
+        <v>92.352941176470594</v>
+      </c>
+      <c r="AP39">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AQ39">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AR39">
+        <v>96.072507552869993</v>
+      </c>
+      <c r="AS39">
+        <v>94.082840236686394</v>
+      </c>
+      <c r="AT39">
+        <v>90.489913544668596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40">
+        <v>47</v>
+      </c>
+      <c r="H40">
+        <v>99.017681728880106</v>
+      </c>
+      <c r="I40">
+        <v>99.140154772141003</v>
+      </c>
+      <c r="J40">
+        <v>99.353726841878498</v>
+      </c>
+      <c r="K40">
+        <v>99.353726841878498</v>
+      </c>
+      <c r="L40">
+        <v>98.389694041867898</v>
+      </c>
+      <c r="M40">
+        <v>98.787388843977297</v>
+      </c>
+      <c r="N40">
+        <v>99.246825909188701</v>
+      </c>
+      <c r="O40">
+        <v>98.787388843977297</v>
+      </c>
+      <c r="P40">
+        <v>98.389694041867898</v>
+      </c>
+      <c r="Q40">
+        <v>98.389694041867898</v>
+      </c>
+      <c r="R40">
+        <v>99.353726841878498</v>
+      </c>
+      <c r="S40">
+        <v>99.140154772141003</v>
+      </c>
+      <c r="T40">
+        <v>98.588140379185106</v>
+      </c>
+      <c r="U40">
+        <v>94.302554027504897</v>
+      </c>
+      <c r="V40">
+        <v>95.495495495495405</v>
+      </c>
+      <c r="W40">
+        <v>95.783132530120398</v>
+      </c>
+      <c r="X40">
+        <v>95.783132530120398</v>
+      </c>
+      <c r="Y40">
+        <v>91.525423728813493</v>
+      </c>
+      <c r="Z40">
+        <v>92.045454545454504</v>
+      </c>
+      <c r="AA40">
+        <v>95.639097744360896</v>
+      </c>
+      <c r="AB40">
+        <v>92.045454545454504</v>
+      </c>
+      <c r="AC40">
+        <v>91.525423728813493</v>
+      </c>
+      <c r="AD40">
+        <v>91.525423728813493</v>
+      </c>
+      <c r="AE40">
+        <v>95.783132530120398</v>
+      </c>
+      <c r="AF40">
+        <v>95.495495495495405</v>
+      </c>
+      <c r="AG40">
+        <v>91.784702549575002</v>
+      </c>
+      <c r="AH40">
+        <v>93.6023622047244</v>
+      </c>
+      <c r="AI40">
+        <v>94.752623688155893</v>
+      </c>
+      <c r="AJ40">
+        <v>95.468277945619306</v>
+      </c>
+      <c r="AK40">
+        <v>95.468277945619306</v>
+      </c>
+      <c r="AL40">
+        <v>90.112994350282406</v>
+      </c>
+      <c r="AM40">
+        <v>91.404011461318007</v>
+      </c>
+      <c r="AN40">
+        <v>95.109104589917195</v>
+      </c>
+      <c r="AO40">
+        <v>91.404011461318007</v>
+      </c>
+      <c r="AP40">
+        <v>90.112994350282406</v>
+      </c>
+      <c r="AQ40">
+        <v>90.112994350282406</v>
+      </c>
+      <c r="AR40">
+        <v>95.468277945619306</v>
+      </c>
+      <c r="AS40">
+        <v>94.752623688155893</v>
+      </c>
+      <c r="AT40">
+        <v>90.7539118065433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AH15">
-    <sortCondition ref="A4:A15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AH20">
+    <sortCondition ref="A4:A20"/>
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Archive/ROSE results.xlsx
+++ b/Archive/ROSE results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/idea4 MIL/MIL-SI tasks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B4C981-0E18-AF44-9712-7D75FE0BB941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F8C6C-8DA9-2646-A9CB-B7D7D0D05E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="2020" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="91">
   <si>
     <t xml:space="preserve">Train </t>
   </si>
@@ -159,21 +159,9 @@
     <t>SOTA models</t>
   </si>
   <si>
-    <t>PC_efficientnet_b3_384_401_PT_lf05_b4_ROSE_CLS</t>
-  </si>
-  <si>
     <t>PC_Hybrid2_384_401_PT_lf05_b4_ROSE_CLS</t>
   </si>
   <si>
-    <t>PC_inceptionv3_384_401_PT_lf05_b4_ROSE_CLS</t>
-  </si>
-  <si>
-    <t>PC_ResNet50_384_401_PT_lf05_b4_ROSE_CLS</t>
-  </si>
-  <si>
-    <t>PC_swin_b_384_401_PT_lf05_b4_ROSE_CLS</t>
-  </si>
-  <si>
     <t>PC_ViT_384_401_PT_lf05_b4_ROSE_CLS</t>
   </si>
   <si>
@@ -252,10 +240,61 @@
     <t>CLS+MIL, no cls step MIL regression</t>
   </si>
   <si>
-    <t>Patch-wish augmentations</t>
-  </si>
-  <si>
     <t>MIL-SI</t>
+  </si>
+  <si>
+    <t>Counterpart augmentations</t>
+  </si>
+  <si>
+    <t>conformer_384_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>cross_former_224_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>mobilenetv3_384_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>vgg16_384_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>vgg19_384_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>xception_384_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>Mobilenet v3</t>
+  </si>
+  <si>
+    <t>Cross_former</t>
+  </si>
+  <si>
+    <t>Conformer</t>
+  </si>
+  <si>
+    <t>VGG 16</t>
+  </si>
+  <si>
+    <t>VGG 19</t>
+  </si>
+  <si>
+    <t>Xception</t>
+  </si>
+  <si>
+    <t>swin_b_384_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>ViT_384_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>inceptionv3_384_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>ResNet50_384_401_PT_lf05_b4_ROSE_CLS</t>
+  </si>
+  <si>
+    <t>efficientnet_b3_384_401_PT_lf05_b4_ROSE_CLS</t>
   </si>
 </sst>
 </file>
@@ -1202,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT41"/>
+  <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1494,10 +1533,10 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>25</v>
@@ -1515,129 +1554,129 @@
         <v>50</v>
       </c>
       <c r="H4">
-        <v>93.123772102161098</v>
+        <v>95.112359550561706</v>
       </c>
       <c r="I4">
-        <v>93.613445378151198</v>
+        <v>95.972579263067701</v>
       </c>
       <c r="J4">
-        <v>95.993106419646693</v>
+        <v>96.551724137931004</v>
       </c>
       <c r="K4">
-        <v>95.993106419646693</v>
+        <v>96.551724137931004</v>
       </c>
       <c r="L4">
-        <v>87.761674718196403</v>
+        <v>92.419354838709594</v>
       </c>
       <c r="M4">
-        <v>92.138630600168995</v>
+        <v>93.474714518760194</v>
       </c>
       <c r="N4">
-        <v>94.788342905764694</v>
+        <v>96.261280618822497</v>
       </c>
       <c r="O4">
-        <v>92.138630600168995</v>
+        <v>93.474714518760194</v>
       </c>
       <c r="P4">
-        <v>87.761674718196403</v>
+        <v>92.419354838709594</v>
       </c>
       <c r="Q4">
-        <v>87.761674718196403</v>
+        <v>92.419354838709594</v>
       </c>
       <c r="R4">
-        <v>95.993106419646693</v>
+        <v>96.551724137931004</v>
       </c>
       <c r="S4">
-        <v>93.613445378151198</v>
+        <v>95.972579263067701</v>
       </c>
       <c r="T4">
-        <v>89.896907216494796</v>
+        <v>92.944038929440396</v>
       </c>
       <c r="U4">
-        <v>90.569744597249496</v>
+        <v>92.519685039370003</v>
       </c>
       <c r="V4">
-        <v>94.099378881987505</v>
+        <v>94.545454545454504</v>
       </c>
       <c r="W4">
-        <v>91.265060240963805</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="X4">
-        <v>91.265060240963805</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="Y4">
+        <v>89.772727272727195</v>
+      </c>
+      <c r="Z4">
+        <v>88.764044943820195</v>
+      </c>
+      <c r="AA4">
+        <v>94.259818731117804</v>
+      </c>
+      <c r="AB4">
+        <v>88.764044943820195</v>
+      </c>
+      <c r="AC4">
+        <v>89.772727272727195</v>
+      </c>
+      <c r="AD4">
+        <v>89.772727272727195</v>
+      </c>
+      <c r="AE4">
+        <v>93.975903614457806</v>
+      </c>
+      <c r="AF4">
+        <v>94.545454545454504</v>
+      </c>
+      <c r="AG4">
         <v>89.265536723163805</v>
       </c>
-      <c r="Z4">
-        <v>84.491978609625605</v>
-      </c>
-      <c r="AA4">
-        <v>92.660550458715505</v>
-      </c>
-      <c r="AB4">
-        <v>84.491978609625605</v>
-      </c>
-      <c r="AC4">
-        <v>89.265536723163805</v>
-      </c>
-      <c r="AD4">
-        <v>89.265536723163805</v>
-      </c>
-      <c r="AE4">
-        <v>91.265060240963805</v>
-      </c>
-      <c r="AF4">
-        <v>94.099378881987505</v>
-      </c>
-      <c r="AG4">
-        <v>86.813186813186803</v>
-      </c>
       <c r="AH4">
-        <v>89.566929133858196</v>
+        <v>90.649606299212607</v>
       </c>
       <c r="AI4">
-        <v>91.993957703927407</v>
+        <v>93.019726858876993</v>
       </c>
       <c r="AJ4">
-        <v>91.993957703927407</v>
+        <v>92.598187311178194</v>
       </c>
       <c r="AK4">
-        <v>91.993957703927407</v>
+        <v>92.598187311178194</v>
       </c>
       <c r="AL4">
-        <v>85.028248587570602</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AM4">
-        <v>85.028248587570602</v>
+        <v>86.274509803921504</v>
       </c>
       <c r="AN4">
-        <v>91.993957703927407</v>
+        <v>92.808478425435197</v>
       </c>
       <c r="AO4">
-        <v>85.028248587570602</v>
+        <v>86.274509803921504</v>
       </c>
       <c r="AP4">
-        <v>85.028248587570602</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AQ4">
-        <v>85.028248587570602</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AR4">
-        <v>91.993957703927407</v>
+        <v>92.598187311178194</v>
       </c>
       <c r="AS4">
-        <v>91.993957703927407</v>
+        <v>93.019726858876993</v>
       </c>
       <c r="AT4">
-        <v>85.028248587570602</v>
+        <v>86.638537271448598</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>25</v>
@@ -1652,91 +1691,91 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>93.348301992702702</v>
+        <v>93.7078651685393</v>
       </c>
       <c r="I5">
-        <v>94.227504244482105</v>
+        <v>94.439728353140893</v>
       </c>
       <c r="J5">
-        <v>95.648427401981905</v>
+        <v>95.9879206212252</v>
       </c>
       <c r="K5">
-        <v>95.648427401981905</v>
+        <v>95.9879206212252</v>
       </c>
       <c r="L5">
-        <v>89.049919484702002</v>
+        <v>89.452495974235106</v>
       </c>
       <c r="M5">
-        <v>91.632145816072907</v>
+        <v>92.275747508305599</v>
       </c>
       <c r="N5">
-        <v>94.932649134060199</v>
+        <v>95.207531022678594</v>
       </c>
       <c r="O5">
-        <v>91.632145816072907</v>
+        <v>92.275747508305599</v>
       </c>
       <c r="P5">
-        <v>89.049919484702002</v>
+        <v>89.452495974235106</v>
       </c>
       <c r="Q5">
-        <v>89.049919484702002</v>
+        <v>89.452495974235106</v>
       </c>
       <c r="R5">
-        <v>95.648427401981905</v>
+        <v>95.9879206212252</v>
       </c>
       <c r="S5">
-        <v>94.227504244482105</v>
+        <v>94.439728353140893</v>
       </c>
       <c r="T5">
-        <v>90.322580645161196</v>
+        <v>90.842191332788204</v>
       </c>
       <c r="U5">
-        <v>91.748526522593295</v>
+        <v>91.141732283464506</v>
       </c>
       <c r="V5">
-        <v>92.899408284023593</v>
+        <v>90.6515580736543</v>
       </c>
       <c r="W5">
-        <v>94.578313253011999</v>
+        <v>96.385542168674704</v>
       </c>
       <c r="X5">
-        <v>94.578313253011999</v>
+        <v>96.385542168674704</v>
       </c>
       <c r="Y5">
-        <v>86.440677966101603</v>
+        <v>81.25</v>
       </c>
       <c r="Z5">
-        <v>89.473684210526301</v>
+        <v>92.258064516128997</v>
       </c>
       <c r="AA5">
-        <v>93.731343283582007</v>
+        <v>93.430656934306498</v>
       </c>
       <c r="AB5">
-        <v>89.473684210526301</v>
+        <v>92.258064516128997</v>
       </c>
       <c r="AC5">
-        <v>86.440677966101603</v>
+        <v>81.25</v>
       </c>
       <c r="AD5">
-        <v>86.440677966101603</v>
+        <v>81.25</v>
       </c>
       <c r="AE5">
-        <v>94.578313253011999</v>
+        <v>96.385542168674704</v>
       </c>
       <c r="AF5">
-        <v>92.899408284023593</v>
+        <v>90.6515580736543</v>
       </c>
       <c r="AG5">
-        <v>87.931034482758605</v>
+        <v>86.404833836858003</v>
       </c>
       <c r="AH5">
-        <v>90.649606299212607</v>
+        <v>90.059055118110194</v>
       </c>
       <c r="AI5">
-        <v>90.674318507890902</v>
+        <v>89.900426742532005</v>
       </c>
       <c r="AJ5">
         <v>95.468277945619306</v>
@@ -1745,39 +1784,39 @@
         <v>95.468277945619306</v>
       </c>
       <c r="AL5">
-        <v>81.638418079095999</v>
+        <v>79.943502824858697</v>
       </c>
       <c r="AM5">
-        <v>90.595611285266401</v>
+        <v>90.4153354632587</v>
       </c>
       <c r="AN5">
-        <v>93.009565857247907</v>
+        <v>92.600732600732599</v>
       </c>
       <c r="AO5">
-        <v>90.595611285266401</v>
+        <v>90.4153354632587</v>
       </c>
       <c r="AP5">
-        <v>81.638418079095999</v>
+        <v>79.943502824858697</v>
       </c>
       <c r="AQ5">
-        <v>81.638418079095999</v>
+        <v>79.943502824858697</v>
       </c>
       <c r="AR5">
         <v>95.468277945619306</v>
       </c>
       <c r="AS5">
-        <v>90.674318507890902</v>
+        <v>89.900426742532005</v>
       </c>
       <c r="AT5">
-        <v>85.884101040118793</v>
+        <v>84.857571214392806</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>25</v>
@@ -1792,132 +1831,132 @@
         <v>50</v>
       </c>
       <c r="G6">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>95.593600898119504</v>
+        <v>88.848314606741496</v>
       </c>
       <c r="I6">
-        <v>96.121057118499493</v>
+        <v>90.310402684563698</v>
       </c>
       <c r="J6">
-        <v>97.156398104265406</v>
+        <v>92.841742130228496</v>
       </c>
       <c r="K6">
-        <v>97.156398104265406</v>
+        <v>92.841742130228496</v>
       </c>
       <c r="L6">
-        <v>92.673107890499196</v>
+        <v>81.385979049153903</v>
       </c>
       <c r="M6">
-        <v>94.576828266228404</v>
+        <v>85.884353741496597</v>
       </c>
       <c r="N6">
-        <v>96.635954574673207</v>
+        <v>91.558579630023303</v>
       </c>
       <c r="O6">
-        <v>94.576828266228404</v>
+        <v>85.884353741496597</v>
       </c>
       <c r="P6">
-        <v>92.673107890499196</v>
+        <v>81.385979049153903</v>
       </c>
       <c r="Q6">
-        <v>92.673107890499196</v>
+        <v>81.385979049153903</v>
       </c>
       <c r="R6">
-        <v>97.156398104265406</v>
+        <v>92.841742130228496</v>
       </c>
       <c r="S6">
-        <v>96.121057118499493</v>
+        <v>90.310402684563698</v>
       </c>
       <c r="T6">
-        <v>93.615290768605107</v>
+        <v>83.5746793545717</v>
       </c>
       <c r="U6">
-        <v>92.337917485265194</v>
+        <v>89.960629921259795</v>
       </c>
       <c r="V6">
-        <v>94.259818731117804</v>
+        <v>90.489913544668497</v>
       </c>
       <c r="W6">
-        <v>93.975903614457806</v>
+        <v>94.578313253011999</v>
       </c>
       <c r="X6">
-        <v>93.975903614457806</v>
+        <v>94.578313253011999</v>
       </c>
       <c r="Y6">
-        <v>89.265536723163805</v>
+        <v>81.25</v>
       </c>
       <c r="Z6">
-        <v>88.764044943820195</v>
+        <v>88.819875776397495</v>
       </c>
       <c r="AA6">
-        <v>94.117647058823493</v>
+        <v>92.488954344624403</v>
       </c>
       <c r="AB6">
-        <v>88.764044943820195</v>
+        <v>88.819875776397495</v>
       </c>
       <c r="AC6">
-        <v>89.265536723163805</v>
+        <v>81.25</v>
       </c>
       <c r="AD6">
-        <v>89.265536723163805</v>
+        <v>81.25</v>
       </c>
       <c r="AE6">
-        <v>93.975903614457806</v>
+        <v>94.578313253011999</v>
       </c>
       <c r="AF6">
-        <v>94.259818731117804</v>
+        <v>90.489913544668497</v>
       </c>
       <c r="AG6">
-        <v>89.014084507042199</v>
+        <v>84.866468842729901</v>
       </c>
       <c r="AH6">
-        <v>90.748031496062893</v>
+        <v>89.566929133858196</v>
       </c>
       <c r="AI6">
-        <v>92.900302114803594</v>
+        <v>88.935574229691795</v>
       </c>
       <c r="AJ6">
-        <v>92.900302114803594</v>
+        <v>95.9214501510574</v>
       </c>
       <c r="AK6">
-        <v>92.900302114803594</v>
+        <v>95.9214501510574</v>
       </c>
       <c r="AL6">
-        <v>86.723163841807903</v>
+        <v>77.683615819208995</v>
       </c>
       <c r="AM6">
-        <v>86.723163841807903</v>
+        <v>91.059602649006607</v>
       </c>
       <c r="AN6">
-        <v>92.900302114803594</v>
+        <v>92.296511627906895</v>
       </c>
       <c r="AO6">
-        <v>86.723163841807903</v>
+        <v>91.059602649006607</v>
       </c>
       <c r="AP6">
-        <v>86.723163841807903</v>
+        <v>77.683615819208995</v>
       </c>
       <c r="AQ6">
-        <v>86.723163841807903</v>
+        <v>77.683615819208995</v>
       </c>
       <c r="AR6">
-        <v>92.900302114803594</v>
+        <v>95.9214501510574</v>
       </c>
       <c r="AS6">
-        <v>92.900302114803594</v>
+        <v>88.935574229691795</v>
       </c>
       <c r="AT6">
-        <v>86.723163841807903</v>
+        <v>83.841463414634106</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>25</v>
@@ -1932,132 +1971,132 @@
         <v>50</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H7">
-        <v>92.983440920572505</v>
+        <v>93.123772102161098</v>
       </c>
       <c r="I7">
-        <v>93.490130197395999</v>
+        <v>93.613445378151198</v>
       </c>
       <c r="J7">
-        <v>95.906936665230504</v>
+        <v>95.993106419646693</v>
       </c>
       <c r="K7">
-        <v>95.906936665230504</v>
+        <v>95.993106419646693</v>
       </c>
       <c r="L7">
-        <v>87.5201288244766</v>
+        <v>87.761674718196403</v>
       </c>
       <c r="M7">
-        <v>91.962774957698798</v>
+        <v>92.138630600168995</v>
       </c>
       <c r="N7">
-        <v>94.683113568694097</v>
+        <v>94.788342905764694</v>
       </c>
       <c r="O7">
-        <v>91.962774957698798</v>
+        <v>92.138630600168995</v>
       </c>
       <c r="P7">
-        <v>87.5201288244766</v>
+        <v>87.761674718196403</v>
       </c>
       <c r="Q7">
-        <v>87.5201288244766</v>
+        <v>87.761674718196403</v>
       </c>
       <c r="R7">
-        <v>95.906936665230504</v>
+        <v>95.993106419646693</v>
       </c>
       <c r="S7">
-        <v>93.490130197395999</v>
+        <v>93.613445378151198</v>
       </c>
       <c r="T7">
-        <v>89.686468646864697</v>
+        <v>89.896907216494796</v>
       </c>
       <c r="U7">
-        <v>91.3555992141453</v>
+        <v>90.569744597249496</v>
       </c>
       <c r="V7">
-        <v>93.113772455089801</v>
+        <v>94.099378881987505</v>
       </c>
       <c r="W7">
-        <v>93.674698795180703</v>
+        <v>91.265060240963805</v>
       </c>
       <c r="X7">
-        <v>93.674698795180703</v>
+        <v>91.265060240963805</v>
       </c>
       <c r="Y7">
-        <v>87.005649717514103</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="Z7">
-        <v>88</v>
+        <v>84.491978609625605</v>
       </c>
       <c r="AA7">
-        <v>93.393393393393296</v>
+        <v>92.660550458715505</v>
       </c>
       <c r="AB7">
-        <v>88</v>
+        <v>84.491978609625605</v>
       </c>
       <c r="AC7">
-        <v>87.005649717514103</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AD7">
-        <v>87.005649717514103</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AE7">
-        <v>93.674698795180703</v>
+        <v>91.265060240963805</v>
       </c>
       <c r="AF7">
-        <v>93.113772455089801</v>
+        <v>94.099378881987505</v>
       </c>
       <c r="AG7">
-        <v>87.499999999999901</v>
+        <v>86.813186813186803</v>
       </c>
       <c r="AH7">
-        <v>90.748031496062893</v>
+        <v>89.566929133858196</v>
       </c>
       <c r="AI7">
-        <v>92.514970059880199</v>
+        <v>91.993957703927407</v>
       </c>
       <c r="AJ7">
-        <v>93.353474320241602</v>
+        <v>91.993957703927407</v>
       </c>
       <c r="AK7">
-        <v>93.353474320241602</v>
+        <v>91.993957703927407</v>
       </c>
       <c r="AL7">
-        <v>85.875706214689203</v>
+        <v>85.028248587570602</v>
       </c>
       <c r="AM7">
-        <v>87.356321839080394</v>
+        <v>85.028248587570602</v>
       </c>
       <c r="AN7">
-        <v>92.932330827067602</v>
+        <v>91.993957703927407</v>
       </c>
       <c r="AO7">
-        <v>87.356321839080394</v>
+        <v>85.028248587570602</v>
       </c>
       <c r="AP7">
-        <v>85.875706214689203</v>
+        <v>85.028248587570602</v>
       </c>
       <c r="AQ7">
-        <v>85.875706214689203</v>
+        <v>85.028248587570602</v>
       </c>
       <c r="AR7">
-        <v>93.353474320241602</v>
+        <v>91.993957703927407</v>
       </c>
       <c r="AS7">
-        <v>92.514970059880199</v>
+        <v>91.993957703927407</v>
       </c>
       <c r="AT7">
-        <v>86.609686609686605</v>
+        <v>85.028248587570602</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>25</v>
@@ -2072,91 +2111,91 @@
         <v>50</v>
       </c>
       <c r="G8">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>91.495930395733893</v>
+        <v>92.983440920572505</v>
       </c>
       <c r="I8">
-        <v>92.359361880772397</v>
+        <v>93.490130197395999</v>
       </c>
       <c r="J8">
-        <v>94.786729857819907</v>
+        <v>95.906936665230504</v>
       </c>
       <c r="K8">
-        <v>94.786729857819907</v>
+        <v>95.906936665230504</v>
       </c>
       <c r="L8">
-        <v>85.346215780998307</v>
+        <v>87.5201288244766</v>
       </c>
       <c r="M8">
-        <v>89.754445385266706</v>
+        <v>91.962774957698798</v>
       </c>
       <c r="N8">
-        <v>93.557303848607205</v>
+        <v>94.683113568694097</v>
       </c>
       <c r="O8">
-        <v>89.754445385266706</v>
+        <v>91.962774957698798</v>
       </c>
       <c r="P8">
-        <v>85.346215780998307</v>
+        <v>87.5201288244766</v>
       </c>
       <c r="Q8">
-        <v>85.346215780998307</v>
+        <v>87.5201288244766</v>
       </c>
       <c r="R8">
-        <v>94.786729857819907</v>
+        <v>95.906936665230504</v>
       </c>
       <c r="S8">
-        <v>92.359361880772397</v>
+        <v>93.490130197395999</v>
       </c>
       <c r="T8">
-        <v>87.494841106066801</v>
+        <v>89.686468646864697</v>
       </c>
       <c r="U8">
-        <v>91.159135559921395</v>
+        <v>91.3555992141453</v>
       </c>
       <c r="V8">
-        <v>93.353474320241602</v>
+        <v>93.113772455089801</v>
       </c>
       <c r="W8">
-        <v>93.072289156626496</v>
+        <v>93.674698795180703</v>
       </c>
       <c r="X8">
-        <v>93.072289156626496</v>
+        <v>93.674698795180703</v>
       </c>
       <c r="Y8">
-        <v>87.570621468926504</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="Z8">
-        <v>87.078651685393197</v>
+        <v>88</v>
       </c>
       <c r="AA8">
-        <v>93.2126696832579</v>
+        <v>93.393393393393296</v>
       </c>
       <c r="AB8">
-        <v>87.078651685393197</v>
+        <v>88</v>
       </c>
       <c r="AC8">
-        <v>87.570621468926504</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AD8">
-        <v>87.570621468926504</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AE8">
-        <v>93.072289156626496</v>
+        <v>93.674698795180703</v>
       </c>
       <c r="AF8">
-        <v>93.353474320241602</v>
+        <v>93.113772455089801</v>
       </c>
       <c r="AG8">
-        <v>87.323943661971796</v>
+        <v>87.499999999999901</v>
       </c>
       <c r="AH8">
-        <v>89.173228346456696</v>
+        <v>90.748031496062893</v>
       </c>
       <c r="AI8">
-        <v>90.350877192982395</v>
+        <v>92.514970059880199</v>
       </c>
       <c r="AJ8">
         <v>93.353474320241602</v>
@@ -2165,39 +2204,39 @@
         <v>93.353474320241602</v>
       </c>
       <c r="AL8">
-        <v>81.355932203389798</v>
+        <v>85.875706214689203</v>
       </c>
       <c r="AM8">
-        <v>86.746987951807199</v>
+        <v>87.356321839080394</v>
       </c>
       <c r="AN8">
-        <v>91.827637444279304</v>
+        <v>92.932330827067602</v>
       </c>
       <c r="AO8">
-        <v>86.746987951807199</v>
+        <v>87.356321839080394</v>
       </c>
       <c r="AP8">
-        <v>81.355932203389798</v>
+        <v>85.875706214689203</v>
       </c>
       <c r="AQ8">
-        <v>81.355932203389798</v>
+        <v>85.875706214689203</v>
       </c>
       <c r="AR8">
         <v>93.353474320241602</v>
       </c>
       <c r="AS8">
-        <v>90.350877192982395</v>
+        <v>92.514970059880199</v>
       </c>
       <c r="AT8">
-        <v>83.965014577259396</v>
+        <v>86.609686609686605</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>25</v>
@@ -2215,134 +2254,269 @@
         <v>49</v>
       </c>
       <c r="H9">
-        <v>96.996912714005006</v>
+        <v>95.593600898119504</v>
       </c>
       <c r="I9">
-        <v>97.592433361994793</v>
+        <v>96.121057118499493</v>
       </c>
       <c r="J9">
-        <v>97.802671262386895</v>
+        <v>97.156398104265406</v>
       </c>
       <c r="K9">
-        <v>97.802671262386895</v>
+        <v>97.156398104265406</v>
       </c>
       <c r="L9">
-        <v>95.491143317230197</v>
+        <v>92.673107890499196</v>
       </c>
       <c r="M9">
-        <v>95.877122069522997</v>
+        <v>94.576828266228404</v>
       </c>
       <c r="N9">
-        <v>97.697439208091197</v>
+        <v>96.635954574673207</v>
       </c>
       <c r="O9">
-        <v>95.877122069522997</v>
+        <v>94.576828266228404</v>
       </c>
       <c r="P9">
-        <v>95.491143317230197</v>
+        <v>92.673107890499196</v>
       </c>
       <c r="Q9">
-        <v>95.491143317230197</v>
+        <v>92.673107890499196</v>
       </c>
       <c r="R9">
-        <v>97.802671262386895</v>
+        <v>97.156398104265406</v>
       </c>
       <c r="S9">
-        <v>97.592433361994793</v>
+        <v>96.121057118499493</v>
       </c>
       <c r="T9">
-        <v>95.683743444937406</v>
+        <v>93.615290768605107</v>
       </c>
       <c r="U9">
-        <v>92.927308447937094</v>
+        <v>92.337917485265194</v>
       </c>
       <c r="V9">
-        <v>93.786982248520701</v>
+        <v>94.259818731117804</v>
       </c>
       <c r="W9">
-        <v>95.481927710843294</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="X9">
-        <v>95.481927710843294</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="Y9">
-        <v>88.135593220338905</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="Z9">
-        <v>91.228070175438603</v>
+        <v>88.764044943820195</v>
       </c>
       <c r="AA9">
-        <v>94.626865671641795</v>
+        <v>94.117647058823493</v>
       </c>
       <c r="AB9">
-        <v>91.228070175438603</v>
+        <v>88.764044943820195</v>
       </c>
       <c r="AC9">
-        <v>88.135593220338905</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AD9">
-        <v>88.135593220338905</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AE9">
-        <v>95.481927710843294</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="AF9">
-        <v>93.786982248520701</v>
+        <v>94.259818731117804</v>
       </c>
       <c r="AG9">
-        <v>89.655172413793096</v>
+        <v>89.014084507042199</v>
       </c>
       <c r="AH9">
-        <v>90.649606299212607</v>
+        <v>90.748031496062893</v>
       </c>
       <c r="AI9">
-        <v>91.875923190546501</v>
+        <v>92.900302114803594</v>
       </c>
       <c r="AJ9">
-        <v>93.957703927492403</v>
+        <v>92.900302114803594</v>
       </c>
       <c r="AK9">
-        <v>93.957703927492403</v>
+        <v>92.900302114803594</v>
       </c>
       <c r="AL9">
-        <v>84.463276836158101</v>
+        <v>86.723163841807903</v>
       </c>
       <c r="AM9">
-        <v>88.200589970501397</v>
+        <v>86.723163841807903</v>
       </c>
       <c r="AN9">
-        <v>92.905153099327805</v>
+        <v>92.900302114803594</v>
       </c>
       <c r="AO9">
-        <v>88.200589970501397</v>
+        <v>86.723163841807903</v>
       </c>
       <c r="AP9">
-        <v>84.463276836158101</v>
+        <v>86.723163841807903</v>
       </c>
       <c r="AQ9">
-        <v>84.463276836158101</v>
+        <v>86.723163841807903</v>
       </c>
       <c r="AR9">
-        <v>93.957703927492403</v>
+        <v>92.900302114803594</v>
       </c>
       <c r="AS9">
-        <v>91.875923190546501</v>
+        <v>92.900302114803594</v>
       </c>
       <c r="AT9">
-        <v>86.291486291486194</v>
+        <v>86.723163841807903</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="33" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>76</v>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8">
+        <v>384</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>31</v>
+      </c>
+      <c r="H10">
+        <v>92.724719101123597</v>
+      </c>
+      <c r="I10">
+        <v>93.530655391120504</v>
+      </c>
+      <c r="J10">
+        <v>95.427092320966295</v>
+      </c>
+      <c r="K10">
+        <v>95.427092320966295</v>
+      </c>
+      <c r="L10">
+        <v>87.681159420289802</v>
+      </c>
+      <c r="M10">
+        <v>91.129707112970706</v>
+      </c>
+      <c r="N10">
+        <v>94.469357249626299</v>
+      </c>
+      <c r="O10">
+        <v>91.129707112970706</v>
+      </c>
+      <c r="P10">
+        <v>87.681159420289802</v>
+      </c>
+      <c r="Q10">
+        <v>87.681159420289802</v>
+      </c>
+      <c r="R10">
+        <v>95.427092320966295</v>
+      </c>
+      <c r="S10">
+        <v>93.530655391120504</v>
+      </c>
+      <c r="T10">
+        <v>89.372178908494007</v>
+      </c>
+      <c r="U10">
+        <v>92.716535433070803</v>
+      </c>
+      <c r="V10">
+        <v>93.768545994065207</v>
+      </c>
+      <c r="W10">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="X10">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="Y10">
+        <v>88.068181818181799</v>
+      </c>
+      <c r="Z10">
+        <v>90.643274853801103</v>
+      </c>
+      <c r="AA10">
+        <v>94.469357249626299</v>
+      </c>
+      <c r="AB10">
+        <v>90.643274853801103</v>
+      </c>
+      <c r="AC10">
+        <v>88.068181818181799</v>
+      </c>
+      <c r="AD10">
+        <v>88.068181818181799</v>
+      </c>
+      <c r="AE10">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="AF10">
+        <v>93.768545994065207</v>
+      </c>
+      <c r="AG10">
+        <v>89.337175792507196</v>
+      </c>
+      <c r="AH10">
+        <v>90.944881889763707</v>
+      </c>
+      <c r="AI10">
+        <v>90.714285714285694</v>
+      </c>
+      <c r="AJ10">
+        <v>95.9214501510574</v>
+      </c>
+      <c r="AK10">
+        <v>95.9214501510574</v>
+      </c>
+      <c r="AL10">
+        <v>81.638418079095999</v>
+      </c>
+      <c r="AM10">
+        <v>91.455696202531598</v>
+      </c>
+      <c r="AN10">
+        <v>93.245227606461</v>
+      </c>
+      <c r="AO10">
+        <v>91.455696202531598</v>
+      </c>
+      <c r="AP10">
+        <v>81.638418079095999</v>
+      </c>
+      <c r="AQ10">
+        <v>81.638418079095999</v>
+      </c>
+      <c r="AR10">
+        <v>95.9214501510574</v>
+      </c>
+      <c r="AS10">
+        <v>90.714285714285694</v>
+      </c>
+      <c r="AT10">
+        <v>86.268656716417894</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>25</v>
@@ -2357,129 +2531,129 @@
         <v>50</v>
       </c>
       <c r="G11">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H11">
-        <v>95.505617977528004</v>
+        <v>91.495930395733893</v>
       </c>
       <c r="I11">
-        <v>96.054306321595206</v>
+        <v>92.359361880772397</v>
       </c>
       <c r="J11">
-        <v>97.125697125697101</v>
+        <v>94.786729857819907</v>
       </c>
       <c r="K11">
-        <v>97.125697125697101</v>
+        <v>94.786729857819907</v>
       </c>
       <c r="L11">
-        <v>92.4328722538649</v>
+        <v>85.346215780998307</v>
       </c>
       <c r="M11">
-        <v>94.430590191188699</v>
+        <v>89.754445385266706</v>
       </c>
       <c r="N11">
-        <v>96.587030716723504</v>
+        <v>93.557303848607205</v>
       </c>
       <c r="O11">
-        <v>94.430590191188699</v>
+        <v>89.754445385266706</v>
       </c>
       <c r="P11">
-        <v>92.4328722538649</v>
+        <v>85.346215780998307</v>
       </c>
       <c r="Q11">
-        <v>92.4328722538649</v>
+        <v>85.346215780998307</v>
       </c>
       <c r="R11">
-        <v>97.125697125697101</v>
+        <v>94.786729857819907</v>
       </c>
       <c r="S11">
-        <v>96.054306321595206</v>
+        <v>92.359361880772397</v>
       </c>
       <c r="T11">
-        <v>93.421052631578902</v>
+        <v>87.494841106066801</v>
       </c>
       <c r="U11">
-        <v>93.503937007874001</v>
+        <v>91.159135559921395</v>
       </c>
       <c r="V11">
-        <v>95.166163141993906</v>
+        <v>93.353474320241602</v>
       </c>
       <c r="W11">
-        <v>94.879518072289102</v>
+        <v>93.072289156626496</v>
       </c>
       <c r="X11">
-        <v>94.879518072289102</v>
+        <v>93.072289156626496</v>
       </c>
       <c r="Y11">
-        <v>90.909090909090907</v>
+        <v>87.570621468926504</v>
       </c>
       <c r="Z11">
-        <v>90.395480225988706</v>
+        <v>87.078651685393197</v>
       </c>
       <c r="AA11">
-        <v>95.022624434389101</v>
+        <v>93.2126696832579</v>
       </c>
       <c r="AB11">
-        <v>90.395480225988706</v>
+        <v>87.078651685393197</v>
       </c>
       <c r="AC11">
-        <v>90.909090909090907</v>
+        <v>87.570621468926504</v>
       </c>
       <c r="AD11">
-        <v>90.909090909090907</v>
+        <v>87.570621468926504</v>
       </c>
       <c r="AE11">
-        <v>94.879518072289102</v>
+        <v>93.072289156626496</v>
       </c>
       <c r="AF11">
-        <v>95.166163141993906</v>
+        <v>93.353474320241602</v>
       </c>
       <c r="AG11">
-        <v>90.6515580736544</v>
+        <v>87.323943661971796</v>
       </c>
       <c r="AH11">
-        <v>92.716535433070803</v>
+        <v>89.173228346456696</v>
       </c>
       <c r="AI11">
-        <v>94.410876132930497</v>
+        <v>90.350877192982395</v>
       </c>
       <c r="AJ11">
-        <v>94.410876132930497</v>
+        <v>93.353474320241602</v>
       </c>
       <c r="AK11">
-        <v>94.410876132930497</v>
+        <v>93.353474320241602</v>
       </c>
       <c r="AL11">
-        <v>89.548022598870006</v>
+        <v>81.355932203389798</v>
       </c>
       <c r="AM11">
-        <v>89.548022598870006</v>
+        <v>86.746987951807199</v>
       </c>
       <c r="AN11">
-        <v>94.410876132930497</v>
+        <v>91.827637444279304</v>
       </c>
       <c r="AO11">
-        <v>89.548022598870006</v>
+        <v>86.746987951807199</v>
       </c>
       <c r="AP11">
-        <v>89.548022598870006</v>
+        <v>81.355932203389798</v>
       </c>
       <c r="AQ11">
-        <v>89.548022598870006</v>
+        <v>81.355932203389798</v>
       </c>
       <c r="AR11">
-        <v>94.410876132930497</v>
+        <v>93.353474320241602</v>
       </c>
       <c r="AS11">
-        <v>94.410876132930497</v>
+        <v>90.350877192982395</v>
       </c>
       <c r="AT11">
-        <v>89.548022598870006</v>
+        <v>83.965014577259396</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -2497,132 +2671,132 @@
         <v>50</v>
       </c>
       <c r="G12">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H12">
-        <v>93.286516853932497</v>
+        <v>96.996912714005006</v>
       </c>
       <c r="I12">
-        <v>94.215227562739202</v>
+        <v>97.592433361994793</v>
       </c>
       <c r="J12">
-        <v>95.556514236410607</v>
+        <v>97.802671262386895</v>
       </c>
       <c r="K12">
-        <v>95.556514236410607</v>
+        <v>97.802671262386895</v>
       </c>
       <c r="L12">
-        <v>89.049919484702002</v>
+        <v>95.491143317230197</v>
       </c>
       <c r="M12">
-        <v>91.480562448304298</v>
+        <v>95.877122069522997</v>
       </c>
       <c r="N12">
-        <v>94.881130863139802</v>
+        <v>97.697439208091197</v>
       </c>
       <c r="O12">
-        <v>91.480562448304298</v>
+        <v>95.877122069522997</v>
       </c>
       <c r="P12">
-        <v>89.049919484702002</v>
+        <v>95.491143317230197</v>
       </c>
       <c r="Q12">
-        <v>89.049919484702002</v>
+        <v>95.491143317230197</v>
       </c>
       <c r="R12">
-        <v>95.556514236410607</v>
+        <v>97.802671262386895</v>
       </c>
       <c r="S12">
-        <v>94.215227562739202</v>
+        <v>97.592433361994793</v>
       </c>
       <c r="T12">
-        <v>90.248878008975893</v>
+        <v>95.683743444937406</v>
       </c>
       <c r="U12">
-        <v>91.732283464566905</v>
+        <v>92.927308447937094</v>
       </c>
       <c r="V12">
-        <v>93.154761904761898</v>
+        <v>93.786982248520701</v>
       </c>
       <c r="W12">
-        <v>94.277108433734895</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="X12">
-        <v>94.277108433734895</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="Y12">
-        <v>86.931818181818102</v>
+        <v>88.135593220338905</v>
       </c>
       <c r="Z12">
-        <v>88.953488372093005</v>
+        <v>91.228070175438603</v>
       </c>
       <c r="AA12">
-        <v>93.712574850299404</v>
+        <v>94.626865671641795</v>
       </c>
       <c r="AB12">
-        <v>88.953488372093005</v>
+        <v>91.228070175438603</v>
       </c>
       <c r="AC12">
-        <v>86.931818181818102</v>
+        <v>88.135593220338905</v>
       </c>
       <c r="AD12">
-        <v>86.931818181818102</v>
+        <v>88.135593220338905</v>
       </c>
       <c r="AE12">
-        <v>94.277108433734895</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="AF12">
-        <v>93.154761904761898</v>
+        <v>93.786982248520701</v>
       </c>
       <c r="AG12">
-        <v>87.931034482758605</v>
+        <v>89.655172413793096</v>
       </c>
       <c r="AH12">
-        <v>92.322834645669204</v>
+        <v>90.649606299212607</v>
       </c>
       <c r="AI12">
-        <v>92.941176470588204</v>
+        <v>91.875923190546501</v>
       </c>
       <c r="AJ12">
-        <v>95.468277945619306</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AK12">
-        <v>95.468277945619306</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AL12">
-        <v>86.440677966101603</v>
+        <v>84.463276836158101</v>
       </c>
       <c r="AM12">
-        <v>91.071428571428498</v>
+        <v>88.200589970501397</v>
       </c>
       <c r="AN12">
-        <v>94.187779433681001</v>
+        <v>92.905153099327805</v>
       </c>
       <c r="AO12">
-        <v>91.071428571428498</v>
+        <v>88.200589970501397</v>
       </c>
       <c r="AP12">
-        <v>86.440677966101603</v>
+        <v>84.463276836158101</v>
       </c>
       <c r="AQ12">
-        <v>86.440677966101603</v>
+        <v>84.463276836158101</v>
       </c>
       <c r="AR12">
-        <v>95.468277945619306</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AS12">
-        <v>92.941176470588204</v>
+        <v>91.875923190546501</v>
       </c>
       <c r="AT12">
-        <v>88.695652173913004</v>
+        <v>86.291486291486194</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>25</v>
@@ -2637,289 +2811,564 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>93.876404494382001</v>
+        <v>88.820224719101105</v>
       </c>
       <c r="I13">
-        <v>94.748078565328697</v>
+        <v>90.540540540540505</v>
       </c>
       <c r="J13">
-        <v>95.894554883318904</v>
+        <v>92.493528904227702</v>
       </c>
       <c r="K13">
-        <v>95.894554883318904</v>
+        <v>92.493528904227702</v>
       </c>
       <c r="L13">
-        <v>90.128410914927699</v>
+        <v>81.9645732689211</v>
       </c>
       <c r="M13">
-        <v>92.200328407224902</v>
+        <v>85.402684563758299</v>
       </c>
       <c r="N13">
-        <v>95.317869415807493</v>
+        <v>91.506615450277394</v>
       </c>
       <c r="O13">
-        <v>92.200328407224902</v>
+        <v>85.402684563758299</v>
       </c>
       <c r="P13">
-        <v>90.128410914927699</v>
+        <v>81.9645732689211</v>
       </c>
       <c r="Q13">
-        <v>90.128410914927699</v>
+        <v>81.9645732689211</v>
       </c>
       <c r="R13">
-        <v>95.894554883318904</v>
+        <v>92.493528904227702</v>
       </c>
       <c r="S13">
-        <v>94.748078565328697</v>
+        <v>90.540540540540505</v>
       </c>
       <c r="T13">
-        <v>91.152597402597394</v>
+        <v>83.648315529991706</v>
       </c>
       <c r="U13">
-        <v>93.8976377952755</v>
+        <v>91.732283464566905</v>
       </c>
       <c r="V13">
-        <v>94.925373134328296</v>
+        <v>91.428571428571402</v>
       </c>
       <c r="W13">
-        <v>95.783132530120398</v>
+        <v>96.385542168674704</v>
       </c>
       <c r="X13">
-        <v>95.783132530120398</v>
+        <v>96.385542168674704</v>
       </c>
       <c r="Y13">
-        <v>90.340909090909093</v>
+        <v>82.954545454545396</v>
       </c>
       <c r="Z13">
-        <v>91.907514450866998</v>
+        <v>92.4050632911392</v>
       </c>
       <c r="AA13">
-        <v>95.352323838080906</v>
+        <v>93.841642228738905</v>
       </c>
       <c r="AB13">
-        <v>91.907514450866998</v>
+        <v>92.4050632911392</v>
       </c>
       <c r="AC13">
-        <v>90.340909090909093</v>
+        <v>82.954545454545396</v>
       </c>
       <c r="AD13">
-        <v>90.340909090909093</v>
+        <v>82.954545454545396</v>
       </c>
       <c r="AE13">
-        <v>95.783132530120398</v>
+        <v>96.385542168674704</v>
       </c>
       <c r="AF13">
-        <v>94.925373134328296</v>
+        <v>91.428571428571402</v>
       </c>
       <c r="AG13">
-        <v>91.117478510028604</v>
+        <v>87.425149700598794</v>
       </c>
       <c r="AH13">
-        <v>92.519685039370003</v>
+        <v>89.665354330708595</v>
       </c>
       <c r="AI13">
-        <v>94.528875379939194</v>
+        <v>89.170182841068893</v>
       </c>
       <c r="AJ13">
-        <v>93.957703927492403</v>
+        <v>95.770392749244706</v>
       </c>
       <c r="AK13">
-        <v>93.957703927492403</v>
+        <v>95.770392749244706</v>
       </c>
       <c r="AL13">
-        <v>89.830508474576206</v>
+        <v>78.248587570621396</v>
       </c>
       <c r="AM13">
-        <v>88.826815642458101</v>
+        <v>90.819672131147499</v>
       </c>
       <c r="AN13">
-        <v>94.242424242424207</v>
+        <v>92.352512745812007</v>
       </c>
       <c r="AO13">
-        <v>88.826815642458101</v>
+        <v>90.819672131147499</v>
       </c>
       <c r="AP13">
-        <v>89.830508474576206</v>
+        <v>78.248587570621396</v>
       </c>
       <c r="AQ13">
-        <v>89.830508474576206</v>
+        <v>78.248587570621396</v>
       </c>
       <c r="AR13">
-        <v>93.957703927492403</v>
+        <v>95.770392749244706</v>
       </c>
       <c r="AS13">
-        <v>94.528875379939194</v>
+        <v>89.170182841068893</v>
       </c>
       <c r="AT13">
-        <v>89.325842696629195</v>
+        <v>84.066767830045507</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="8">
+        <v>384</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>37</v>
+      </c>
+      <c r="H14">
+        <v>91.516853932584198</v>
+      </c>
+      <c r="I14">
+        <v>92.498946481247302</v>
+      </c>
+      <c r="J14">
+        <v>94.652867615351397</v>
+      </c>
+      <c r="K14">
+        <v>94.652867615351397</v>
+      </c>
+      <c r="L14">
+        <v>85.656728444802496</v>
+      </c>
+      <c r="M14">
+        <v>89.55349620893</v>
+      </c>
+      <c r="N14">
+        <v>93.563512361466294</v>
+      </c>
+      <c r="O14">
+        <v>89.55349620893</v>
+      </c>
+      <c r="P14">
+        <v>85.656728444802496</v>
+      </c>
+      <c r="Q14">
+        <v>85.656728444802496</v>
+      </c>
+      <c r="R14">
+        <v>94.652867615351397</v>
+      </c>
+      <c r="S14">
+        <v>92.498946481247302</v>
+      </c>
+      <c r="T14">
+        <v>87.561779242174595</v>
+      </c>
+      <c r="U14">
+        <v>91.338582677165306</v>
+      </c>
+      <c r="V14">
+        <v>92.857142857142804</v>
+      </c>
+      <c r="W14">
+        <v>93.975903614457806</v>
+      </c>
+      <c r="X14">
+        <v>93.975903614457806</v>
+      </c>
+      <c r="Y14">
+        <v>86.363636363636303</v>
+      </c>
+      <c r="Z14">
+        <v>88.3720930232558</v>
+      </c>
+      <c r="AA14">
+        <v>93.413173652694596</v>
+      </c>
+      <c r="AB14">
+        <v>88.3720930232558</v>
+      </c>
+      <c r="AC14">
+        <v>86.363636363636303</v>
+      </c>
+      <c r="AD14">
+        <v>86.363636363636303</v>
+      </c>
+      <c r="AE14">
+        <v>93.975903614457806</v>
+      </c>
+      <c r="AF14">
+        <v>92.857142857142804</v>
+      </c>
+      <c r="AG14">
+        <v>87.356321839080394</v>
+      </c>
+      <c r="AH14">
+        <v>89.665354330708595</v>
+      </c>
+      <c r="AI14">
+        <v>91.016200294550799</v>
+      </c>
+      <c r="AJ14">
+        <v>93.353474320241602</v>
+      </c>
+      <c r="AK14">
+        <v>93.353474320241602</v>
+      </c>
+      <c r="AL14">
+        <v>82.7683615819209</v>
+      </c>
+      <c r="AM14">
+        <v>86.943620178041499</v>
+      </c>
+      <c r="AN14">
+        <v>92.170022371364595</v>
+      </c>
+      <c r="AO14">
+        <v>86.943620178041499</v>
+      </c>
+      <c r="AP14">
+        <v>82.7683615819209</v>
+      </c>
+      <c r="AQ14">
+        <v>82.7683615819209</v>
+      </c>
+      <c r="AR14">
+        <v>93.353474320241602</v>
+      </c>
+      <c r="AS14">
+        <v>91.016200294550799</v>
+      </c>
+      <c r="AT14">
+        <v>84.804630969609207</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" ht="33" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>77</v>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="8">
+        <v>384</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>93.348301992702702</v>
+      </c>
+      <c r="I15">
+        <v>94.227504244482105</v>
+      </c>
+      <c r="J15">
+        <v>95.648427401981905</v>
+      </c>
+      <c r="K15">
+        <v>95.648427401981905</v>
+      </c>
+      <c r="L15">
+        <v>89.049919484702002</v>
+      </c>
+      <c r="M15">
+        <v>91.632145816072907</v>
+      </c>
+      <c r="N15">
+        <v>94.932649134060199</v>
+      </c>
+      <c r="O15">
+        <v>91.632145816072907</v>
+      </c>
+      <c r="P15">
+        <v>89.049919484702002</v>
+      </c>
+      <c r="Q15">
+        <v>89.049919484702002</v>
+      </c>
+      <c r="R15">
+        <v>95.648427401981905</v>
+      </c>
+      <c r="S15">
+        <v>94.227504244482105</v>
+      </c>
+      <c r="T15">
+        <v>90.322580645161196</v>
+      </c>
+      <c r="U15">
+        <v>91.748526522593295</v>
+      </c>
+      <c r="V15">
+        <v>92.899408284023593</v>
+      </c>
+      <c r="W15">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="X15">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="Y15">
+        <v>86.440677966101603</v>
+      </c>
+      <c r="Z15">
+        <v>89.473684210526301</v>
+      </c>
+      <c r="AA15">
+        <v>93.731343283582007</v>
+      </c>
+      <c r="AB15">
+        <v>89.473684210526301</v>
+      </c>
+      <c r="AC15">
+        <v>86.440677966101603</v>
+      </c>
+      <c r="AD15">
+        <v>86.440677966101603</v>
+      </c>
+      <c r="AE15">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="AF15">
+        <v>92.899408284023593</v>
+      </c>
+      <c r="AG15">
+        <v>87.931034482758605</v>
+      </c>
+      <c r="AH15">
+        <v>90.649606299212607</v>
+      </c>
+      <c r="AI15">
+        <v>90.674318507890902</v>
+      </c>
+      <c r="AJ15">
+        <v>95.468277945619306</v>
+      </c>
+      <c r="AK15">
+        <v>95.468277945619306</v>
+      </c>
+      <c r="AL15">
+        <v>81.638418079095999</v>
+      </c>
+      <c r="AM15">
+        <v>90.595611285266401</v>
+      </c>
+      <c r="AN15">
+        <v>93.009565857247907</v>
+      </c>
+      <c r="AO15">
+        <v>90.595611285266401</v>
+      </c>
+      <c r="AP15">
+        <v>81.638418079095999</v>
+      </c>
+      <c r="AQ15">
+        <v>81.638418079095999</v>
+      </c>
+      <c r="AR15">
+        <v>95.468277945619306</v>
+      </c>
+      <c r="AS15">
+        <v>90.674318507890902</v>
+      </c>
+      <c r="AT15">
+        <v>85.884101040118793</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8">
+        <v>384</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
         <v>39</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16">
-        <v>50</v>
-      </c>
-      <c r="G16">
-        <v>49</v>
-      </c>
-      <c r="H16" s="14">
-        <v>99.410609037328001</v>
-      </c>
-      <c r="I16">
-        <v>99.441100601891605</v>
-      </c>
-      <c r="J16">
-        <v>99.655320982335198</v>
-      </c>
-      <c r="K16">
-        <v>99.655320982335198</v>
-      </c>
-      <c r="L16">
-        <v>98.953301127214104</v>
-      </c>
-      <c r="M16">
-        <v>99.3532740501212</v>
-      </c>
-      <c r="N16">
-        <v>99.548095545513206</v>
-      </c>
-      <c r="O16">
-        <v>99.3532740501212</v>
-      </c>
-      <c r="P16">
-        <v>98.953301127214104</v>
-      </c>
-      <c r="Q16">
-        <v>98.953301127214104</v>
-      </c>
-      <c r="R16">
-        <v>99.655320982335198</v>
-      </c>
-      <c r="S16">
-        <v>99.441100601891605</v>
-      </c>
-      <c r="T16">
-        <v>99.152884227511095</v>
-      </c>
-      <c r="U16" s="14">
-        <v>93.516699410608993</v>
-      </c>
-      <c r="V16">
+      <c r="H18">
+        <v>95.505617977528004</v>
+      </c>
+      <c r="I18">
+        <v>96.054306321595206</v>
+      </c>
+      <c r="J18">
+        <v>97.125697125697101</v>
+      </c>
+      <c r="K18">
+        <v>97.125697125697101</v>
+      </c>
+      <c r="L18">
+        <v>92.4328722538649</v>
+      </c>
+      <c r="M18">
+        <v>94.430590191188699</v>
+      </c>
+      <c r="N18">
+        <v>96.587030716723504</v>
+      </c>
+      <c r="O18">
+        <v>94.430590191188699</v>
+      </c>
+      <c r="P18">
+        <v>92.4328722538649</v>
+      </c>
+      <c r="Q18">
+        <v>92.4328722538649</v>
+      </c>
+      <c r="R18">
+        <v>97.125697125697101</v>
+      </c>
+      <c r="S18">
+        <v>96.054306321595206</v>
+      </c>
+      <c r="T18">
+        <v>93.421052631578902</v>
+      </c>
+      <c r="U18">
+        <v>93.503937007874001</v>
+      </c>
+      <c r="V18">
         <v>95.166163141993906</v>
       </c>
-      <c r="W16">
+      <c r="W18">
         <v>94.879518072289102</v>
       </c>
-      <c r="X16">
+      <c r="X18">
         <v>94.879518072289102</v>
       </c>
-      <c r="Y16">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="Z16">
-        <v>90.449438202247194</v>
-      </c>
-      <c r="AA16">
+      <c r="Y18">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="Z18">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AA18">
         <v>95.022624434389101</v>
       </c>
-      <c r="AB16">
-        <v>90.449438202247194</v>
-      </c>
-      <c r="AC16">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="AD16">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="AE16">
+      <c r="AB18">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AC18">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AD18">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AE18">
         <v>94.879518072289102</v>
       </c>
-      <c r="AF16">
+      <c r="AF18">
         <v>95.166163141993906</v>
       </c>
-      <c r="AG16">
-        <v>90.704225352112601</v>
-      </c>
-      <c r="AH16" s="14">
-        <v>93.9960629921259</v>
-      </c>
-      <c r="AI16">
-        <v>95.0524737631184</v>
-      </c>
-      <c r="AJ16">
-        <v>95.770392749244706</v>
-      </c>
-      <c r="AK16">
-        <v>95.770392749244706</v>
-      </c>
-      <c r="AL16">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="AM16">
-        <v>91.977077363896797</v>
-      </c>
-      <c r="AN16">
-        <v>95.410082768999203</v>
-      </c>
-      <c r="AO16">
-        <v>91.977077363896797</v>
-      </c>
-      <c r="AP16">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="AQ16">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="AR16">
-        <v>95.770392749244706</v>
-      </c>
-      <c r="AS16">
-        <v>95.0524737631184</v>
-      </c>
-      <c r="AT16">
-        <v>91.322901849217601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46" ht="33" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>40</v>
+      <c r="AG18">
+        <v>90.6515580736544</v>
+      </c>
+      <c r="AH18">
+        <v>92.716535433070803</v>
+      </c>
+      <c r="AI18">
+        <v>94.410876132930497</v>
+      </c>
+      <c r="AJ18">
+        <v>94.410876132930497</v>
+      </c>
+      <c r="AK18">
+        <v>94.410876132930497</v>
+      </c>
+      <c r="AL18">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="AM18">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="AN18">
+        <v>94.410876132930497</v>
+      </c>
+      <c r="AO18">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="AP18">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="AQ18">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="AR18">
+        <v>94.410876132930497</v>
+      </c>
+      <c r="AS18">
+        <v>94.410876132930497</v>
+      </c>
+      <c r="AT18">
+        <v>89.548022598870006</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="8">
@@ -2932,138 +3381,138 @@
         <v>50</v>
       </c>
       <c r="G19">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19">
-        <v>96.996912714005006</v>
+        <v>93.286516853932497</v>
       </c>
       <c r="I19">
-        <v>97.592433361994793</v>
+        <v>94.215227562739202</v>
       </c>
       <c r="J19">
-        <v>97.802671262386895</v>
+        <v>95.556514236410607</v>
       </c>
       <c r="K19">
-        <v>97.802671262386895</v>
+        <v>95.556514236410607</v>
       </c>
       <c r="L19">
-        <v>95.491143317230197</v>
+        <v>89.049919484702002</v>
       </c>
       <c r="M19">
-        <v>95.877122069522997</v>
+        <v>91.480562448304298</v>
       </c>
       <c r="N19">
-        <v>97.697439208091197</v>
+        <v>94.881130863139802</v>
       </c>
       <c r="O19">
-        <v>95.877122069522997</v>
+        <v>91.480562448304298</v>
       </c>
       <c r="P19">
-        <v>95.491143317230197</v>
+        <v>89.049919484702002</v>
       </c>
       <c r="Q19">
-        <v>95.491143317230197</v>
+        <v>89.049919484702002</v>
       </c>
       <c r="R19">
-        <v>97.802671262386895</v>
+        <v>95.556514236410607</v>
       </c>
       <c r="S19">
-        <v>97.592433361994793</v>
+        <v>94.215227562739202</v>
       </c>
       <c r="T19">
-        <v>95.683743444937406</v>
+        <v>90.248878008975893</v>
       </c>
       <c r="U19">
-        <v>92.927308447937094</v>
+        <v>91.732283464566905</v>
       </c>
       <c r="V19">
-        <v>93.786982248520701</v>
+        <v>93.154761904761898</v>
       </c>
       <c r="W19">
-        <v>95.481927710843294</v>
+        <v>94.277108433734895</v>
       </c>
       <c r="X19">
-        <v>95.481927710843294</v>
+        <v>94.277108433734895</v>
       </c>
       <c r="Y19">
-        <v>88.135593220338905</v>
+        <v>86.931818181818102</v>
       </c>
       <c r="Z19">
-        <v>91.228070175438603</v>
+        <v>88.953488372093005</v>
       </c>
       <c r="AA19">
-        <v>94.626865671641795</v>
+        <v>93.712574850299404</v>
       </c>
       <c r="AB19">
-        <v>91.228070175438603</v>
+        <v>88.953488372093005</v>
       </c>
       <c r="AC19">
-        <v>88.135593220338905</v>
+        <v>86.931818181818102</v>
       </c>
       <c r="AD19">
-        <v>88.135593220338905</v>
+        <v>86.931818181818102</v>
       </c>
       <c r="AE19">
-        <v>95.481927710843294</v>
+        <v>94.277108433734895</v>
       </c>
       <c r="AF19">
-        <v>93.786982248520701</v>
+        <v>93.154761904761898</v>
       </c>
       <c r="AG19">
-        <v>89.655172413793096</v>
+        <v>87.931034482758605</v>
       </c>
       <c r="AH19">
-        <v>90.649606299212607</v>
+        <v>92.322834645669204</v>
       </c>
       <c r="AI19">
-        <v>91.875923190546501</v>
+        <v>92.941176470588204</v>
       </c>
       <c r="AJ19">
-        <v>93.957703927492403</v>
+        <v>95.468277945619306</v>
       </c>
       <c r="AK19">
-        <v>93.957703927492403</v>
+        <v>95.468277945619306</v>
       </c>
       <c r="AL19">
-        <v>84.463276836158101</v>
+        <v>86.440677966101603</v>
       </c>
       <c r="AM19">
-        <v>88.200589970501397</v>
+        <v>91.071428571428498</v>
       </c>
       <c r="AN19">
-        <v>92.905153099327805</v>
+        <v>94.187779433681001</v>
       </c>
       <c r="AO19">
-        <v>88.200589970501397</v>
+        <v>91.071428571428498</v>
       </c>
       <c r="AP19">
-        <v>84.463276836158101</v>
+        <v>86.440677966101603</v>
       </c>
       <c r="AQ19">
-        <v>84.463276836158101</v>
+        <v>86.440677966101603</v>
       </c>
       <c r="AR19">
-        <v>93.957703927492403</v>
+        <v>95.468277945619306</v>
       </c>
       <c r="AS19">
-        <v>91.875923190546501</v>
+        <v>92.941176470588204</v>
       </c>
       <c r="AT19">
-        <v>86.291486291486194</v>
+        <v>88.695652173913004</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8">
+        <v>384</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>22</v>
@@ -3072,569 +3521,293 @@
         <v>50</v>
       </c>
       <c r="G20">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H20">
-        <v>97.502104967723795</v>
+        <v>93.876404494382001</v>
       </c>
       <c r="I20">
-        <v>98.020654044750401</v>
+        <v>94.748078565328697</v>
       </c>
       <c r="J20">
-        <v>98.147350280051697</v>
+        <v>95.894554883318904</v>
       </c>
       <c r="K20">
-        <v>98.147350280051697</v>
+        <v>95.894554883318904</v>
       </c>
       <c r="L20">
-        <v>96.296296296296205</v>
+        <v>90.128410914927699</v>
       </c>
       <c r="M20">
-        <v>96.529459241323593</v>
+        <v>92.200328407224902</v>
       </c>
       <c r="N20">
-        <v>98.083961248654404</v>
+        <v>95.317869415807493</v>
       </c>
       <c r="O20">
-        <v>96.529459241323593</v>
+        <v>92.200328407224902</v>
       </c>
       <c r="P20">
-        <v>96.296296296296205</v>
+        <v>90.128410914927699</v>
       </c>
       <c r="Q20">
-        <v>96.296296296296205</v>
+        <v>90.128410914927699</v>
       </c>
       <c r="R20">
-        <v>98.147350280051697</v>
+        <v>95.894554883318904</v>
       </c>
       <c r="S20">
-        <v>98.020654044750401</v>
+        <v>94.748078565328697</v>
       </c>
       <c r="T20">
-        <v>96.412736799677504</v>
+        <v>91.152597402597394</v>
       </c>
       <c r="U20">
-        <v>92.534381139489199</v>
+        <v>93.8976377952755</v>
       </c>
       <c r="V20">
-        <v>95.092024539877301</v>
+        <v>94.925373134328296</v>
       </c>
       <c r="W20">
-        <v>93.3734939759036</v>
+        <v>95.783132530120398</v>
       </c>
       <c r="X20">
-        <v>93.3734939759036</v>
+        <v>95.783132530120398</v>
       </c>
       <c r="Y20">
-        <v>90.960451977401107</v>
+        <v>90.340909090909093</v>
       </c>
       <c r="Z20">
-        <v>87.978142076502706</v>
+        <v>91.907514450866998</v>
       </c>
       <c r="AA20">
-        <v>94.224924012157999</v>
+        <v>95.352323838080906</v>
       </c>
       <c r="AB20">
-        <v>87.978142076502706</v>
+        <v>91.907514450866998</v>
       </c>
       <c r="AC20">
-        <v>90.960451977401107</v>
+        <v>90.340909090909093</v>
       </c>
       <c r="AD20">
-        <v>90.960451977401107</v>
+        <v>90.340909090909093</v>
       </c>
       <c r="AE20">
-        <v>93.3734939759036</v>
+        <v>95.783132530120398</v>
       </c>
       <c r="AF20">
-        <v>95.092024539877301</v>
+        <v>94.925373134328296</v>
       </c>
       <c r="AG20">
-        <v>89.4444444444444</v>
+        <v>91.117478510028604</v>
       </c>
       <c r="AH20">
-        <v>92.125984251968504</v>
+        <v>92.519685039370003</v>
       </c>
       <c r="AI20">
-        <v>93.175074183976193</v>
+        <v>94.528875379939194</v>
       </c>
       <c r="AJ20">
-        <v>94.864048338368505</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AK20">
-        <v>94.864048338368505</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AL20">
-        <v>87.005649717514103</v>
+        <v>89.830508474576206</v>
       </c>
       <c r="AM20">
-        <v>90.058479532163702</v>
+        <v>88.826815642458101</v>
       </c>
       <c r="AN20">
-        <v>94.011976047904199</v>
+        <v>94.242424242424207</v>
       </c>
       <c r="AO20">
-        <v>90.058479532163702</v>
+        <v>88.826815642458101</v>
       </c>
       <c r="AP20">
-        <v>87.005649717514103</v>
+        <v>89.830508474576206</v>
       </c>
       <c r="AQ20">
-        <v>87.005649717514103</v>
+        <v>89.830508474576206</v>
       </c>
       <c r="AR20">
-        <v>94.864048338368505</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AS20">
-        <v>93.175074183976193</v>
+        <v>94.528875379939194</v>
       </c>
       <c r="AT20">
-        <v>88.505747126436702</v>
+        <v>89.325842696629195</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="C23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>50</v>
       </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21">
-        <v>99.438675273645799</v>
-      </c>
-      <c r="I21">
-        <v>99.441340782122893</v>
-      </c>
-      <c r="J21">
-        <v>99.6984058595433</v>
-      </c>
-      <c r="K21">
-        <v>99.6984058595433</v>
-      </c>
-      <c r="L21">
+      <c r="G23">
+        <v>49</v>
+      </c>
+      <c r="H23" s="14">
+        <v>99.410609037328001</v>
+      </c>
+      <c r="I23">
+        <v>99.441100601891605</v>
+      </c>
+      <c r="J23">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="K23">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="L23">
         <v>98.953301127214104</v>
       </c>
-      <c r="M21">
-        <v>99.433656957928804</v>
-      </c>
-      <c r="N21">
-        <v>99.569707401032701</v>
-      </c>
-      <c r="O21">
-        <v>99.433656957928804</v>
-      </c>
-      <c r="P21">
+      <c r="M23">
+        <v>99.3532740501212</v>
+      </c>
+      <c r="N23">
+        <v>99.548095545513206</v>
+      </c>
+      <c r="O23">
+        <v>99.3532740501212</v>
+      </c>
+      <c r="P23">
         <v>98.953301127214104</v>
       </c>
-      <c r="Q21">
+      <c r="Q23">
         <v>98.953301127214104</v>
       </c>
-      <c r="R21">
-        <v>99.6984058595433</v>
-      </c>
-      <c r="S21">
-        <v>99.441340782122893</v>
-      </c>
-      <c r="T21">
-        <v>99.192897497982202</v>
-      </c>
-      <c r="U21">
-        <v>93.713163064832997</v>
-      </c>
-      <c r="V21">
-        <v>95.180722891566205</v>
-      </c>
-      <c r="W21">
-        <v>95.180722891566205</v>
-      </c>
-      <c r="X21">
-        <v>95.180722891566205</v>
-      </c>
-      <c r="Y21">
+      <c r="R23">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="S23">
+        <v>99.441100601891605</v>
+      </c>
+      <c r="T23">
+        <v>99.152884227511095</v>
+      </c>
+      <c r="U23" s="14">
+        <v>93.516699410608993</v>
+      </c>
+      <c r="V23">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="W23">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="X23">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="Y23">
         <v>90.960451977401107</v>
       </c>
-      <c r="Z21">
+      <c r="Z23">
+        <v>90.449438202247194</v>
+      </c>
+      <c r="AA23">
+        <v>95.022624434389101</v>
+      </c>
+      <c r="AB23">
+        <v>90.449438202247194</v>
+      </c>
+      <c r="AC23">
         <v>90.960451977401107</v>
       </c>
-      <c r="AA21">
-        <v>95.180722891566205</v>
-      </c>
-      <c r="AB21">
+      <c r="AD23">
         <v>90.960451977401107</v>
       </c>
-      <c r="AC21">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="AD21">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="AE21">
-        <v>95.180722891566205</v>
-      </c>
-      <c r="AF21">
-        <v>95.180722891566205</v>
-      </c>
-      <c r="AG21">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="AH21">
-        <v>93.405511811023601</v>
-      </c>
-      <c r="AI21">
-        <v>94.336810730253305</v>
-      </c>
-      <c r="AJ21">
-        <v>95.619335347431999</v>
-      </c>
-      <c r="AK21">
-        <v>95.619335347431999</v>
-      </c>
-      <c r="AL21">
-        <v>89.265536723163805</v>
-      </c>
-      <c r="AM21">
-        <v>91.594202898550705</v>
-      </c>
-      <c r="AN21">
-        <v>94.973743435858907</v>
-      </c>
-      <c r="AO21">
-        <v>91.594202898550705</v>
-      </c>
-      <c r="AP21">
-        <v>89.265536723163805</v>
-      </c>
-      <c r="AQ21">
-        <v>89.265536723163805</v>
-      </c>
-      <c r="AR21">
-        <v>95.619335347431999</v>
-      </c>
-      <c r="AS21">
-        <v>94.336810730253305</v>
-      </c>
-      <c r="AT21">
-        <v>90.414878397711007</v>
+      <c r="AE23">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="AF23">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="AG23">
+        <v>90.704225352112601</v>
+      </c>
+      <c r="AH23" s="14">
+        <v>93.9960629921259</v>
+      </c>
+      <c r="AI23">
+        <v>95.0524737631184</v>
+      </c>
+      <c r="AJ23">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AK23">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AL23">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AM23">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="AN23">
+        <v>95.410082768999203</v>
+      </c>
+      <c r="AO23">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="AP23">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AQ23">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AR23">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AS23">
+        <v>95.0524737631184</v>
+      </c>
+      <c r="AT23">
+        <v>91.322901849217601</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22">
-        <v>50</v>
-      </c>
-      <c r="G22">
-        <v>49</v>
-      </c>
-      <c r="H22">
-        <v>99.410609037328001</v>
-      </c>
-      <c r="I22">
-        <v>99.441100601891605</v>
-      </c>
-      <c r="J22">
-        <v>99.655320982335198</v>
-      </c>
-      <c r="K22">
-        <v>99.655320982335198</v>
-      </c>
-      <c r="L22">
-        <v>98.953301127214104</v>
-      </c>
-      <c r="M22">
-        <v>99.3532740501212</v>
-      </c>
-      <c r="N22">
-        <v>99.548095545513206</v>
-      </c>
-      <c r="O22">
-        <v>99.3532740501212</v>
-      </c>
-      <c r="P22">
-        <v>98.953301127214104</v>
-      </c>
-      <c r="Q22">
-        <v>98.953301127214104</v>
-      </c>
-      <c r="R22">
-        <v>99.655320982335198</v>
-      </c>
-      <c r="S22">
-        <v>99.441100601891605</v>
-      </c>
-      <c r="T22">
-        <v>99.152884227511095</v>
-      </c>
-      <c r="U22">
-        <v>93.516699410608993</v>
-      </c>
-      <c r="V22">
-        <v>95.166163141993906</v>
-      </c>
-      <c r="W22">
-        <v>94.879518072289102</v>
-      </c>
-      <c r="X22">
-        <v>94.879518072289102</v>
-      </c>
-      <c r="Y22">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="Z22">
-        <v>90.449438202247194</v>
-      </c>
-      <c r="AA22">
-        <v>95.022624434389101</v>
-      </c>
-      <c r="AB22">
-        <v>90.449438202247194</v>
-      </c>
-      <c r="AC22">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="AD22">
-        <v>90.960451977401107</v>
-      </c>
-      <c r="AE22">
-        <v>94.879518072289102</v>
-      </c>
-      <c r="AF22">
-        <v>95.166163141993906</v>
-      </c>
-      <c r="AG22">
-        <v>90.704225352112601</v>
-      </c>
-      <c r="AH22">
-        <v>93.9960629921259</v>
-      </c>
-      <c r="AI22">
-        <v>95.0524737631184</v>
-      </c>
-      <c r="AJ22">
-        <v>95.770392749244706</v>
-      </c>
-      <c r="AK22">
-        <v>95.770392749244706</v>
-      </c>
-      <c r="AL22">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="AM22">
-        <v>91.977077363896797</v>
-      </c>
-      <c r="AN22">
-        <v>95.410082768999203</v>
-      </c>
-      <c r="AO22">
-        <v>91.977077363896797</v>
-      </c>
-      <c r="AP22">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="AQ22">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="AR22">
-        <v>95.770392749244706</v>
-      </c>
-      <c r="AS22">
-        <v>95.0524737631184</v>
-      </c>
-      <c r="AT22">
-        <v>91.322901849217601</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:46" ht="33" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25">
-        <v>50</v>
-      </c>
-      <c r="G25">
-        <v>50</v>
-      </c>
-      <c r="H25">
-        <v>98.484423238843604</v>
-      </c>
-      <c r="I25">
-        <v>98.710786420283597</v>
-      </c>
-      <c r="J25">
-        <v>98.965962947005593</v>
-      </c>
-      <c r="K25">
-        <v>98.965962947005593</v>
-      </c>
-      <c r="L25">
-        <v>97.584541062801904</v>
-      </c>
-      <c r="M25">
-        <v>98.058252427184399</v>
-      </c>
-      <c r="N25">
-        <v>98.8382099827883</v>
-      </c>
-      <c r="O25">
-        <v>98.058252427184399</v>
-      </c>
-      <c r="P25">
-        <v>97.584541062801904</v>
-      </c>
-      <c r="Q25">
-        <v>97.584541062801904</v>
-      </c>
-      <c r="R25">
-        <v>98.965962947005593</v>
-      </c>
-      <c r="S25">
-        <v>98.710786420283597</v>
-      </c>
-      <c r="T25">
-        <v>97.820823244552003</v>
-      </c>
-      <c r="U25">
-        <v>92.141453831041204</v>
-      </c>
-      <c r="V25">
-        <v>93.975903614457806</v>
-      </c>
-      <c r="W25">
-        <v>93.975903614457806</v>
-      </c>
-      <c r="X25">
-        <v>93.975903614457806</v>
-      </c>
-      <c r="Y25">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="Z25">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="AA25">
-        <v>93.975903614457806</v>
-      </c>
-      <c r="AB25">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="AC25">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="AD25">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="AE25">
-        <v>93.975903614457806</v>
-      </c>
-      <c r="AF25">
-        <v>93.975903614457806</v>
-      </c>
-      <c r="AG25">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="AH25">
-        <v>93.6023622047244</v>
-      </c>
-      <c r="AI25">
-        <v>93.961708394697993</v>
-      </c>
-      <c r="AJ25">
-        <v>96.374622356495394</v>
-      </c>
-      <c r="AK25">
-        <v>96.374622356495394</v>
-      </c>
-      <c r="AL25">
-        <v>88.418079096045204</v>
-      </c>
-      <c r="AM25">
-        <v>92.878338278931693</v>
-      </c>
-      <c r="AN25">
-        <v>95.152870991797101</v>
-      </c>
-      <c r="AO25">
-        <v>92.878338278931693</v>
-      </c>
-      <c r="AP25">
-        <v>88.418079096045204</v>
-      </c>
-      <c r="AQ25">
-        <v>88.418079096045204</v>
-      </c>
-      <c r="AR25">
-        <v>96.374622356495394</v>
-      </c>
-      <c r="AS25">
-        <v>93.961708394697993</v>
-      </c>
-      <c r="AT25">
-        <v>90.593342981186595</v>
+    <row r="25" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>51</v>
+      <c r="A26" t="s">
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="8">
+        <v>384</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>22</v>
@@ -3646,135 +3819,135 @@
         <v>49</v>
       </c>
       <c r="H26">
-        <v>99.410609037328001</v>
+        <v>96.996912714005006</v>
       </c>
       <c r="I26">
-        <v>99.441100601891605</v>
+        <v>97.592433361994793</v>
       </c>
       <c r="J26">
-        <v>99.655320982335198</v>
+        <v>97.802671262386895</v>
       </c>
       <c r="K26">
-        <v>99.655320982335198</v>
+        <v>97.802671262386895</v>
       </c>
       <c r="L26">
-        <v>98.953301127214104</v>
+        <v>95.491143317230197</v>
       </c>
       <c r="M26">
-        <v>99.3532740501212</v>
+        <v>95.877122069522997</v>
       </c>
       <c r="N26">
-        <v>99.548095545513206</v>
+        <v>97.697439208091197</v>
       </c>
       <c r="O26">
-        <v>99.3532740501212</v>
+        <v>95.877122069522997</v>
       </c>
       <c r="P26">
-        <v>98.953301127214104</v>
+        <v>95.491143317230197</v>
       </c>
       <c r="Q26">
-        <v>98.953301127214104</v>
+        <v>95.491143317230197</v>
       </c>
       <c r="R26">
-        <v>99.655320982335198</v>
+        <v>97.802671262386895</v>
       </c>
       <c r="S26">
-        <v>99.441100601891605</v>
+        <v>97.592433361994793</v>
       </c>
       <c r="T26">
-        <v>99.152884227511095</v>
+        <v>95.683743444937406</v>
       </c>
       <c r="U26">
-        <v>93.516699410608993</v>
+        <v>92.927308447937094</v>
       </c>
       <c r="V26">
-        <v>95.166163141993906</v>
+        <v>93.786982248520701</v>
       </c>
       <c r="W26">
-        <v>94.879518072289102</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="X26">
-        <v>94.879518072289102</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="Y26">
-        <v>90.960451977401107</v>
+        <v>88.135593220338905</v>
       </c>
       <c r="Z26">
-        <v>90.449438202247194</v>
+        <v>91.228070175438603</v>
       </c>
       <c r="AA26">
-        <v>95.022624434389101</v>
+        <v>94.626865671641795</v>
       </c>
       <c r="AB26">
-        <v>90.449438202247194</v>
+        <v>91.228070175438603</v>
       </c>
       <c r="AC26">
-        <v>90.960451977401107</v>
+        <v>88.135593220338905</v>
       </c>
       <c r="AD26">
-        <v>90.960451977401107</v>
+        <v>88.135593220338905</v>
       </c>
       <c r="AE26">
-        <v>94.879518072289102</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="AF26">
-        <v>95.166163141993906</v>
+        <v>93.786982248520701</v>
       </c>
       <c r="AG26">
-        <v>90.704225352112601</v>
+        <v>89.655172413793096</v>
       </c>
       <c r="AH26">
-        <v>93.9960629921259</v>
+        <v>90.649606299212607</v>
       </c>
       <c r="AI26">
-        <v>95.0524737631184</v>
+        <v>91.875923190546501</v>
       </c>
       <c r="AJ26">
-        <v>95.770392749244706</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AK26">
-        <v>95.770392749244706</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AL26">
-        <v>90.677966101694906</v>
+        <v>84.463276836158101</v>
       </c>
       <c r="AM26">
-        <v>91.977077363896797</v>
+        <v>88.200589970501397</v>
       </c>
       <c r="AN26">
-        <v>95.410082768999203</v>
+        <v>92.905153099327805</v>
       </c>
       <c r="AO26">
-        <v>91.977077363896797</v>
+        <v>88.200589970501397</v>
       </c>
       <c r="AP26">
-        <v>90.677966101694906</v>
+        <v>84.463276836158101</v>
       </c>
       <c r="AQ26">
-        <v>90.677966101694906</v>
+        <v>84.463276836158101</v>
       </c>
       <c r="AR26">
-        <v>95.770392749244706</v>
+        <v>93.957703927492403</v>
       </c>
       <c r="AS26">
-        <v>95.0524737631184</v>
+        <v>91.875923190546501</v>
       </c>
       <c r="AT26">
-        <v>91.322901849217601</v>
+        <v>86.291486291486194</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>22</v>
@@ -3783,138 +3956,138 @@
         <v>50</v>
       </c>
       <c r="G27">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H27">
-        <v>99.382542801010302</v>
+        <v>97.502104967723795</v>
       </c>
       <c r="I27">
-        <v>99.611566681053006</v>
+        <v>98.020654044750401</v>
       </c>
       <c r="J27">
-        <v>99.439896596294702</v>
+        <v>98.147350280051697</v>
       </c>
       <c r="K27">
-        <v>99.439896596294702</v>
+        <v>98.147350280051697</v>
       </c>
       <c r="L27">
-        <v>99.275362318840493</v>
+        <v>96.296296296296205</v>
       </c>
       <c r="M27">
-        <v>98.956661316211793</v>
+        <v>96.529459241323593</v>
       </c>
       <c r="N27">
-        <v>99.525657611039193</v>
+        <v>98.083961248654404</v>
       </c>
       <c r="O27">
-        <v>98.956661316211793</v>
+        <v>96.529459241323593</v>
       </c>
       <c r="P27">
-        <v>99.275362318840493</v>
+        <v>96.296296296296205</v>
       </c>
       <c r="Q27">
-        <v>99.275362318840493</v>
+        <v>96.296296296296205</v>
       </c>
       <c r="R27">
-        <v>99.439896596294702</v>
+        <v>98.147350280051697</v>
       </c>
       <c r="S27">
-        <v>99.611566681053006</v>
+        <v>98.020654044750401</v>
       </c>
       <c r="T27">
-        <v>99.115755627009605</v>
+        <v>96.412736799677504</v>
       </c>
       <c r="U27">
-        <v>93.713163064832997</v>
+        <v>92.534381139489199</v>
       </c>
       <c r="V27">
-        <v>94.910179640718496</v>
+        <v>95.092024539877301</v>
       </c>
       <c r="W27">
-        <v>95.481927710843294</v>
+        <v>93.3734939759036</v>
       </c>
       <c r="X27">
-        <v>95.481927710843294</v>
+        <v>93.3734939759036</v>
       </c>
       <c r="Y27">
-        <v>90.395480225988706</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="Z27">
-        <v>91.428571428571402</v>
+        <v>87.978142076502706</v>
       </c>
       <c r="AA27">
-        <v>95.195195195195197</v>
+        <v>94.224924012157999</v>
       </c>
       <c r="AB27">
-        <v>91.428571428571402</v>
+        <v>87.978142076502706</v>
       </c>
       <c r="AC27">
-        <v>90.395480225988706</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AD27">
-        <v>90.395480225988706</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AE27">
-        <v>95.481927710843294</v>
+        <v>93.3734939759036</v>
       </c>
       <c r="AF27">
-        <v>94.910179640718496</v>
+        <v>95.092024539877301</v>
       </c>
       <c r="AG27">
-        <v>90.909090909090907</v>
+        <v>89.4444444444444</v>
       </c>
       <c r="AH27">
-        <v>93.110236220472402</v>
+        <v>92.125984251968504</v>
       </c>
       <c r="AI27">
-        <v>94.179104477611901</v>
+        <v>93.175074183976193</v>
       </c>
       <c r="AJ27">
-        <v>95.317220543806599</v>
+        <v>94.864048338368505</v>
       </c>
       <c r="AK27">
-        <v>95.317220543806599</v>
+        <v>94.864048338368505</v>
       </c>
       <c r="AL27">
-        <v>88.983050847457605</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AM27">
-        <v>91.040462427745595</v>
+        <v>90.058479532163702</v>
       </c>
       <c r="AN27">
-        <v>94.744744744744693</v>
+        <v>94.011976047904199</v>
       </c>
       <c r="AO27">
-        <v>91.040462427745595</v>
+        <v>90.058479532163702</v>
       </c>
       <c r="AP27">
-        <v>88.983050847457605</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AQ27">
-        <v>88.983050847457605</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AR27">
-        <v>95.317220543806599</v>
+        <v>94.864048338368505</v>
       </c>
       <c r="AS27">
-        <v>94.179104477611901</v>
+        <v>93.175074183976193</v>
       </c>
       <c r="AT27">
-        <v>90</v>
+        <v>88.505747126436702</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>29</v>
+      <c r="C28" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>22</v>
@@ -3923,279 +4096,280 @@
         <v>50</v>
       </c>
       <c r="G28">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H28">
-        <v>99.915801291046805</v>
+        <v>99.438675273645799</v>
       </c>
       <c r="I28">
-        <v>99.9568965517241</v>
+        <v>99.441340782122893</v>
       </c>
       <c r="J28">
-        <v>99.913830245583796</v>
+        <v>99.6984058595433</v>
       </c>
       <c r="K28">
-        <v>99.913830245583796</v>
+        <v>99.6984058595433</v>
       </c>
       <c r="L28">
-        <v>99.919484702093399</v>
+        <v>98.953301127214104</v>
       </c>
       <c r="M28">
-        <v>99.839098954143196</v>
+        <v>99.433656957928804</v>
       </c>
       <c r="N28">
-        <v>99.9353587588881</v>
+        <v>99.569707401032701</v>
       </c>
       <c r="O28">
-        <v>99.839098954143196</v>
+        <v>99.433656957928804</v>
       </c>
       <c r="P28">
-        <v>99.919484702093399</v>
+        <v>98.953301127214104</v>
       </c>
       <c r="Q28">
-        <v>99.919484702093399</v>
+        <v>98.953301127214104</v>
       </c>
       <c r="R28">
-        <v>99.913830245583796</v>
+        <v>99.6984058595433</v>
       </c>
       <c r="S28">
-        <v>99.9568965517241</v>
+        <v>99.441340782122893</v>
       </c>
       <c r="T28">
-        <v>99.8792756539235</v>
+        <v>99.192897497982202</v>
       </c>
       <c r="U28">
-        <v>92.927308447937094</v>
+        <v>93.713163064832997</v>
       </c>
       <c r="V28">
-        <v>93.274853801169499</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="W28">
-        <v>96.084337349397501</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="X28">
-        <v>96.084337349397501</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="Y28">
-        <v>87.005649717514103</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="Z28">
-        <v>92.215568862275404</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AA28">
-        <v>94.658753709198805</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="AB28">
-        <v>92.215568862275404</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AC28">
-        <v>87.005649717514103</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AD28">
-        <v>87.005649717514103</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AE28">
-        <v>96.084337349397501</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="AF28">
-        <v>93.274853801169499</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="AG28">
-        <v>89.534883720930196</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AH28">
-        <v>92.618110236220403</v>
+        <v>93.405511811023601</v>
       </c>
       <c r="AI28">
-        <v>92.474674384949296</v>
+        <v>94.336810730253305</v>
       </c>
       <c r="AJ28">
-        <v>96.525679758308101</v>
+        <v>95.619335347431999</v>
       </c>
       <c r="AK28">
-        <v>96.525679758308101</v>
+        <v>95.619335347431999</v>
       </c>
       <c r="AL28">
-        <v>85.310734463276802</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AM28">
-        <v>92.923076923076906</v>
+        <v>91.594202898550705</v>
       </c>
       <c r="AN28">
-        <v>94.456762749445602</v>
+        <v>94.973743435858907</v>
       </c>
       <c r="AO28">
-        <v>92.923076923076906</v>
+        <v>91.594202898550705</v>
       </c>
       <c r="AP28">
-        <v>85.310734463276802</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AQ28">
-        <v>85.310734463276802</v>
+        <v>89.265536723163805</v>
       </c>
       <c r="AR28">
-        <v>96.525679758308101</v>
+        <v>95.619335347431999</v>
       </c>
       <c r="AS28">
-        <v>92.474674384949296</v>
+        <v>94.336810730253305</v>
       </c>
       <c r="AT28">
-        <v>88.9543446244477</v>
+        <v>90.414878397711007</v>
       </c>
     </row>
-    <row r="29" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="18"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="18"/>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>49</v>
+      </c>
+      <c r="H29">
+        <v>99.410609037328001</v>
+      </c>
+      <c r="I29">
+        <v>99.441100601891605</v>
+      </c>
+      <c r="J29">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="K29">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="L29">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="M29">
+        <v>99.3532740501212</v>
+      </c>
+      <c r="N29">
+        <v>99.548095545513206</v>
+      </c>
+      <c r="O29">
+        <v>99.3532740501212</v>
+      </c>
+      <c r="P29">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="Q29">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="R29">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="S29">
+        <v>99.441100601891605</v>
+      </c>
+      <c r="T29">
+        <v>99.152884227511095</v>
+      </c>
+      <c r="U29">
+        <v>93.516699410608993</v>
+      </c>
+      <c r="V29">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="W29">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="X29">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="Y29">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="Z29">
+        <v>90.449438202247194</v>
+      </c>
+      <c r="AA29">
+        <v>95.022624434389101</v>
+      </c>
+      <c r="AB29">
+        <v>90.449438202247194</v>
+      </c>
+      <c r="AC29">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AD29">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AE29">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="AF29">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="AG29">
+        <v>90.704225352112601</v>
+      </c>
+      <c r="AH29">
+        <v>93.9960629921259</v>
+      </c>
+      <c r="AI29">
+        <v>95.0524737631184</v>
+      </c>
+      <c r="AJ29">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AK29">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AL29">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AM29">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="AN29">
+        <v>95.410082768999203</v>
+      </c>
+      <c r="AO29">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="AP29">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AQ29">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AR29">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AS29">
+        <v>95.0524737631184</v>
+      </c>
+      <c r="AT29">
+        <v>91.322901849217601</v>
+      </c>
     </row>
-    <row r="30" spans="1:46" ht="33" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
-        <v>42</v>
-      </c>
+    <row r="30" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="18"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="8">
-        <v>384</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
-      <c r="G31">
-        <v>45</v>
-      </c>
-      <c r="H31">
-        <v>94.190289082234003</v>
-      </c>
-      <c r="I31">
-        <v>95.017035775127695</v>
-      </c>
-      <c r="J31">
-        <v>96.122361051271</v>
-      </c>
-      <c r="K31">
-        <v>96.122361051271</v>
-      </c>
-      <c r="L31">
-        <v>90.579710144927503</v>
-      </c>
-      <c r="M31">
-        <v>92.592592592592595</v>
-      </c>
-      <c r="N31">
-        <v>95.566502463054107</v>
-      </c>
-      <c r="O31">
-        <v>92.592592592592595</v>
-      </c>
-      <c r="P31">
-        <v>90.579710144927503</v>
-      </c>
-      <c r="Q31">
-        <v>90.579710144927503</v>
-      </c>
-      <c r="R31">
-        <v>96.122361051271</v>
-      </c>
-      <c r="S31">
-        <v>95.017035775127695</v>
-      </c>
-      <c r="T31">
-        <v>91.575091575091506</v>
-      </c>
-      <c r="U31">
-        <v>91.748526522593295</v>
-      </c>
-      <c r="V31">
-        <v>92.397660818713405</v>
-      </c>
-      <c r="W31">
-        <v>95.180722891566205</v>
-      </c>
-      <c r="X31">
-        <v>95.180722891566205</v>
-      </c>
-      <c r="Y31">
-        <v>85.310734463276802</v>
-      </c>
-      <c r="Z31">
-        <v>90.419161676646695</v>
-      </c>
-      <c r="AA31">
-        <v>93.768545994065207</v>
-      </c>
-      <c r="AB31">
-        <v>90.419161676646695</v>
-      </c>
-      <c r="AC31">
-        <v>85.310734463276802</v>
-      </c>
-      <c r="AD31">
-        <v>85.310734463276802</v>
-      </c>
-      <c r="AE31">
-        <v>95.180722891566205</v>
-      </c>
-      <c r="AF31">
-        <v>92.397660818713405</v>
-      </c>
-      <c r="AG31">
-        <v>87.790697674418595</v>
-      </c>
-      <c r="AH31">
-        <v>90.354330708661394</v>
-      </c>
-      <c r="AI31">
-        <v>90.869565217391298</v>
-      </c>
-      <c r="AJ31">
-        <v>94.712990936555897</v>
-      </c>
-      <c r="AK31">
-        <v>94.712990936555897</v>
-      </c>
-      <c r="AL31">
-        <v>82.203389830508399</v>
-      </c>
-      <c r="AM31">
-        <v>89.263803680981596</v>
-      </c>
-      <c r="AN31">
-        <v>92.751479289940804</v>
-      </c>
-      <c r="AO31">
-        <v>89.263803680981596</v>
-      </c>
-      <c r="AP31">
-        <v>82.203389830508399</v>
-      </c>
-      <c r="AQ31">
-        <v>82.203389830508399</v>
-      </c>
-      <c r="AR31">
-        <v>94.712990936555897</v>
-      </c>
-      <c r="AS31">
-        <v>90.869565217391298</v>
-      </c>
-      <c r="AT31">
-        <v>85.588235294117595</v>
+    <row r="31" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>39</v>
@@ -4203,23 +4377,23 @@
       <c r="C32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>23</v>
+      <c r="D32" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="F32">
         <v>50</v>
       </c>
       <c r="G32">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H32">
-        <v>98.428290766208207</v>
+        <v>98.484423238843604</v>
       </c>
       <c r="I32">
-        <v>98.626019750965995</v>
+        <v>98.710786420283597</v>
       </c>
       <c r="J32">
         <v>98.965962947005593</v>
@@ -4228,595 +4402,607 @@
         <v>98.965962947005593</v>
       </c>
       <c r="L32">
-        <v>97.423510466988702</v>
+        <v>97.584541062801904</v>
       </c>
       <c r="M32">
-        <v>98.055105348460202</v>
+        <v>98.058252427184399</v>
       </c>
       <c r="N32">
-        <v>98.795698924731099</v>
+        <v>98.8382099827883</v>
       </c>
       <c r="O32">
-        <v>98.055105348460202</v>
+        <v>98.058252427184399</v>
       </c>
       <c r="P32">
-        <v>97.423510466988702</v>
+        <v>97.584541062801904</v>
       </c>
       <c r="Q32">
-        <v>97.423510466988702</v>
+        <v>97.584541062801904</v>
       </c>
       <c r="R32">
         <v>98.965962947005593</v>
       </c>
       <c r="S32">
-        <v>98.626019750965995</v>
+        <v>98.710786420283597</v>
       </c>
       <c r="T32">
-        <v>97.738287560581497</v>
+        <v>97.820823244552003</v>
       </c>
       <c r="U32">
-        <v>92.927308447937094</v>
+        <v>92.141453831041204</v>
       </c>
       <c r="V32">
-        <v>94.848484848484802</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="W32">
-        <v>94.277108433734895</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="X32">
-        <v>94.277108433734895</v>
+        <v>93.975903614457806</v>
       </c>
       <c r="Y32">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="Z32">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AA32">
+        <v>93.975903614457806</v>
+      </c>
+      <c r="AB32">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AC32">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AD32">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AE32">
+        <v>93.975903614457806</v>
+      </c>
+      <c r="AF32">
+        <v>93.975903614457806</v>
+      </c>
+      <c r="AG32">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AH32">
+        <v>93.6023622047244</v>
+      </c>
+      <c r="AI32">
+        <v>93.961708394697993</v>
+      </c>
+      <c r="AJ32">
+        <v>96.374622356495394</v>
+      </c>
+      <c r="AK32">
+        <v>96.374622356495394</v>
+      </c>
+      <c r="AL32">
+        <v>88.418079096045204</v>
+      </c>
+      <c r="AM32">
+        <v>92.878338278931693</v>
+      </c>
+      <c r="AN32">
+        <v>95.152870991797101</v>
+      </c>
+      <c r="AO32">
+        <v>92.878338278931693</v>
+      </c>
+      <c r="AP32">
+        <v>88.418079096045204</v>
+      </c>
+      <c r="AQ32">
+        <v>88.418079096045204</v>
+      </c>
+      <c r="AR32">
+        <v>96.374622356495394</v>
+      </c>
+      <c r="AS32">
+        <v>93.961708394697993</v>
+      </c>
+      <c r="AT32">
+        <v>90.593342981186595</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+      <c r="G33">
+        <v>49</v>
+      </c>
+      <c r="H33">
+        <v>99.410609037328001</v>
+      </c>
+      <c r="I33">
+        <v>99.441100601891605</v>
+      </c>
+      <c r="J33">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="K33">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="L33">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="M33">
+        <v>99.3532740501212</v>
+      </c>
+      <c r="N33">
+        <v>99.548095545513206</v>
+      </c>
+      <c r="O33">
+        <v>99.3532740501212</v>
+      </c>
+      <c r="P33">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="Q33">
+        <v>98.953301127214104</v>
+      </c>
+      <c r="R33">
+        <v>99.655320982335198</v>
+      </c>
+      <c r="S33">
+        <v>99.441100601891605</v>
+      </c>
+      <c r="T33">
+        <v>99.152884227511095</v>
+      </c>
+      <c r="U33">
+        <v>93.516699410608993</v>
+      </c>
+      <c r="V33">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="W33">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="X33">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="Y33">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="Z33">
+        <v>90.449438202247194</v>
+      </c>
+      <c r="AA33">
+        <v>95.022624434389101</v>
+      </c>
+      <c r="AB33">
+        <v>90.449438202247194</v>
+      </c>
+      <c r="AC33">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AD33">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AE33">
+        <v>94.879518072289102</v>
+      </c>
+      <c r="AF33">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="AG33">
+        <v>90.704225352112601</v>
+      </c>
+      <c r="AH33">
+        <v>93.9960629921259</v>
+      </c>
+      <c r="AI33">
+        <v>95.0524737631184</v>
+      </c>
+      <c r="AJ33">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AK33">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AL33">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AM33">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="AN33">
+        <v>95.410082768999203</v>
+      </c>
+      <c r="AO33">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="AP33">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AQ33">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="AR33">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AS33">
+        <v>95.0524737631184</v>
+      </c>
+      <c r="AT33">
+        <v>91.322901849217601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>50</v>
+      </c>
+      <c r="G34">
+        <v>38</v>
+      </c>
+      <c r="H34">
+        <v>99.382542801010302</v>
+      </c>
+      <c r="I34">
+        <v>99.611566681053006</v>
+      </c>
+      <c r="J34">
+        <v>99.439896596294702</v>
+      </c>
+      <c r="K34">
+        <v>99.439896596294702</v>
+      </c>
+      <c r="L34">
+        <v>99.275362318840493</v>
+      </c>
+      <c r="M34">
+        <v>98.956661316211793</v>
+      </c>
+      <c r="N34">
+        <v>99.525657611039193</v>
+      </c>
+      <c r="O34">
+        <v>98.956661316211793</v>
+      </c>
+      <c r="P34">
+        <v>99.275362318840493</v>
+      </c>
+      <c r="Q34">
+        <v>99.275362318840493</v>
+      </c>
+      <c r="R34">
+        <v>99.439896596294702</v>
+      </c>
+      <c r="S34">
+        <v>99.611566681053006</v>
+      </c>
+      <c r="T34">
+        <v>99.115755627009605</v>
+      </c>
+      <c r="U34">
+        <v>93.713163064832997</v>
+      </c>
+      <c r="V34">
+        <v>94.910179640718496</v>
+      </c>
+      <c r="W34">
+        <v>95.481927710843294</v>
+      </c>
+      <c r="X34">
+        <v>95.481927710843294</v>
+      </c>
+      <c r="Y34">
         <v>90.395480225988706</v>
       </c>
-      <c r="Z32">
-        <v>89.385474860335194</v>
-      </c>
-      <c r="AA32">
-        <v>94.561933534743204</v>
-      </c>
-      <c r="AB32">
-        <v>89.385474860335194</v>
-      </c>
-      <c r="AC32">
+      <c r="Z34">
+        <v>91.428571428571402</v>
+      </c>
+      <c r="AA34">
+        <v>95.195195195195197</v>
+      </c>
+      <c r="AB34">
+        <v>91.428571428571402</v>
+      </c>
+      <c r="AC34">
         <v>90.395480225988706</v>
       </c>
-      <c r="AD32">
+      <c r="AD34">
         <v>90.395480225988706</v>
       </c>
-      <c r="AE32">
-        <v>94.277108433734895</v>
-      </c>
-      <c r="AF32">
-        <v>94.848484848484802</v>
-      </c>
-      <c r="AG32">
-        <v>89.887640449438194</v>
-      </c>
-      <c r="AH32">
-        <v>93.011811023622002</v>
-      </c>
-      <c r="AI32">
-        <v>94.1704035874439</v>
-      </c>
-      <c r="AJ32">
-        <v>95.166163141993906</v>
-      </c>
-      <c r="AK32">
-        <v>95.166163141993906</v>
-      </c>
-      <c r="AL32">
+      <c r="AE34">
+        <v>95.481927710843294</v>
+      </c>
+      <c r="AF34">
+        <v>94.910179640718496</v>
+      </c>
+      <c r="AG34">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AH34">
+        <v>93.110236220472402</v>
+      </c>
+      <c r="AI34">
+        <v>94.179104477611901</v>
+      </c>
+      <c r="AJ34">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AK34">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AL34">
         <v>88.983050847457605</v>
       </c>
-      <c r="AM32">
-        <v>90.7780979827089</v>
-      </c>
-      <c r="AN32">
-        <v>94.665664913598704</v>
-      </c>
-      <c r="AO32">
-        <v>90.7780979827089</v>
-      </c>
-      <c r="AP32">
+      <c r="AM34">
+        <v>91.040462427745595</v>
+      </c>
+      <c r="AN34">
+        <v>94.744744744744693</v>
+      </c>
+      <c r="AO34">
+        <v>91.040462427745595</v>
+      </c>
+      <c r="AP34">
         <v>88.983050847457605</v>
       </c>
-      <c r="AQ32">
+      <c r="AQ34">
         <v>88.983050847457605</v>
       </c>
-      <c r="AR32">
-        <v>95.166163141993906</v>
-      </c>
-      <c r="AS32">
-        <v>94.1704035874439</v>
-      </c>
-      <c r="AT32">
-        <v>89.871611982881603</v>
-      </c>
-    </row>
-    <row r="33" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="18"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:46" ht="33" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
-        <v>68</v>
+      <c r="AR34">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AS34">
+        <v>94.179104477611901</v>
+      </c>
+      <c r="AT34">
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
       <c r="G35">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H35">
-        <v>95.902329497614303</v>
+        <v>99.915801291046805</v>
       </c>
       <c r="I35">
-        <v>96.454506621102098</v>
+        <v>99.9568965517241</v>
       </c>
       <c r="J35">
-        <v>97.285652735889698</v>
+        <v>99.913830245583796</v>
       </c>
       <c r="K35">
-        <v>97.285652735889698</v>
+        <v>99.913830245583796</v>
       </c>
       <c r="L35">
-        <v>93.317230273752003</v>
+        <v>99.919484702093399</v>
       </c>
       <c r="M35">
-        <v>94.844517184942703</v>
+        <v>99.839098954143196</v>
       </c>
       <c r="N35">
-        <v>96.868296868296795</v>
+        <v>99.9353587588881</v>
       </c>
       <c r="O35">
-        <v>94.844517184942703</v>
+        <v>99.839098954143196</v>
       </c>
       <c r="P35">
-        <v>93.317230273752003</v>
+        <v>99.919484702093399</v>
       </c>
       <c r="Q35">
-        <v>93.317230273752003</v>
+        <v>99.919484702093399</v>
       </c>
       <c r="R35">
-        <v>97.285652735889698</v>
+        <v>99.913830245583796</v>
       </c>
       <c r="S35">
-        <v>96.454506621102098</v>
+        <v>99.9568965517241</v>
       </c>
       <c r="T35">
-        <v>94.074675324675297</v>
+        <v>99.8792756539235</v>
       </c>
       <c r="U35">
-        <v>92.534381139489199</v>
+        <v>92.927308447937094</v>
       </c>
       <c r="V35">
-        <v>97.115384615384599</v>
+        <v>93.274853801169499</v>
       </c>
       <c r="W35">
-        <v>91.265060240963805</v>
+        <v>96.084337349397501</v>
       </c>
       <c r="X35">
-        <v>91.265060240963805</v>
+        <v>96.084337349397501</v>
       </c>
       <c r="Y35">
-        <v>94.915254237288096</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="Z35">
-        <v>85.279187817258801</v>
+        <v>92.215568862275404</v>
       </c>
       <c r="AA35">
-        <v>94.099378881987505</v>
+        <v>94.658753709198805</v>
       </c>
       <c r="AB35">
-        <v>85.279187817258801</v>
+        <v>92.215568862275404</v>
       </c>
       <c r="AC35">
-        <v>94.915254237288096</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AD35">
-        <v>94.915254237288096</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AE35">
-        <v>91.265060240963805</v>
+        <v>96.084337349397501</v>
       </c>
       <c r="AF35">
-        <v>97.115384615384599</v>
+        <v>93.274853801169499</v>
       </c>
       <c r="AG35">
-        <v>89.839572192513302</v>
+        <v>89.534883720930196</v>
       </c>
       <c r="AH35">
-        <v>91.732283464566905</v>
+        <v>92.618110236220403</v>
       </c>
       <c r="AI35">
-        <v>96.166134185303505</v>
+        <v>92.474674384949296</v>
       </c>
       <c r="AJ35">
-        <v>90.936555891238598</v>
+        <v>96.525679758308101</v>
       </c>
       <c r="AK35">
-        <v>90.936555891238598</v>
+        <v>96.525679758308101</v>
       </c>
       <c r="AL35">
-        <v>93.220338983050794</v>
+        <v>85.310734463276802</v>
       </c>
       <c r="AM35">
-        <v>84.615384615384599</v>
+        <v>92.923076923076906</v>
       </c>
       <c r="AN35">
-        <v>93.478260869565204</v>
+        <v>94.456762749445602</v>
       </c>
       <c r="AO35">
-        <v>84.615384615384599</v>
+        <v>92.923076923076906</v>
       </c>
       <c r="AP35">
-        <v>93.220338983050794</v>
+        <v>85.310734463276802</v>
       </c>
       <c r="AQ35">
-        <v>93.220338983050794</v>
+        <v>85.310734463276802</v>
       </c>
       <c r="AR35">
-        <v>90.936555891238598</v>
+        <v>96.525679758308101</v>
       </c>
       <c r="AS35">
-        <v>96.166134185303505</v>
+        <v>92.474674384949296</v>
       </c>
       <c r="AT35">
-        <v>88.709677419354804</v>
+        <v>88.9543446244477</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36">
-        <v>33</v>
-      </c>
-      <c r="H36">
-        <v>98.456357002525905</v>
-      </c>
-      <c r="I36">
-        <v>98.584905660377302</v>
-      </c>
-      <c r="J36">
-        <v>99.052132701421797</v>
-      </c>
-      <c r="K36">
-        <v>99.052132701421797</v>
-      </c>
-      <c r="L36">
-        <v>97.342995169082101</v>
-      </c>
-      <c r="M36">
-        <v>98.212835093419898</v>
-      </c>
-      <c r="N36">
-        <v>98.817966903073199</v>
-      </c>
-      <c r="O36">
-        <v>98.212835093419898</v>
-      </c>
-      <c r="P36">
-        <v>97.342995169082101</v>
-      </c>
-      <c r="Q36">
-        <v>97.342995169082101</v>
-      </c>
-      <c r="R36">
-        <v>99.052132701421797</v>
-      </c>
-      <c r="S36">
-        <v>98.584905660377302</v>
-      </c>
-      <c r="T36">
-        <v>97.775980590375994</v>
-      </c>
-      <c r="U36">
-        <v>93.320235756385003</v>
-      </c>
-      <c r="V36">
-        <v>97.756410256410206</v>
-      </c>
-      <c r="W36">
-        <v>91.867469879517998</v>
-      </c>
-      <c r="X36">
-        <v>91.867469879517998</v>
-      </c>
-      <c r="Y36">
-        <v>96.045197740112997</v>
-      </c>
-      <c r="Z36">
-        <v>86.294416243654794</v>
-      </c>
-      <c r="AA36">
-        <v>94.720496894409905</v>
-      </c>
-      <c r="AB36">
-        <v>86.294416243654794</v>
-      </c>
-      <c r="AC36">
-        <v>96.045197740112997</v>
-      </c>
-      <c r="AD36">
-        <v>96.045197740112997</v>
-      </c>
-      <c r="AE36">
-        <v>91.867469879517998</v>
-      </c>
-      <c r="AF36">
-        <v>97.756410256410206</v>
-      </c>
-      <c r="AG36">
-        <v>90.909090909090907</v>
-      </c>
-      <c r="AH36">
-        <v>92.519685039370003</v>
-      </c>
-      <c r="AI36">
-        <v>95.216049382715994</v>
-      </c>
-      <c r="AJ36">
-        <v>93.202416918428995</v>
-      </c>
-      <c r="AK36">
-        <v>93.202416918428995</v>
-      </c>
-      <c r="AL36">
-        <v>91.242937853107307</v>
-      </c>
-      <c r="AM36">
-        <v>87.771739130434696</v>
-      </c>
-      <c r="AN36">
-        <v>94.198473282442706</v>
-      </c>
-      <c r="AO36">
-        <v>87.771739130434696</v>
-      </c>
-      <c r="AP36">
-        <v>91.242937853107307</v>
-      </c>
-      <c r="AQ36">
-        <v>91.242937853107307</v>
-      </c>
-      <c r="AR36">
-        <v>93.202416918428995</v>
-      </c>
-      <c r="AS36">
-        <v>95.216049382715994</v>
-      </c>
-      <c r="AT36">
-        <v>89.473684210526301</v>
-      </c>
+    <row r="36" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="18"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="18"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37">
-        <v>30</v>
-      </c>
-      <c r="H37">
-        <v>97.782767330900896</v>
-      </c>
-      <c r="I37">
-        <v>98.235800344233994</v>
-      </c>
-      <c r="J37">
-        <v>98.362774666092207</v>
-      </c>
-      <c r="K37">
-        <v>98.362774666092207</v>
-      </c>
-      <c r="L37">
-        <v>96.698872785829295</v>
-      </c>
-      <c r="M37">
-        <v>96.9330104923325</v>
-      </c>
-      <c r="N37">
-        <v>98.299246501614604</v>
-      </c>
-      <c r="O37">
-        <v>96.9330104923325</v>
-      </c>
-      <c r="P37">
-        <v>96.698872785829295</v>
-      </c>
-      <c r="Q37">
-        <v>96.698872785829295</v>
-      </c>
-      <c r="R37">
-        <v>98.362774666092207</v>
-      </c>
-      <c r="S37">
-        <v>98.235800344233994</v>
-      </c>
-      <c r="T37">
-        <v>96.815800080612604</v>
-      </c>
-      <c r="U37">
-        <v>92.927308447937094</v>
-      </c>
-      <c r="V37">
-        <v>94.578313253011999</v>
-      </c>
-      <c r="W37">
-        <v>94.578313253011999</v>
-      </c>
-      <c r="X37">
-        <v>94.578313253011999</v>
-      </c>
-      <c r="Y37">
-        <v>89.830508474576206</v>
-      </c>
-      <c r="Z37">
-        <v>89.830508474576206</v>
-      </c>
-      <c r="AA37">
-        <v>94.578313253011999</v>
-      </c>
-      <c r="AB37">
-        <v>89.830508474576206</v>
-      </c>
-      <c r="AC37">
-        <v>89.830508474576206</v>
-      </c>
-      <c r="AD37">
-        <v>89.830508474576206</v>
-      </c>
-      <c r="AE37">
-        <v>94.578313253011999</v>
-      </c>
-      <c r="AF37">
-        <v>94.578313253011999</v>
-      </c>
-      <c r="AG37">
-        <v>89.830508474576206</v>
-      </c>
-      <c r="AH37">
-        <v>93.307086614173201</v>
-      </c>
-      <c r="AI37">
-        <v>94.065281899109706</v>
-      </c>
-      <c r="AJ37">
-        <v>95.770392749244706</v>
-      </c>
-      <c r="AK37">
-        <v>95.770392749244706</v>
-      </c>
-      <c r="AL37">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="AM37">
-        <v>91.812865497076004</v>
-      </c>
-      <c r="AN37">
-        <v>94.910179640718496</v>
-      </c>
-      <c r="AO37">
-        <v>91.812865497076004</v>
-      </c>
-      <c r="AP37">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="AQ37">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="AR37">
-        <v>95.770392749244706</v>
-      </c>
-      <c r="AS37">
-        <v>94.065281899109706</v>
-      </c>
-      <c r="AT37">
-        <v>90.229885057471193</v>
+    <row r="37" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A37" s="15" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="D38" s="8">
+        <v>384</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
       </c>
       <c r="G38">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H38">
-        <v>98.147628403031106</v>
+        <v>94.190289082234003</v>
       </c>
       <c r="I38">
-        <v>98.286937901498902</v>
+        <v>95.017035775127695</v>
       </c>
       <c r="J38">
-        <v>98.879793192589403</v>
+        <v>96.122361051271</v>
       </c>
       <c r="K38">
-        <v>98.879793192589403</v>
+        <v>96.122361051271</v>
       </c>
       <c r="L38">
-        <v>96.779388083735896</v>
+        <v>90.579710144927503</v>
       </c>
       <c r="M38">
-        <v>97.882736156351797</v>
+        <v>92.592592592592595</v>
       </c>
       <c r="N38">
-        <v>98.582474226804095</v>
+        <v>95.566502463054107</v>
       </c>
       <c r="O38">
-        <v>97.882736156351797</v>
+        <v>92.592592592592595</v>
       </c>
       <c r="P38">
-        <v>96.779388083735896</v>
+        <v>90.579710144927503</v>
       </c>
       <c r="Q38">
-        <v>96.779388083735896</v>
+        <v>90.579710144927503</v>
       </c>
       <c r="R38">
-        <v>98.879793192589403</v>
+        <v>96.122361051271</v>
       </c>
       <c r="S38">
-        <v>98.286937901498902</v>
+        <v>95.017035775127695</v>
       </c>
       <c r="T38">
-        <v>97.327935222671996</v>
+        <v>91.575091575091506</v>
       </c>
       <c r="U38">
-        <v>93.516699410608993</v>
+        <v>91.748526522593295</v>
       </c>
       <c r="V38">
-        <v>94.894894894894804</v>
+        <v>92.397660818713405</v>
       </c>
       <c r="W38">
         <v>95.180722891566205</v>
@@ -4825,354 +5011,1070 @@
         <v>95.180722891566205</v>
       </c>
       <c r="Y38">
-        <v>90.395480225988706</v>
+        <v>85.310734463276802</v>
       </c>
       <c r="Z38">
-        <v>90.909090909090907</v>
+        <v>90.419161676646695</v>
       </c>
       <c r="AA38">
-        <v>95.037593984962399</v>
+        <v>93.768545994065207</v>
       </c>
       <c r="AB38">
-        <v>90.909090909090907</v>
+        <v>90.419161676646695</v>
       </c>
       <c r="AC38">
-        <v>90.395480225988706</v>
+        <v>85.310734463276802</v>
       </c>
       <c r="AD38">
-        <v>90.395480225988706</v>
+        <v>85.310734463276802</v>
       </c>
       <c r="AE38">
         <v>95.180722891566205</v>
       </c>
       <c r="AF38">
-        <v>94.894894894894804</v>
+        <v>92.397660818713405</v>
       </c>
       <c r="AG38">
-        <v>90.6515580736544</v>
+        <v>87.790697674418595</v>
       </c>
       <c r="AH38">
-        <v>93.405511811023601</v>
+        <v>90.354330708661394</v>
       </c>
       <c r="AI38">
-        <v>94.602698650674597</v>
+        <v>90.869565217391298</v>
       </c>
       <c r="AJ38">
-        <v>95.317220543806599</v>
+        <v>94.712990936555897</v>
       </c>
       <c r="AK38">
-        <v>95.317220543806599</v>
+        <v>94.712990936555897</v>
       </c>
       <c r="AL38">
-        <v>89.830508474576206</v>
+        <v>82.203389830508399</v>
       </c>
       <c r="AM38">
-        <v>91.117478510028604</v>
+        <v>89.263803680981596</v>
       </c>
       <c r="AN38">
-        <v>94.958615500376197</v>
+        <v>92.751479289940804</v>
       </c>
       <c r="AO38">
-        <v>91.117478510028604</v>
+        <v>89.263803680981596</v>
       </c>
       <c r="AP38">
-        <v>89.830508474576206</v>
+        <v>82.203389830508399</v>
       </c>
       <c r="AQ38">
-        <v>89.830508474576206</v>
+        <v>82.203389830508399</v>
       </c>
       <c r="AR38">
-        <v>95.317220543806599</v>
+        <v>94.712990936555897</v>
       </c>
       <c r="AS38">
-        <v>94.602698650674597</v>
+        <v>90.869565217391298</v>
       </c>
       <c r="AT38">
-        <v>90.469416785206207</v>
+        <v>85.588235294117595</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>39</v>
+      </c>
+      <c r="H39">
+        <v>98.428290766208207</v>
+      </c>
+      <c r="I39">
+        <v>98.626019750965995</v>
+      </c>
+      <c r="J39">
+        <v>98.965962947005593</v>
+      </c>
+      <c r="K39">
+        <v>98.965962947005593</v>
+      </c>
+      <c r="L39">
+        <v>97.423510466988702</v>
+      </c>
+      <c r="M39">
+        <v>98.055105348460202</v>
+      </c>
+      <c r="N39">
+        <v>98.795698924731099</v>
+      </c>
+      <c r="O39">
+        <v>98.055105348460202</v>
+      </c>
+      <c r="P39">
+        <v>97.423510466988702</v>
+      </c>
+      <c r="Q39">
+        <v>97.423510466988702</v>
+      </c>
+      <c r="R39">
+        <v>98.965962947005593</v>
+      </c>
+      <c r="S39">
+        <v>98.626019750965995</v>
+      </c>
+      <c r="T39">
+        <v>97.738287560581497</v>
+      </c>
+      <c r="U39">
+        <v>92.927308447937094</v>
+      </c>
+      <c r="V39">
+        <v>94.848484848484802</v>
+      </c>
+      <c r="W39">
+        <v>94.277108433734895</v>
+      </c>
+      <c r="X39">
+        <v>94.277108433734895</v>
+      </c>
+      <c r="Y39">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="Z39">
+        <v>89.385474860335194</v>
+      </c>
+      <c r="AA39">
+        <v>94.561933534743204</v>
+      </c>
+      <c r="AB39">
+        <v>89.385474860335194</v>
+      </c>
+      <c r="AC39">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AD39">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AE39">
+        <v>94.277108433734895</v>
+      </c>
+      <c r="AF39">
+        <v>94.848484848484802</v>
+      </c>
+      <c r="AG39">
+        <v>89.887640449438194</v>
+      </c>
+      <c r="AH39">
+        <v>93.011811023622002</v>
+      </c>
+      <c r="AI39">
+        <v>94.1704035874439</v>
+      </c>
+      <c r="AJ39">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="AK39">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="AL39">
+        <v>88.983050847457605</v>
+      </c>
+      <c r="AM39">
+        <v>90.7780979827089</v>
+      </c>
+      <c r="AN39">
+        <v>94.665664913598704</v>
+      </c>
+      <c r="AO39">
+        <v>90.7780979827089</v>
+      </c>
+      <c r="AP39">
+        <v>88.983050847457605</v>
+      </c>
+      <c r="AQ39">
+        <v>88.983050847457605</v>
+      </c>
+      <c r="AR39">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="AS39">
+        <v>94.1704035874439</v>
+      </c>
+      <c r="AT39">
+        <v>89.871611982881603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="18"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:46" ht="33" x14ac:dyDescent="0.35">
+      <c r="A41" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G39">
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>95.902329497614303</v>
+      </c>
+      <c r="I42">
+        <v>96.454506621102098</v>
+      </c>
+      <c r="J42">
+        <v>97.285652735889698</v>
+      </c>
+      <c r="K42">
+        <v>97.285652735889698</v>
+      </c>
+      <c r="L42">
+        <v>93.317230273752003</v>
+      </c>
+      <c r="M42">
+        <v>94.844517184942703</v>
+      </c>
+      <c r="N42">
+        <v>96.868296868296795</v>
+      </c>
+      <c r="O42">
+        <v>94.844517184942703</v>
+      </c>
+      <c r="P42">
+        <v>93.317230273752003</v>
+      </c>
+      <c r="Q42">
+        <v>93.317230273752003</v>
+      </c>
+      <c r="R42">
+        <v>97.285652735889698</v>
+      </c>
+      <c r="S42">
+        <v>96.454506621102098</v>
+      </c>
+      <c r="T42">
+        <v>94.074675324675297</v>
+      </c>
+      <c r="U42">
+        <v>92.534381139489199</v>
+      </c>
+      <c r="V42">
+        <v>97.115384615384599</v>
+      </c>
+      <c r="W42">
+        <v>91.265060240963805</v>
+      </c>
+      <c r="X42">
+        <v>91.265060240963805</v>
+      </c>
+      <c r="Y42">
+        <v>94.915254237288096</v>
+      </c>
+      <c r="Z42">
+        <v>85.279187817258801</v>
+      </c>
+      <c r="AA42">
+        <v>94.099378881987505</v>
+      </c>
+      <c r="AB42">
+        <v>85.279187817258801</v>
+      </c>
+      <c r="AC42">
+        <v>94.915254237288096</v>
+      </c>
+      <c r="AD42">
+        <v>94.915254237288096</v>
+      </c>
+      <c r="AE42">
+        <v>91.265060240963805</v>
+      </c>
+      <c r="AF42">
+        <v>97.115384615384599</v>
+      </c>
+      <c r="AG42">
+        <v>89.839572192513302</v>
+      </c>
+      <c r="AH42">
+        <v>91.732283464566905</v>
+      </c>
+      <c r="AI42">
+        <v>96.166134185303505</v>
+      </c>
+      <c r="AJ42">
+        <v>90.936555891238598</v>
+      </c>
+      <c r="AK42">
+        <v>90.936555891238598</v>
+      </c>
+      <c r="AL42">
+        <v>93.220338983050794</v>
+      </c>
+      <c r="AM42">
+        <v>84.615384615384599</v>
+      </c>
+      <c r="AN42">
+        <v>93.478260869565204</v>
+      </c>
+      <c r="AO42">
+        <v>84.615384615384599</v>
+      </c>
+      <c r="AP42">
+        <v>93.220338983050794</v>
+      </c>
+      <c r="AQ42">
+        <v>93.220338983050794</v>
+      </c>
+      <c r="AR42">
+        <v>90.936555891238598</v>
+      </c>
+      <c r="AS42">
+        <v>96.166134185303505</v>
+      </c>
+      <c r="AT42">
+        <v>88.709677419354804</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>33</v>
+      </c>
+      <c r="H43">
+        <v>98.456357002525905</v>
+      </c>
+      <c r="I43">
+        <v>98.584905660377302</v>
+      </c>
+      <c r="J43">
+        <v>99.052132701421797</v>
+      </c>
+      <c r="K43">
+        <v>99.052132701421797</v>
+      </c>
+      <c r="L43">
+        <v>97.342995169082101</v>
+      </c>
+      <c r="M43">
+        <v>98.212835093419898</v>
+      </c>
+      <c r="N43">
+        <v>98.817966903073199</v>
+      </c>
+      <c r="O43">
+        <v>98.212835093419898</v>
+      </c>
+      <c r="P43">
+        <v>97.342995169082101</v>
+      </c>
+      <c r="Q43">
+        <v>97.342995169082101</v>
+      </c>
+      <c r="R43">
+        <v>99.052132701421797</v>
+      </c>
+      <c r="S43">
+        <v>98.584905660377302</v>
+      </c>
+      <c r="T43">
+        <v>97.775980590375994</v>
+      </c>
+      <c r="U43">
+        <v>93.320235756385003</v>
+      </c>
+      <c r="V43">
+        <v>97.756410256410206</v>
+      </c>
+      <c r="W43">
+        <v>91.867469879517998</v>
+      </c>
+      <c r="X43">
+        <v>91.867469879517998</v>
+      </c>
+      <c r="Y43">
+        <v>96.045197740112997</v>
+      </c>
+      <c r="Z43">
+        <v>86.294416243654794</v>
+      </c>
+      <c r="AA43">
+        <v>94.720496894409905</v>
+      </c>
+      <c r="AB43">
+        <v>86.294416243654794</v>
+      </c>
+      <c r="AC43">
+        <v>96.045197740112997</v>
+      </c>
+      <c r="AD43">
+        <v>96.045197740112997</v>
+      </c>
+      <c r="AE43">
+        <v>91.867469879517998</v>
+      </c>
+      <c r="AF43">
+        <v>97.756410256410206</v>
+      </c>
+      <c r="AG43">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AH43">
+        <v>92.519685039370003</v>
+      </c>
+      <c r="AI43">
+        <v>95.216049382715994</v>
+      </c>
+      <c r="AJ43">
+        <v>93.202416918428995</v>
+      </c>
+      <c r="AK43">
+        <v>93.202416918428995</v>
+      </c>
+      <c r="AL43">
+        <v>91.242937853107307</v>
+      </c>
+      <c r="AM43">
+        <v>87.771739130434696</v>
+      </c>
+      <c r="AN43">
+        <v>94.198473282442706</v>
+      </c>
+      <c r="AO43">
+        <v>87.771739130434696</v>
+      </c>
+      <c r="AP43">
+        <v>91.242937853107307</v>
+      </c>
+      <c r="AQ43">
+        <v>91.242937853107307</v>
+      </c>
+      <c r="AR43">
+        <v>93.202416918428995</v>
+      </c>
+      <c r="AS43">
+        <v>95.216049382715994</v>
+      </c>
+      <c r="AT43">
+        <v>89.473684210526301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>30</v>
+      </c>
+      <c r="H44">
+        <v>97.782767330900896</v>
+      </c>
+      <c r="I44">
+        <v>98.235800344233994</v>
+      </c>
+      <c r="J44">
+        <v>98.362774666092207</v>
+      </c>
+      <c r="K44">
+        <v>98.362774666092207</v>
+      </c>
+      <c r="L44">
+        <v>96.698872785829295</v>
+      </c>
+      <c r="M44">
+        <v>96.9330104923325</v>
+      </c>
+      <c r="N44">
+        <v>98.299246501614604</v>
+      </c>
+      <c r="O44">
+        <v>96.9330104923325</v>
+      </c>
+      <c r="P44">
+        <v>96.698872785829295</v>
+      </c>
+      <c r="Q44">
+        <v>96.698872785829295</v>
+      </c>
+      <c r="R44">
+        <v>98.362774666092207</v>
+      </c>
+      <c r="S44">
+        <v>98.235800344233994</v>
+      </c>
+      <c r="T44">
+        <v>96.815800080612604</v>
+      </c>
+      <c r="U44">
+        <v>92.927308447937094</v>
+      </c>
+      <c r="V44">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="W44">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="X44">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="Y44">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="Z44">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AA44">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="AB44">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AC44">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AD44">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AE44">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="AF44">
+        <v>94.578313253011999</v>
+      </c>
+      <c r="AG44">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AH44">
+        <v>93.307086614173201</v>
+      </c>
+      <c r="AI44">
+        <v>94.065281899109706</v>
+      </c>
+      <c r="AJ44">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AK44">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AL44">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AM44">
+        <v>91.812865497076004</v>
+      </c>
+      <c r="AN44">
+        <v>94.910179640718496</v>
+      </c>
+      <c r="AO44">
+        <v>91.812865497076004</v>
+      </c>
+      <c r="AP44">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AQ44">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="AR44">
+        <v>95.770392749244706</v>
+      </c>
+      <c r="AS44">
+        <v>94.065281899109706</v>
+      </c>
+      <c r="AT44">
+        <v>90.229885057471193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>32</v>
+      </c>
+      <c r="H45">
+        <v>98.147628403031106</v>
+      </c>
+      <c r="I45">
+        <v>98.286937901498902</v>
+      </c>
+      <c r="J45">
+        <v>98.879793192589403</v>
+      </c>
+      <c r="K45">
+        <v>98.879793192589403</v>
+      </c>
+      <c r="L45">
+        <v>96.779388083735896</v>
+      </c>
+      <c r="M45">
+        <v>97.882736156351797</v>
+      </c>
+      <c r="N45">
+        <v>98.582474226804095</v>
+      </c>
+      <c r="O45">
+        <v>97.882736156351797</v>
+      </c>
+      <c r="P45">
+        <v>96.779388083735896</v>
+      </c>
+      <c r="Q45">
+        <v>96.779388083735896</v>
+      </c>
+      <c r="R45">
+        <v>98.879793192589403</v>
+      </c>
+      <c r="S45">
+        <v>98.286937901498902</v>
+      </c>
+      <c r="T45">
+        <v>97.327935222671996</v>
+      </c>
+      <c r="U45">
+        <v>93.516699410608993</v>
+      </c>
+      <c r="V45">
+        <v>94.894894894894804</v>
+      </c>
+      <c r="W45">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="X45">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="Y45">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="Z45">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AA45">
+        <v>95.037593984962399</v>
+      </c>
+      <c r="AB45">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="AC45">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AD45">
+        <v>90.395480225988706</v>
+      </c>
+      <c r="AE45">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="AF45">
+        <v>94.894894894894804</v>
+      </c>
+      <c r="AG45">
+        <v>90.6515580736544</v>
+      </c>
+      <c r="AH45">
+        <v>93.405511811023601</v>
+      </c>
+      <c r="AI45">
+        <v>94.602698650674597</v>
+      </c>
+      <c r="AJ45">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AK45">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AL45">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AM45">
+        <v>91.117478510028604</v>
+      </c>
+      <c r="AN45">
+        <v>94.958615500376197</v>
+      </c>
+      <c r="AO45">
+        <v>91.117478510028604</v>
+      </c>
+      <c r="AP45">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AQ45">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AR45">
+        <v>95.317220543806599</v>
+      </c>
+      <c r="AS45">
+        <v>94.602698650674597</v>
+      </c>
+      <c r="AT45">
+        <v>90.469416785206207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
         <v>44</v>
       </c>
-      <c r="H39">
+      <c r="H46">
         <v>99.242211619421795</v>
       </c>
-      <c r="I39">
+      <c r="I46">
         <v>99.439655172413794</v>
       </c>
-      <c r="J39">
+      <c r="J46">
         <v>99.3968117190866</v>
       </c>
-      <c r="K39">
+      <c r="K46">
         <v>99.3968117190866</v>
       </c>
-      <c r="L39">
+      <c r="L46">
         <v>98.953301127214104</v>
       </c>
-      <c r="M39">
+      <c r="M46">
         <v>98.873692679002403</v>
       </c>
-      <c r="N39">
+      <c r="N46">
         <v>99.418228829993495</v>
       </c>
-      <c r="O39">
+      <c r="O46">
         <v>98.873692679002403</v>
       </c>
-      <c r="P39">
+      <c r="P46">
         <v>98.953301127214104</v>
       </c>
-      <c r="Q39">
+      <c r="Q46">
         <v>98.953301127214104</v>
       </c>
-      <c r="R39">
+      <c r="R46">
         <v>99.3968117190866</v>
       </c>
-      <c r="S39">
+      <c r="S46">
         <v>99.439655172413794</v>
       </c>
-      <c r="T39">
+      <c r="T46">
         <v>98.913480885311799</v>
       </c>
-      <c r="U39">
+      <c r="U46">
         <v>93.909626719056902</v>
       </c>
-      <c r="V39">
+      <c r="V46">
         <v>94.658753709198805</v>
       </c>
-      <c r="W39">
+      <c r="W46">
         <v>96.084337349397501</v>
       </c>
-      <c r="X39">
+      <c r="X46">
         <v>96.084337349397501</v>
       </c>
-      <c r="Y39">
+      <c r="Y46">
         <v>89.830508474576206</v>
       </c>
-      <c r="Z39">
+      <c r="Z46">
         <v>92.441860465116207</v>
       </c>
-      <c r="AA39">
+      <c r="AA46">
         <v>95.366218236173395</v>
       </c>
-      <c r="AB39">
+      <c r="AB46">
         <v>92.441860465116207</v>
       </c>
-      <c r="AC39">
+      <c r="AC46">
         <v>89.830508474576206</v>
       </c>
-      <c r="AD39">
+      <c r="AD46">
         <v>89.830508474576206</v>
       </c>
-      <c r="AE39">
+      <c r="AE46">
         <v>96.084337349397501</v>
       </c>
-      <c r="AF39">
+      <c r="AF46">
         <v>94.658753709198805</v>
       </c>
-      <c r="AG39">
+      <c r="AG46">
         <v>91.117478510028604</v>
       </c>
-      <c r="AH39">
+      <c r="AH46">
         <v>93.503937007874001</v>
       </c>
-      <c r="AI39">
+      <c r="AI46">
         <v>94.082840236686394</v>
       </c>
-      <c r="AJ39">
+      <c r="AJ46">
         <v>96.072507552869993</v>
       </c>
-      <c r="AK39">
+      <c r="AK46">
         <v>96.072507552869993</v>
       </c>
-      <c r="AL39">
+      <c r="AL46">
         <v>88.700564971751405</v>
       </c>
-      <c r="AM39">
+      <c r="AM46">
         <v>92.352941176470594</v>
       </c>
-      <c r="AN39">
+      <c r="AN46">
         <v>95.067264573990997</v>
       </c>
-      <c r="AO39">
+      <c r="AO46">
         <v>92.352941176470594</v>
       </c>
-      <c r="AP39">
+      <c r="AP46">
         <v>88.700564971751405</v>
       </c>
-      <c r="AQ39">
+      <c r="AQ46">
         <v>88.700564971751405</v>
       </c>
-      <c r="AR39">
+      <c r="AR46">
         <v>96.072507552869993</v>
       </c>
-      <c r="AS39">
+      <c r="AS46">
         <v>94.082840236686394</v>
       </c>
-      <c r="AT39">
+      <c r="AT46">
         <v>90.489913544668596</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C47" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G40">
+      <c r="F47">
+        <v>50</v>
+      </c>
+      <c r="G47">
         <v>47</v>
       </c>
-      <c r="H40">
+      <c r="H47">
         <v>99.017681728880106</v>
       </c>
-      <c r="I40">
+      <c r="I47">
         <v>99.140154772141003</v>
       </c>
-      <c r="J40">
+      <c r="J47">
         <v>99.353726841878498</v>
       </c>
-      <c r="K40">
+      <c r="K47">
         <v>99.353726841878498</v>
       </c>
-      <c r="L40">
+      <c r="L47">
         <v>98.389694041867898</v>
       </c>
-      <c r="M40">
+      <c r="M47">
         <v>98.787388843977297</v>
       </c>
-      <c r="N40">
+      <c r="N47">
         <v>99.246825909188701</v>
       </c>
-      <c r="O40">
+      <c r="O47">
         <v>98.787388843977297</v>
       </c>
-      <c r="P40">
+      <c r="P47">
         <v>98.389694041867898</v>
       </c>
-      <c r="Q40">
+      <c r="Q47">
         <v>98.389694041867898</v>
       </c>
-      <c r="R40">
+      <c r="R47">
         <v>99.353726841878498</v>
       </c>
-      <c r="S40">
+      <c r="S47">
         <v>99.140154772141003</v>
       </c>
-      <c r="T40">
+      <c r="T47">
         <v>98.588140379185106</v>
       </c>
-      <c r="U40">
+      <c r="U47">
         <v>94.302554027504897</v>
       </c>
-      <c r="V40">
+      <c r="V47">
         <v>95.495495495495405</v>
       </c>
-      <c r="W40">
+      <c r="W47">
         <v>95.783132530120398</v>
       </c>
-      <c r="X40">
+      <c r="X47">
         <v>95.783132530120398</v>
       </c>
-      <c r="Y40">
+      <c r="Y47">
         <v>91.525423728813493</v>
       </c>
-      <c r="Z40">
+      <c r="Z47">
         <v>92.045454545454504</v>
       </c>
-      <c r="AA40">
+      <c r="AA47">
         <v>95.639097744360896</v>
       </c>
-      <c r="AB40">
+      <c r="AB47">
         <v>92.045454545454504</v>
       </c>
-      <c r="AC40">
+      <c r="AC47">
         <v>91.525423728813493</v>
       </c>
-      <c r="AD40">
+      <c r="AD47">
         <v>91.525423728813493</v>
       </c>
-      <c r="AE40">
+      <c r="AE47">
         <v>95.783132530120398</v>
       </c>
-      <c r="AF40">
+      <c r="AF47">
         <v>95.495495495495405</v>
       </c>
-      <c r="AG40">
+      <c r="AG47">
         <v>91.784702549575002</v>
       </c>
-      <c r="AH40">
+      <c r="AH47">
         <v>93.6023622047244</v>
       </c>
-      <c r="AI40">
+      <c r="AI47">
         <v>94.752623688155893</v>
       </c>
-      <c r="AJ40">
+      <c r="AJ47">
         <v>95.468277945619306</v>
       </c>
-      <c r="AK40">
+      <c r="AK47">
         <v>95.468277945619306</v>
       </c>
-      <c r="AL40">
+      <c r="AL47">
         <v>90.112994350282406</v>
       </c>
-      <c r="AM40">
+      <c r="AM47">
         <v>91.404011461318007</v>
       </c>
-      <c r="AN40">
+      <c r="AN47">
         <v>95.109104589917195</v>
       </c>
-      <c r="AO40">
+      <c r="AO47">
         <v>91.404011461318007</v>
       </c>
-      <c r="AP40">
+      <c r="AP47">
         <v>90.112994350282406</v>
       </c>
-      <c r="AQ40">
+      <c r="AQ47">
         <v>90.112994350282406</v>
       </c>
-      <c r="AR40">
+      <c r="AR47">
         <v>95.468277945619306</v>
       </c>
-      <c r="AS40">
+      <c r="AS47">
         <v>94.752623688155893</v>
       </c>
-      <c r="AT40">
+      <c r="AT47">
         <v>90.7539118065433</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="C48" s="9"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AH20">
-    <sortCondition ref="A4:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:AH27">
+    <sortCondition ref="A4:A27"/>
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Archive/ROSE results.xlsx
+++ b/Archive/ROSE results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038F8C6C-8DA9-2646-A9CB-B7D7D0D05E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D0CD8B-1162-5B40-9FC4-CCF86F62DD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3100" yWindow="2020" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,7 +843,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -886,6 +886,9 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1243,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1553,121 +1556,121 @@
       <c r="G4">
         <v>50</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="20">
         <v>95.112359550561706</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="20">
         <v>95.972579263067701</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="20">
         <v>96.551724137931004</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="20">
         <v>96.551724137931004</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="20">
         <v>92.419354838709594</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="20">
         <v>93.474714518760194</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="20">
         <v>96.261280618822497</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="20">
         <v>93.474714518760194</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="20">
         <v>92.419354838709594</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="20">
         <v>92.419354838709594</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="20">
         <v>96.551724137931004</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="20">
         <v>95.972579263067701</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="20">
         <v>92.944038929440396</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="20">
         <v>92.519685039370003</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="20">
         <v>94.545454545454504</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="20">
         <v>89.772727272727195</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="20">
         <v>88.764044943820195</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="20">
         <v>94.259818731117804</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="20">
         <v>88.764044943820195</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="20">
         <v>89.772727272727195</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="20">
         <v>89.772727272727195</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="20">
         <v>94.545454545454504</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="20">
         <v>90.649606299212607</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="20">
         <v>93.019726858876993</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="20">
         <v>92.598187311178194</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="20">
         <v>92.598187311178194</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="20">
         <v>86.274509803921504</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="20">
         <v>92.808478425435197</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="20">
         <v>86.274509803921504</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="20">
         <v>92.598187311178194</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="20">
         <v>93.019726858876993</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="20">
         <v>86.638537271448598</v>
       </c>
     </row>
@@ -1693,121 +1696,121 @@
       <c r="G5">
         <v>39</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="20">
         <v>93.7078651685393</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="20">
         <v>94.439728353140893</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="20">
         <v>95.9879206212252</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="20">
         <v>95.9879206212252</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="20">
         <v>89.452495974235106</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="20">
         <v>92.275747508305599</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="20">
         <v>95.207531022678594</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="20">
         <v>92.275747508305599</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="20">
         <v>89.452495974235106</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="20">
         <v>89.452495974235106</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="20">
         <v>95.9879206212252</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="20">
         <v>94.439728353140893</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="20">
         <v>90.842191332788204</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="20">
         <v>91.141732283464506</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="20">
         <v>90.6515580736543</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="20">
         <v>96.385542168674704</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="20">
         <v>96.385542168674704</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="20">
         <v>81.25</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="20">
         <v>92.258064516128997</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="20">
         <v>93.430656934306498</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="20">
         <v>92.258064516128997</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="20">
         <v>81.25</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="20">
         <v>81.25</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="20">
         <v>96.385542168674704</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="20">
         <v>90.6515580736543</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="20">
         <v>86.404833836858003</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="20">
         <v>90.059055118110194</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="20">
         <v>89.900426742532005</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="20">
         <v>79.943502824858697</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="20">
         <v>90.4153354632587</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="20">
         <v>92.600732600732599</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="20">
         <v>90.4153354632587</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="20">
         <v>79.943502824858697</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="20">
         <v>79.943502824858697</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="20">
         <v>89.900426742532005</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="20">
         <v>84.857571214392806</v>
       </c>
     </row>
@@ -1833,121 +1836,121 @@
       <c r="G6">
         <v>37</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="20">
         <v>88.848314606741496</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="20">
         <v>90.310402684563698</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="20">
         <v>92.841742130228496</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="20">
         <v>92.841742130228496</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="20">
         <v>81.385979049153903</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="20">
         <v>85.884353741496597</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="20">
         <v>91.558579630023303</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="20">
         <v>85.884353741496597</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="20">
         <v>81.385979049153903</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="20">
         <v>81.385979049153903</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="20">
         <v>92.841742130228496</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="20">
         <v>90.310402684563698</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="20">
         <v>83.5746793545717</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="20">
         <v>89.960629921259795</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="20">
         <v>90.489913544668497</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="20">
         <v>81.25</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="20">
         <v>88.819875776397495</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="20">
         <v>92.488954344624403</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="20">
         <v>88.819875776397495</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="20">
         <v>81.25</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="20">
         <v>81.25</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="20">
         <v>90.489913544668497</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="20">
         <v>84.866468842729901</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="20">
         <v>89.566929133858196</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="20">
         <v>88.935574229691795</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="20">
         <v>95.9214501510574</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="20">
         <v>95.9214501510574</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="20">
         <v>77.683615819208995</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="20">
         <v>91.059602649006607</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="20">
         <v>92.296511627906895</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="20">
         <v>91.059602649006607</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="20">
         <v>77.683615819208995</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="20">
         <v>77.683615819208995</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="20">
         <v>95.9214501510574</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="20">
         <v>88.935574229691795</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="20">
         <v>83.841463414634106</v>
       </c>
     </row>
@@ -1973,121 +1976,121 @@
       <c r="G7">
         <v>50</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="20">
         <v>93.123772102161098</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="20">
         <v>93.613445378151198</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="20">
         <v>95.993106419646693</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="20">
         <v>95.993106419646693</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="20">
         <v>87.761674718196403</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="20">
         <v>92.138630600168995</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="20">
         <v>94.788342905764694</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="20">
         <v>92.138630600168995</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="20">
         <v>87.761674718196403</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="20">
         <v>87.761674718196403</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="20">
         <v>95.993106419646693</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="20">
         <v>93.613445378151198</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="20">
         <v>89.896907216494796</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="20">
         <v>90.569744597249496</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="20">
         <v>94.099378881987505</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="20">
         <v>91.265060240963805</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="20">
         <v>91.265060240963805</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="20">
         <v>84.491978609625605</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="20">
         <v>92.660550458715505</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="20">
         <v>84.491978609625605</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="20">
         <v>91.265060240963805</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="20">
         <v>94.099378881987505</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="20">
         <v>86.813186813186803</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="20">
         <v>89.566929133858196</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="20">
         <v>91.993957703927407</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="20">
         <v>91.993957703927407</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="20">
         <v>91.993957703927407</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="20">
         <v>85.028248587570602</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="20">
         <v>85.028248587570602</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="20">
         <v>91.993957703927407</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="20">
         <v>85.028248587570602</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="20">
         <v>85.028248587570602</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="20">
         <v>85.028248587570602</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="20">
         <v>91.993957703927407</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="20">
         <v>91.993957703927407</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="20">
         <v>85.028248587570602</v>
       </c>
     </row>
@@ -2113,121 +2116,121 @@
       <c r="G8">
         <v>21</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="20">
         <v>92.983440920572505</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="20">
         <v>93.490130197395999</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="20">
         <v>95.906936665230504</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="20">
         <v>95.906936665230504</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="20">
         <v>87.5201288244766</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="20">
         <v>91.962774957698798</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="20">
         <v>94.683113568694097</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="20">
         <v>91.962774957698798</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="20">
         <v>87.5201288244766</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="20">
         <v>87.5201288244766</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="20">
         <v>95.906936665230504</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="20">
         <v>93.490130197395999</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="20">
         <v>89.686468646864697</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="20">
         <v>91.3555992141453</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="20">
         <v>93.113772455089801</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="20">
         <v>93.674698795180703</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="20">
         <v>93.674698795180703</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="20">
         <v>88</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="20">
         <v>93.393393393393296</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="20">
         <v>88</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="20">
         <v>93.674698795180703</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="20">
         <v>93.113772455089801</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="20">
         <v>87.499999999999901</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="20">
         <v>90.748031496062893</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="20">
         <v>92.514970059880199</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="20">
         <v>85.875706214689203</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="20">
         <v>87.356321839080394</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="20">
         <v>92.932330827067602</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="20">
         <v>87.356321839080394</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="20">
         <v>85.875706214689203</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="20">
         <v>85.875706214689203</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="20">
         <v>92.514970059880199</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="20">
         <v>86.609686609686605</v>
       </c>
     </row>
@@ -2253,121 +2256,121 @@
       <c r="G9">
         <v>49</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="20">
         <v>95.593600898119504</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="20">
         <v>96.121057118499493</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="20">
         <v>97.156398104265406</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="20">
         <v>97.156398104265406</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="20">
         <v>92.673107890499196</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="20">
         <v>94.576828266228404</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="20">
         <v>96.635954574673207</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="20">
         <v>94.576828266228404</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="20">
         <v>92.673107890499196</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="20">
         <v>92.673107890499196</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="20">
         <v>97.156398104265406</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="20">
         <v>96.121057118499493</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="20">
         <v>93.615290768605107</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="20">
         <v>92.337917485265194</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="20">
         <v>94.259818731117804</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="20">
         <v>88.764044943820195</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="20">
         <v>94.117647058823493</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="20">
         <v>88.764044943820195</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="20">
         <v>94.259818731117804</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="20">
         <v>89.014084507042199</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="20">
         <v>90.748031496062893</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="20">
         <v>92.900302114803594</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="20">
         <v>92.900302114803594</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="20">
         <v>92.900302114803594</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="20">
         <v>86.723163841807903</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="20">
         <v>86.723163841807903</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="20">
         <v>92.900302114803594</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" s="20">
         <v>86.723163841807903</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="20">
         <v>86.723163841807903</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" s="20">
         <v>86.723163841807903</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="20">
         <v>92.900302114803594</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="20">
         <v>92.900302114803594</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="20">
         <v>86.723163841807903</v>
       </c>
     </row>
@@ -2393,121 +2396,121 @@
       <c r="G10">
         <v>31</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="20">
         <v>92.724719101123597</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="20">
         <v>93.530655391120504</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="20">
         <v>95.427092320966295</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="20">
         <v>95.427092320966295</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="20">
         <v>87.681159420289802</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="20">
         <v>91.129707112970706</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="20">
         <v>94.469357249626299</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="20">
         <v>91.129707112970706</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="20">
         <v>87.681159420289802</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="20">
         <v>87.681159420289802</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="20">
         <v>95.427092320966295</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="20">
         <v>93.530655391120504</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="20">
         <v>89.372178908494007</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="20">
         <v>92.716535433070803</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="20">
         <v>93.768545994065207</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="20">
         <v>88.068181818181799</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="20">
         <v>90.643274853801103</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="20">
         <v>94.469357249626299</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="20">
         <v>90.643274853801103</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="20">
         <v>88.068181818181799</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="20">
         <v>88.068181818181799</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="20">
         <v>93.768545994065207</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="20">
         <v>89.337175792507196</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="20">
         <v>90.944881889763707</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="20">
         <v>90.714285714285694</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="20">
         <v>95.9214501510574</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="20">
         <v>95.9214501510574</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="20">
         <v>81.638418079095999</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="20">
         <v>91.455696202531598</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="20">
         <v>93.245227606461</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" s="20">
         <v>91.455696202531598</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="20">
         <v>81.638418079095999</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" s="20">
         <v>81.638418079095999</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="20">
         <v>95.9214501510574</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="20">
         <v>90.714285714285694</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="20">
         <v>86.268656716417894</v>
       </c>
     </row>
@@ -2533,121 +2536,121 @@
       <c r="G11">
         <v>46</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="20">
         <v>91.495930395733893</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="20">
         <v>92.359361880772397</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="20">
         <v>94.786729857819907</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="20">
         <v>94.786729857819907</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="20">
         <v>85.346215780998307</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="20">
         <v>89.754445385266706</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="20">
         <v>93.557303848607205</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="20">
         <v>89.754445385266706</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="20">
         <v>85.346215780998307</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="20">
         <v>85.346215780998307</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="20">
         <v>94.786729857819907</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="20">
         <v>92.359361880772397</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="20">
         <v>87.494841106066801</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="20">
         <v>91.159135559921395</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="20">
         <v>93.072289156626496</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="20">
         <v>93.072289156626496</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="20">
         <v>87.570621468926504</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="20">
         <v>87.078651685393197</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="20">
         <v>93.2126696832579</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="20">
         <v>87.078651685393197</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="20">
         <v>87.570621468926504</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="20">
         <v>87.570621468926504</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="20">
         <v>93.072289156626496</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="20">
         <v>87.323943661971796</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="20">
         <v>89.173228346456696</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="20">
         <v>90.350877192982395</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="20">
         <v>81.355932203389798</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="20">
         <v>86.746987951807199</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="20">
         <v>91.827637444279304</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="20">
         <v>86.746987951807199</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="20">
         <v>81.355932203389798</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="20">
         <v>81.355932203389798</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="20">
         <v>90.350877192982395</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="20">
         <v>83.965014577259396</v>
       </c>
     </row>
@@ -2673,121 +2676,121 @@
       <c r="G12">
         <v>49</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="20">
         <v>96.996912714005006</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="20">
         <v>97.592433361994793</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="20">
         <v>97.802671262386895</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="20">
         <v>97.802671262386895</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="20">
         <v>95.491143317230197</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="20">
         <v>95.877122069522997</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="20">
         <v>97.697439208091197</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="20">
         <v>95.877122069522997</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="20">
         <v>95.491143317230197</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="20">
         <v>95.491143317230197</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="20">
         <v>97.802671262386895</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="20">
         <v>97.592433361994793</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="20">
         <v>95.683743444937406</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="20">
         <v>92.927308447937094</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="20">
         <v>93.786982248520701</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="20">
         <v>95.481927710843294</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="20">
         <v>95.481927710843294</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="20">
         <v>88.135593220338905</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="20">
         <v>91.228070175438603</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="20">
         <v>94.626865671641795</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="20">
         <v>91.228070175438603</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="20">
         <v>88.135593220338905</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="20">
         <v>88.135593220338905</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="20">
         <v>95.481927710843294</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="20">
         <v>93.786982248520701</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="20">
         <v>89.655172413793096</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="20">
         <v>90.649606299212607</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="20">
         <v>91.875923190546501</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="20">
         <v>93.957703927492403</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="20">
         <v>93.957703927492403</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="20">
         <v>84.463276836158101</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="20">
         <v>88.200589970501397</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="20">
         <v>92.905153099327805</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" s="20">
         <v>88.200589970501397</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="20">
         <v>84.463276836158101</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" s="20">
         <v>84.463276836158101</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="20">
         <v>93.957703927492403</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="20">
         <v>91.875923190546501</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="20">
         <v>86.291486291486194</v>
       </c>
     </row>
@@ -2813,121 +2816,121 @@
       <c r="G13">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="20">
         <v>88.820224719101105</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="20">
         <v>90.540540540540505</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="20">
         <v>92.493528904227702</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="20">
         <v>92.493528904227702</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="20">
         <v>81.9645732689211</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="20">
         <v>85.402684563758299</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="20">
         <v>91.506615450277394</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="20">
         <v>85.402684563758299</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="20">
         <v>81.9645732689211</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="20">
         <v>81.9645732689211</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="20">
         <v>92.493528904227702</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="20">
         <v>90.540540540540505</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="20">
         <v>83.648315529991706</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="20">
         <v>91.732283464566905</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="20">
         <v>91.428571428571402</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="20">
         <v>96.385542168674704</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="20">
         <v>96.385542168674704</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="20">
         <v>82.954545454545396</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="20">
         <v>92.4050632911392</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="20">
         <v>93.841642228738905</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="20">
         <v>92.4050632911392</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="20">
         <v>82.954545454545396</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="20">
         <v>82.954545454545396</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="20">
         <v>96.385542168674704</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="20">
         <v>91.428571428571402</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="20">
         <v>87.425149700598794</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="20">
         <v>89.665354330708595</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="20">
         <v>89.170182841068893</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="20">
         <v>78.248587570621396</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="20">
         <v>90.819672131147499</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" s="20">
         <v>92.352512745812007</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" s="20">
         <v>90.819672131147499</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" s="20">
         <v>78.248587570621396</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" s="20">
         <v>78.248587570621396</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" s="20">
         <v>89.170182841068893</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="20">
         <v>84.066767830045507</v>
       </c>
     </row>
@@ -2953,121 +2956,121 @@
       <c r="G14">
         <v>37</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="20">
         <v>91.516853932584198</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="20">
         <v>92.498946481247302</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="20">
         <v>94.652867615351397</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="20">
         <v>94.652867615351397</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="20">
         <v>85.656728444802496</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="20">
         <v>89.55349620893</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="20">
         <v>93.563512361466294</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="20">
         <v>89.55349620893</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="20">
         <v>85.656728444802496</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="20">
         <v>85.656728444802496</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="20">
         <v>94.652867615351397</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="20">
         <v>92.498946481247302</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="20">
         <v>87.561779242174595</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="20">
         <v>91.338582677165306</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="20">
         <v>92.857142857142804</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="20">
         <v>86.363636363636303</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="20">
         <v>88.3720930232558</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="20">
         <v>93.413173652694596</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="20">
         <v>88.3720930232558</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="20">
         <v>86.363636363636303</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="20">
         <v>86.363636363636303</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="20">
         <v>92.857142857142804</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="20">
         <v>87.356321839080394</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="20">
         <v>89.665354330708595</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="20">
         <v>91.016200294550799</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" s="20">
         <v>82.7683615819209</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="20">
         <v>86.943620178041499</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" s="20">
         <v>92.170022371364595</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" s="20">
         <v>86.943620178041499</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" s="20">
         <v>82.7683615819209</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" s="20">
         <v>82.7683615819209</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" s="20">
         <v>93.353474320241602</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" s="20">
         <v>91.016200294550799</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" s="20">
         <v>84.804630969609207</v>
       </c>
     </row>
@@ -3093,121 +3096,121 @@
       <c r="G15">
         <v>31</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="20">
         <v>93.348301992702702</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="20">
         <v>94.227504244482105</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="20">
         <v>95.648427401981905</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="20">
         <v>95.648427401981905</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="20">
         <v>89.049919484702002</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="20">
         <v>91.632145816072907</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="20">
         <v>94.932649134060199</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="20">
         <v>91.632145816072907</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="20">
         <v>89.049919484702002</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="20">
         <v>89.049919484702002</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="20">
         <v>95.648427401981905</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="20">
         <v>94.227504244482105</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="20">
         <v>90.322580645161196</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="20">
         <v>91.748526522593295</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="20">
         <v>92.899408284023593</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="20">
         <v>86.440677966101603</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="20">
         <v>89.473684210526301</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="20">
         <v>93.731343283582007</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="20">
         <v>89.473684210526301</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="20">
         <v>86.440677966101603</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="20">
         <v>86.440677966101603</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="20">
         <v>92.899408284023593</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="20">
         <v>87.931034482758605</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="20">
         <v>90.649606299212607</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="20">
         <v>90.674318507890902</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" s="20">
         <v>81.638418079095999</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="20">
         <v>90.595611285266401</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" s="20">
         <v>93.009565857247907</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" s="20">
         <v>90.595611285266401</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" s="20">
         <v>81.638418079095999</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" s="20">
         <v>81.638418079095999</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="20">
         <v>90.674318507890902</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" s="20">
         <v>85.884101040118793</v>
       </c>
     </row>
@@ -3215,11 +3218,89 @@
       <c r="C16" s="9"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="20"/>
+      <c r="AM16" s="20"/>
+      <c r="AN16" s="20"/>
+      <c r="AO16" s="20"/>
+      <c r="AP16" s="20"/>
+      <c r="AQ16" s="20"/>
+      <c r="AR16" s="20"/>
+      <c r="AS16" s="20"/>
+      <c r="AT16" s="20"/>
     </row>
     <row r="17" spans="1:46" ht="33" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>73</v>
       </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="20"/>
+      <c r="AM17" s="20"/>
+      <c r="AN17" s="20"/>
+      <c r="AO17" s="20"/>
+      <c r="AP17" s="20"/>
+      <c r="AQ17" s="20"/>
+      <c r="AR17" s="20"/>
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -3243,121 +3324,121 @@
       <c r="G18">
         <v>39</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="20">
         <v>95.505617977528004</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="20">
         <v>96.054306321595206</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="20">
         <v>97.125697125697101</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="20">
         <v>97.125697125697101</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="20">
         <v>92.4328722538649</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="20">
         <v>94.430590191188699</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="20">
         <v>96.587030716723504</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="20">
         <v>94.430590191188699</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="20">
         <v>92.4328722538649</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="20">
         <v>92.4328722538649</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="20">
         <v>97.125697125697101</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="20">
         <v>96.054306321595206</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="20">
         <v>93.421052631578902</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="20">
         <v>93.503937007874001</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="20">
         <v>90.909090909090907</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="20">
         <v>95.022624434389101</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="20">
         <v>90.909090909090907</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="20">
         <v>90.909090909090907</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="20">
         <v>90.6515580736544</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="20">
         <v>92.716535433070803</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="20">
         <v>94.410876132930497</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="20">
         <v>94.410876132930497</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="20">
         <v>94.410876132930497</v>
       </c>
-      <c r="AL18">
+      <c r="AL18" s="20">
         <v>89.548022598870006</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" s="20">
         <v>89.548022598870006</v>
       </c>
-      <c r="AN18">
+      <c r="AN18" s="20">
         <v>94.410876132930497</v>
       </c>
-      <c r="AO18">
+      <c r="AO18" s="20">
         <v>89.548022598870006</v>
       </c>
-      <c r="AP18">
+      <c r="AP18" s="20">
         <v>89.548022598870006</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ18" s="20">
         <v>89.548022598870006</v>
       </c>
-      <c r="AR18">
+      <c r="AR18" s="20">
         <v>94.410876132930497</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" s="20">
         <v>94.410876132930497</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" s="20">
         <v>89.548022598870006</v>
       </c>
     </row>
@@ -3383,121 +3464,121 @@
       <c r="G19">
         <v>47</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="20">
         <v>93.286516853932497</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="20">
         <v>94.215227562739202</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="20">
         <v>95.556514236410607</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="20">
         <v>95.556514236410607</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="20">
         <v>89.049919484702002</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="20">
         <v>91.480562448304298</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="20">
         <v>94.881130863139802</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="20">
         <v>91.480562448304298</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="20">
         <v>89.049919484702002</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="20">
         <v>89.049919484702002</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="20">
         <v>95.556514236410607</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="20">
         <v>94.215227562739202</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="20">
         <v>90.248878008975893</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="20">
         <v>91.732283464566905</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="20">
         <v>93.154761904761898</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="20">
         <v>94.277108433734895</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="20">
         <v>94.277108433734895</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="20">
         <v>86.931818181818102</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="20">
         <v>88.953488372093005</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="20">
         <v>93.712574850299404</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="20">
         <v>88.953488372093005</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="20">
         <v>86.931818181818102</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="20">
         <v>86.931818181818102</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="20">
         <v>94.277108433734895</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="20">
         <v>93.154761904761898</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="20">
         <v>87.931034482758605</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="20">
         <v>92.322834645669204</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="20">
         <v>92.941176470588204</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AL19">
+      <c r="AL19" s="20">
         <v>86.440677966101603</v>
       </c>
-      <c r="AM19">
+      <c r="AM19" s="20">
         <v>91.071428571428498</v>
       </c>
-      <c r="AN19">
+      <c r="AN19" s="20">
         <v>94.187779433681001</v>
       </c>
-      <c r="AO19">
+      <c r="AO19" s="20">
         <v>91.071428571428498</v>
       </c>
-      <c r="AP19">
+      <c r="AP19" s="20">
         <v>86.440677966101603</v>
       </c>
-      <c r="AQ19">
+      <c r="AQ19" s="20">
         <v>86.440677966101603</v>
       </c>
-      <c r="AR19">
+      <c r="AR19" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AS19">
+      <c r="AS19" s="20">
         <v>92.941176470588204</v>
       </c>
-      <c r="AT19">
+      <c r="AT19" s="20">
         <v>88.695652173913004</v>
       </c>
     </row>
@@ -3523,121 +3604,121 @@
       <c r="G20">
         <v>50</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="20">
         <v>93.876404494382001</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="20">
         <v>94.748078565328697</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="20">
         <v>95.894554883318904</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="20">
         <v>95.894554883318904</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="20">
         <v>90.128410914927699</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="20">
         <v>92.200328407224902</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="20">
         <v>95.317869415807493</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="20">
         <v>92.200328407224902</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="20">
         <v>90.128410914927699</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="20">
         <v>90.128410914927699</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="20">
         <v>95.894554883318904</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="20">
         <v>94.748078565328697</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="20">
         <v>91.152597402597394</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="20">
         <v>93.8976377952755</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="20">
         <v>94.925373134328296</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="20">
         <v>95.783132530120398</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="20">
         <v>95.783132530120398</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="20">
         <v>90.340909090909093</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="20">
         <v>91.907514450866998</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="20">
         <v>95.352323838080906</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="20">
         <v>91.907514450866998</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="20">
         <v>90.340909090909093</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="20">
         <v>90.340909090909093</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="20">
         <v>95.783132530120398</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="20">
         <v>94.925373134328296</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="20">
         <v>91.117478510028604</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="20">
         <v>92.519685039370003</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="20">
         <v>94.528875379939194</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="20">
         <v>93.957703927492403</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="20">
         <v>93.957703927492403</v>
       </c>
-      <c r="AL20">
+      <c r="AL20" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AM20">
+      <c r="AM20" s="20">
         <v>88.826815642458101</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" s="20">
         <v>94.242424242424207</v>
       </c>
-      <c r="AO20">
+      <c r="AO20" s="20">
         <v>88.826815642458101</v>
       </c>
-      <c r="AP20">
+      <c r="AP20" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AQ20">
+      <c r="AQ20" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" s="20">
         <v>93.957703927492403</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" s="20">
         <v>94.528875379939194</v>
       </c>
-      <c r="AT20">
+      <c r="AT20" s="20">
         <v>89.325842696629195</v>
       </c>
     </row>
@@ -3645,11 +3726,89 @@
       <c r="C21" s="9"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="20"/>
+      <c r="AM21" s="20"/>
+      <c r="AN21" s="20"/>
+      <c r="AO21" s="20"/>
+      <c r="AP21" s="20"/>
+      <c r="AQ21" s="20"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+      <c r="AT21" s="20"/>
     </row>
     <row r="22" spans="1:46" ht="33" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>72</v>
       </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="20"/>
+      <c r="AM22" s="20"/>
+      <c r="AN22" s="20"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+      <c r="AT22" s="20"/>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
@@ -3673,128 +3832,208 @@
       <c r="G23">
         <v>49</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="21">
         <v>99.410609037328001</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="20">
         <v>99.441100601891605</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="20">
         <v>99.655320982335198</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="20">
         <v>99.655320982335198</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="20">
         <v>99.3532740501212</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="20">
         <v>99.548095545513206</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="20">
         <v>99.3532740501212</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="20">
         <v>99.655320982335198</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="20">
         <v>99.441100601891605</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="20">
         <v>99.152884227511095</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23" s="21">
         <v>93.516699410608993</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="20">
         <v>90.449438202247194</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="20">
         <v>95.022624434389101</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="20">
         <v>90.449438202247194</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="20">
         <v>90.704225352112601</v>
       </c>
-      <c r="AH23" s="14">
+      <c r="AH23" s="21">
         <v>93.9960629921259</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" s="20">
         <v>95.0524737631184</v>
       </c>
-      <c r="AJ23">
+      <c r="AJ23" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AK23">
+      <c r="AK23" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AL23">
+      <c r="AL23" s="20">
         <v>90.677966101694906</v>
       </c>
-      <c r="AM23">
+      <c r="AM23" s="20">
         <v>91.977077363896797</v>
       </c>
-      <c r="AN23">
+      <c r="AN23" s="20">
         <v>95.410082768999203</v>
       </c>
-      <c r="AO23">
+      <c r="AO23" s="20">
         <v>91.977077363896797</v>
       </c>
-      <c r="AP23">
+      <c r="AP23" s="20">
         <v>90.677966101694906</v>
       </c>
-      <c r="AQ23">
+      <c r="AQ23" s="20">
         <v>90.677966101694906</v>
       </c>
-      <c r="AR23">
+      <c r="AR23" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AS23">
+      <c r="AS23" s="20">
         <v>95.0524737631184</v>
       </c>
-      <c r="AT23">
+      <c r="AT23" s="20">
         <v>91.322901849217601</v>
       </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
     </row>
     <row r="25" spans="1:46" ht="33" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>40</v>
       </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -3818,121 +4057,121 @@
       <c r="G26">
         <v>49</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="20">
         <v>96.996912714005006</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="20">
         <v>97.592433361994793</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="20">
         <v>97.802671262386895</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="20">
         <v>97.802671262386895</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="20">
         <v>95.491143317230197</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="20">
         <v>95.877122069522997</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="20">
         <v>97.697439208091197</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="20">
         <v>95.877122069522997</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="20">
         <v>95.491143317230197</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="20">
         <v>95.491143317230197</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="20">
         <v>97.802671262386895</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="20">
         <v>97.592433361994793</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="20">
         <v>95.683743444937406</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="20">
         <v>92.927308447937094</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="20">
         <v>93.786982248520701</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="20">
         <v>95.481927710843294</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="20">
         <v>95.481927710843294</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="20">
         <v>88.135593220338905</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="20">
         <v>91.228070175438603</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" s="20">
         <v>94.626865671641795</v>
       </c>
-      <c r="AB26">
+      <c r="AB26" s="20">
         <v>91.228070175438603</v>
       </c>
-      <c r="AC26">
+      <c r="AC26" s="20">
         <v>88.135593220338905</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="20">
         <v>88.135593220338905</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="20">
         <v>95.481927710843294</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="20">
         <v>93.786982248520701</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="20">
         <v>89.655172413793096</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="20">
         <v>90.649606299212607</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="20">
         <v>91.875923190546501</v>
       </c>
-      <c r="AJ26">
+      <c r="AJ26" s="20">
         <v>93.957703927492403</v>
       </c>
-      <c r="AK26">
+      <c r="AK26" s="20">
         <v>93.957703927492403</v>
       </c>
-      <c r="AL26">
+      <c r="AL26" s="20">
         <v>84.463276836158101</v>
       </c>
-      <c r="AM26">
+      <c r="AM26" s="20">
         <v>88.200589970501397</v>
       </c>
-      <c r="AN26">
+      <c r="AN26" s="20">
         <v>92.905153099327805</v>
       </c>
-      <c r="AO26">
+      <c r="AO26" s="20">
         <v>88.200589970501397</v>
       </c>
-      <c r="AP26">
+      <c r="AP26" s="20">
         <v>84.463276836158101</v>
       </c>
-      <c r="AQ26">
+      <c r="AQ26" s="20">
         <v>84.463276836158101</v>
       </c>
-      <c r="AR26">
+      <c r="AR26" s="20">
         <v>93.957703927492403</v>
       </c>
-      <c r="AS26">
+      <c r="AS26" s="20">
         <v>91.875923190546501</v>
       </c>
-      <c r="AT26">
+      <c r="AT26" s="20">
         <v>86.291486291486194</v>
       </c>
     </row>
@@ -3958,121 +4197,121 @@
       <c r="G27">
         <v>39</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="20">
         <v>97.502104967723795</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="20">
         <v>98.020654044750401</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="20">
         <v>98.147350280051697</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="20">
         <v>98.147350280051697</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="20">
         <v>96.296296296296205</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="20">
         <v>96.529459241323593</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="20">
         <v>98.083961248654404</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="20">
         <v>96.529459241323593</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="20">
         <v>96.296296296296205</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="20">
         <v>96.296296296296205</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="20">
         <v>98.147350280051697</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="20">
         <v>98.020654044750401</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="20">
         <v>96.412736799677504</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="20">
         <v>92.534381139489199</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="20">
         <v>95.092024539877301</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="20">
         <v>93.3734939759036</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="20">
         <v>93.3734939759036</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="20">
         <v>87.978142076502706</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" s="20">
         <v>94.224924012157999</v>
       </c>
-      <c r="AB27">
+      <c r="AB27" s="20">
         <v>87.978142076502706</v>
       </c>
-      <c r="AC27">
+      <c r="AC27" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="20">
         <v>93.3734939759036</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="20">
         <v>95.092024539877301</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="20">
         <v>89.4444444444444</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="20">
         <v>92.125984251968504</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="20">
         <v>93.175074183976193</v>
       </c>
-      <c r="AJ27">
+      <c r="AJ27" s="20">
         <v>94.864048338368505</v>
       </c>
-      <c r="AK27">
+      <c r="AK27" s="20">
         <v>94.864048338368505</v>
       </c>
-      <c r="AL27">
+      <c r="AL27" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AM27">
+      <c r="AM27" s="20">
         <v>90.058479532163702</v>
       </c>
-      <c r="AN27">
+      <c r="AN27" s="20">
         <v>94.011976047904199</v>
       </c>
-      <c r="AO27">
+      <c r="AO27" s="20">
         <v>90.058479532163702</v>
       </c>
-      <c r="AP27">
+      <c r="AP27" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AQ27">
+      <c r="AQ27" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AR27">
+      <c r="AR27" s="20">
         <v>94.864048338368505</v>
       </c>
-      <c r="AS27">
+      <c r="AS27" s="20">
         <v>93.175074183976193</v>
       </c>
-      <c r="AT27">
+      <c r="AT27" s="20">
         <v>88.505747126436702</v>
       </c>
     </row>
@@ -4098,121 +4337,121 @@
       <c r="G28">
         <v>50</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="20">
         <v>99.438675273645799</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="20">
         <v>99.441340782122893</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="20">
         <v>99.6984058595433</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="20">
         <v>99.6984058595433</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="20">
         <v>99.433656957928804</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="20">
         <v>99.569707401032701</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="20">
         <v>99.433656957928804</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="20">
         <v>99.6984058595433</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="20">
         <v>99.441340782122893</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="20">
         <v>99.192897497982202</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="20">
         <v>93.713163064832997</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="AB28">
+      <c r="AB28" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AC28">
+      <c r="AC28" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AD28">
+      <c r="AD28" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AE28">
+      <c r="AE28" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="AG28">
+      <c r="AG28" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AH28">
+      <c r="AH28" s="20">
         <v>93.405511811023601</v>
       </c>
-      <c r="AI28">
+      <c r="AI28" s="20">
         <v>94.336810730253305</v>
       </c>
-      <c r="AJ28">
+      <c r="AJ28" s="20">
         <v>95.619335347431999</v>
       </c>
-      <c r="AK28">
+      <c r="AK28" s="20">
         <v>95.619335347431999</v>
       </c>
-      <c r="AL28">
+      <c r="AL28" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="AM28">
+      <c r="AM28" s="20">
         <v>91.594202898550705</v>
       </c>
-      <c r="AN28">
+      <c r="AN28" s="20">
         <v>94.973743435858907</v>
       </c>
-      <c r="AO28">
+      <c r="AO28" s="20">
         <v>91.594202898550705</v>
       </c>
-      <c r="AP28">
+      <c r="AP28" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="AQ28">
+      <c r="AQ28" s="20">
         <v>89.265536723163805</v>
       </c>
-      <c r="AR28">
+      <c r="AR28" s="20">
         <v>95.619335347431999</v>
       </c>
-      <c r="AS28">
+      <c r="AS28" s="20">
         <v>94.336810730253305</v>
       </c>
-      <c r="AT28">
+      <c r="AT28" s="20">
         <v>90.414878397711007</v>
       </c>
     </row>
@@ -4238,121 +4477,121 @@
       <c r="G29">
         <v>49</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="20">
         <v>99.410609037328001</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="20">
         <v>99.441100601891605</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="20">
         <v>99.655320982335198</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="20">
         <v>99.655320982335198</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="20">
         <v>99.3532740501212</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="20">
         <v>99.548095545513206</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="20">
         <v>99.3532740501212</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="20">
         <v>99.655320982335198</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="20">
         <v>99.441100601891605</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="20">
         <v>99.152884227511095</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="20">
         <v>93.516699410608993</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="W29">
+      <c r="W29" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="X29">
+      <c r="X29" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="20">
         <v>90.449438202247194</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" s="20">
         <v>95.022624434389101</v>
       </c>
-      <c r="AB29">
+      <c r="AB29" s="20">
         <v>90.449438202247194</v>
       </c>
-      <c r="AC29">
+      <c r="AC29" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AD29">
+      <c r="AD29" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="20">
         <v>90.704225352112601</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="20">
         <v>93.9960629921259</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="20">
         <v>95.0524737631184</v>
       </c>
-      <c r="AJ29">
+      <c r="AJ29" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AK29">
+      <c r="AK29" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AL29">
+      <c r="AL29" s="20">
         <v>90.677966101694906</v>
       </c>
-      <c r="AM29">
+      <c r="AM29" s="20">
         <v>91.977077363896797</v>
       </c>
-      <c r="AN29">
+      <c r="AN29" s="20">
         <v>95.410082768999203</v>
       </c>
-      <c r="AO29">
+      <c r="AO29" s="20">
         <v>91.977077363896797</v>
       </c>
-      <c r="AP29">
+      <c r="AP29" s="20">
         <v>90.677966101694906</v>
       </c>
-      <c r="AQ29">
+      <c r="AQ29" s="20">
         <v>90.677966101694906</v>
       </c>
-      <c r="AR29">
+      <c r="AR29" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AS29">
+      <c r="AS29" s="20">
         <v>95.0524737631184</v>
       </c>
-      <c r="AT29">
+      <c r="AT29" s="20">
         <v>91.322901849217601</v>
       </c>
     </row>
@@ -4361,11 +4600,89 @@
       <c r="C30" s="18"/>
       <c r="D30" s="12"/>
       <c r="E30" s="18"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
     </row>
     <row r="31" spans="1:46" ht="33" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>41</v>
       </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="20"/>
+      <c r="AS31" s="20"/>
+      <c r="AT31" s="20"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -4389,121 +4706,121 @@
       <c r="G32">
         <v>50</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="20">
         <v>98.484423238843604</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="20">
         <v>98.710786420283597</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="20">
         <v>98.965962947005593</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="20">
         <v>98.965962947005593</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="20">
         <v>97.584541062801904</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="20">
         <v>98.058252427184399</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="20">
         <v>98.8382099827883</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="20">
         <v>98.058252427184399</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="20">
         <v>97.584541062801904</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="20">
         <v>97.584541062801904</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="20">
         <v>98.965962947005593</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="20">
         <v>98.710786420283597</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="20">
         <v>97.820823244552003</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="20">
         <v>92.141453831041204</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="AB32">
+      <c r="AB32" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AC32">
+      <c r="AC32" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="AF32">
+      <c r="AF32" s="20">
         <v>93.975903614457806</v>
       </c>
-      <c r="AG32">
+      <c r="AG32" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AH32">
+      <c r="AH32" s="20">
         <v>93.6023622047244</v>
       </c>
-      <c r="AI32">
+      <c r="AI32" s="20">
         <v>93.961708394697993</v>
       </c>
-      <c r="AJ32">
+      <c r="AJ32" s="20">
         <v>96.374622356495394</v>
       </c>
-      <c r="AK32">
+      <c r="AK32" s="20">
         <v>96.374622356495394</v>
       </c>
-      <c r="AL32">
+      <c r="AL32" s="20">
         <v>88.418079096045204</v>
       </c>
-      <c r="AM32">
+      <c r="AM32" s="20">
         <v>92.878338278931693</v>
       </c>
-      <c r="AN32">
+      <c r="AN32" s="20">
         <v>95.152870991797101</v>
       </c>
-      <c r="AO32">
+      <c r="AO32" s="20">
         <v>92.878338278931693</v>
       </c>
-      <c r="AP32">
+      <c r="AP32" s="20">
         <v>88.418079096045204</v>
       </c>
-      <c r="AQ32">
+      <c r="AQ32" s="20">
         <v>88.418079096045204</v>
       </c>
-      <c r="AR32">
+      <c r="AR32" s="20">
         <v>96.374622356495394</v>
       </c>
-      <c r="AS32">
+      <c r="AS32" s="20">
         <v>93.961708394697993</v>
       </c>
-      <c r="AT32">
+      <c r="AT32" s="20">
         <v>90.593342981186595</v>
       </c>
     </row>
@@ -4529,121 +4846,121 @@
       <c r="G33">
         <v>49</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="20">
         <v>99.410609037328001</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="20">
         <v>99.441100601891605</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="20">
         <v>99.655320982335198</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="20">
         <v>99.655320982335198</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="20">
         <v>99.3532740501212</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="20">
         <v>99.548095545513206</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="20">
         <v>99.3532740501212</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="20">
         <v>99.655320982335198</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="20">
         <v>99.441100601891605</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="20">
         <v>99.152884227511095</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="20">
         <v>93.516699410608993</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="20">
         <v>90.449438202247194</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" s="20">
         <v>95.022624434389101</v>
       </c>
-      <c r="AB33">
+      <c r="AB33" s="20">
         <v>90.449438202247194</v>
       </c>
-      <c r="AC33">
+      <c r="AC33" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="20">
         <v>90.960451977401107</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="20">
         <v>94.879518072289102</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="20">
         <v>90.704225352112601</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" s="20">
         <v>93.9960629921259</v>
       </c>
-      <c r="AI33">
+      <c r="AI33" s="20">
         <v>95.0524737631184</v>
       </c>
-      <c r="AJ33">
+      <c r="AJ33" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AK33">
+      <c r="AK33" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AL33">
+      <c r="AL33" s="20">
         <v>90.677966101694906</v>
       </c>
-      <c r="AM33">
+      <c r="AM33" s="20">
         <v>91.977077363896797</v>
       </c>
-      <c r="AN33">
+      <c r="AN33" s="20">
         <v>95.410082768999203</v>
       </c>
-      <c r="AO33">
+      <c r="AO33" s="20">
         <v>91.977077363896797</v>
       </c>
-      <c r="AP33">
+      <c r="AP33" s="20">
         <v>90.677966101694906</v>
       </c>
-      <c r="AQ33">
+      <c r="AQ33" s="20">
         <v>90.677966101694906</v>
       </c>
-      <c r="AR33">
+      <c r="AR33" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AS33">
+      <c r="AS33" s="20">
         <v>95.0524737631184</v>
       </c>
-      <c r="AT33">
+      <c r="AT33" s="20">
         <v>91.322901849217601</v>
       </c>
     </row>
@@ -4669,121 +4986,121 @@
       <c r="G34">
         <v>38</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="20">
         <v>99.382542801010302</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="20">
         <v>99.611566681053006</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="20">
         <v>99.439896596294702</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="20">
         <v>99.439896596294702</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="20">
         <v>99.275362318840493</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="20">
         <v>98.956661316211793</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="20">
         <v>99.525657611039193</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="20">
         <v>98.956661316211793</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="20">
         <v>99.275362318840493</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="20">
         <v>99.275362318840493</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="20">
         <v>99.439896596294702</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="20">
         <v>99.611566681053006</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="20">
         <v>99.115755627009605</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="20">
         <v>93.713163064832997</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="20">
         <v>94.910179640718496</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="20">
         <v>95.481927710843294</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="20">
         <v>95.481927710843294</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="20">
         <v>91.428571428571402</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="20">
         <v>95.195195195195197</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" s="20">
         <v>91.428571428571402</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="20">
         <v>95.481927710843294</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="20">
         <v>94.910179640718496</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="20">
         <v>90.909090909090907</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="20">
         <v>93.110236220472402</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" s="20">
         <v>94.179104477611901</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ34" s="20">
         <v>95.317220543806599</v>
       </c>
-      <c r="AK34">
+      <c r="AK34" s="20">
         <v>95.317220543806599</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" s="20">
         <v>88.983050847457605</v>
       </c>
-      <c r="AM34">
+      <c r="AM34" s="20">
         <v>91.040462427745595</v>
       </c>
-      <c r="AN34">
+      <c r="AN34" s="20">
         <v>94.744744744744693</v>
       </c>
-      <c r="AO34">
+      <c r="AO34" s="20">
         <v>91.040462427745595</v>
       </c>
-      <c r="AP34">
+      <c r="AP34" s="20">
         <v>88.983050847457605</v>
       </c>
-      <c r="AQ34">
+      <c r="AQ34" s="20">
         <v>88.983050847457605</v>
       </c>
-      <c r="AR34">
+      <c r="AR34" s="20">
         <v>95.317220543806599</v>
       </c>
-      <c r="AS34">
+      <c r="AS34" s="20">
         <v>94.179104477611901</v>
       </c>
-      <c r="AT34">
+      <c r="AT34" s="20">
         <v>90</v>
       </c>
     </row>
@@ -4809,121 +5126,121 @@
       <c r="G35">
         <v>45</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="20">
         <v>99.915801291046805</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="20">
         <v>99.9568965517241</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="20">
         <v>99.913830245583796</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="20">
         <v>99.913830245583796</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="20">
         <v>99.919484702093399</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="20">
         <v>99.839098954143196</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="20">
         <v>99.9353587588881</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="20">
         <v>99.839098954143196</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="20">
         <v>99.919484702093399</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="20">
         <v>99.919484702093399</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="20">
         <v>99.913830245583796</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="20">
         <v>99.9568965517241</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="20">
         <v>99.8792756539235</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="20">
         <v>92.927308447937094</v>
       </c>
-      <c r="V35">
+      <c r="V35" s="20">
         <v>93.274853801169499</v>
       </c>
-      <c r="W35">
+      <c r="W35" s="20">
         <v>96.084337349397501</v>
       </c>
-      <c r="X35">
+      <c r="X35" s="20">
         <v>96.084337349397501</v>
       </c>
-      <c r="Y35">
+      <c r="Y35" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="20">
         <v>92.215568862275404</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" s="20">
         <v>94.658753709198805</v>
       </c>
-      <c r="AB35">
+      <c r="AB35" s="20">
         <v>92.215568862275404</v>
       </c>
-      <c r="AC35">
+      <c r="AC35" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="20">
         <v>87.005649717514103</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="20">
         <v>96.084337349397501</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" s="20">
         <v>93.274853801169499</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="20">
         <v>89.534883720930196</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" s="20">
         <v>92.618110236220403</v>
       </c>
-      <c r="AI35">
+      <c r="AI35" s="20">
         <v>92.474674384949296</v>
       </c>
-      <c r="AJ35">
+      <c r="AJ35" s="20">
         <v>96.525679758308101</v>
       </c>
-      <c r="AK35">
+      <c r="AK35" s="20">
         <v>96.525679758308101</v>
       </c>
-      <c r="AL35">
+      <c r="AL35" s="20">
         <v>85.310734463276802</v>
       </c>
-      <c r="AM35">
+      <c r="AM35" s="20">
         <v>92.923076923076906</v>
       </c>
-      <c r="AN35">
+      <c r="AN35" s="20">
         <v>94.456762749445602</v>
       </c>
-      <c r="AO35">
+      <c r="AO35" s="20">
         <v>92.923076923076906</v>
       </c>
-      <c r="AP35">
+      <c r="AP35" s="20">
         <v>85.310734463276802</v>
       </c>
-      <c r="AQ35">
+      <c r="AQ35" s="20">
         <v>85.310734463276802</v>
       </c>
-      <c r="AR35">
+      <c r="AR35" s="20">
         <v>96.525679758308101</v>
       </c>
-      <c r="AS35">
+      <c r="AS35" s="20">
         <v>92.474674384949296</v>
       </c>
-      <c r="AT35">
+      <c r="AT35" s="20">
         <v>88.9543446244477</v>
       </c>
     </row>
@@ -4931,11 +5248,89 @@
       <c r="C36" s="18"/>
       <c r="D36" s="12"/>
       <c r="E36" s="18"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="22"/>
+      <c r="AK36" s="22"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
+      <c r="AQ36" s="22"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
     </row>
     <row r="37" spans="1:46" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>42</v>
       </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="20"/>
+      <c r="AS37" s="20"/>
+      <c r="AT37" s="20"/>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -4959,121 +5354,121 @@
       <c r="G38">
         <v>45</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="20">
         <v>94.190289082234003</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="20">
         <v>95.017035775127695</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="20">
         <v>96.122361051271</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="20">
         <v>96.122361051271</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="20">
         <v>90.579710144927503</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="20">
         <v>92.592592592592595</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="20">
         <v>95.566502463054107</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="20">
         <v>92.592592592592595</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="20">
         <v>90.579710144927503</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="20">
         <v>90.579710144927503</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="20">
         <v>96.122361051271</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="20">
         <v>95.017035775127695</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="20">
         <v>91.575091575091506</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="20">
         <v>91.748526522593295</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="20">
         <v>92.397660818713405</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="20">
         <v>85.310734463276802</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="20">
         <v>90.419161676646695</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" s="20">
         <v>93.768545994065207</v>
       </c>
-      <c r="AB38">
+      <c r="AB38" s="20">
         <v>90.419161676646695</v>
       </c>
-      <c r="AC38">
+      <c r="AC38" s="20">
         <v>85.310734463276802</v>
       </c>
-      <c r="AD38">
+      <c r="AD38" s="20">
         <v>85.310734463276802</v>
       </c>
-      <c r="AE38">
+      <c r="AE38" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="AF38">
+      <c r="AF38" s="20">
         <v>92.397660818713405</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" s="20">
         <v>87.790697674418595</v>
       </c>
-      <c r="AH38">
+      <c r="AH38" s="20">
         <v>90.354330708661394</v>
       </c>
-      <c r="AI38">
+      <c r="AI38" s="20">
         <v>90.869565217391298</v>
       </c>
-      <c r="AJ38">
+      <c r="AJ38" s="20">
         <v>94.712990936555897</v>
       </c>
-      <c r="AK38">
+      <c r="AK38" s="20">
         <v>94.712990936555897</v>
       </c>
-      <c r="AL38">
+      <c r="AL38" s="20">
         <v>82.203389830508399</v>
       </c>
-      <c r="AM38">
+      <c r="AM38" s="20">
         <v>89.263803680981596</v>
       </c>
-      <c r="AN38">
+      <c r="AN38" s="20">
         <v>92.751479289940804</v>
       </c>
-      <c r="AO38">
+      <c r="AO38" s="20">
         <v>89.263803680981596</v>
       </c>
-      <c r="AP38">
+      <c r="AP38" s="20">
         <v>82.203389830508399</v>
       </c>
-      <c r="AQ38">
+      <c r="AQ38" s="20">
         <v>82.203389830508399</v>
       </c>
-      <c r="AR38">
+      <c r="AR38" s="20">
         <v>94.712990936555897</v>
       </c>
-      <c r="AS38">
+      <c r="AS38" s="20">
         <v>90.869565217391298</v>
       </c>
-      <c r="AT38">
+      <c r="AT38" s="20">
         <v>85.588235294117595</v>
       </c>
     </row>
@@ -5099,121 +5494,121 @@
       <c r="G39">
         <v>39</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="20">
         <v>98.428290766208207</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="20">
         <v>98.626019750965995</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="20">
         <v>98.965962947005593</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="20">
         <v>98.965962947005593</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="20">
         <v>97.423510466988702</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="20">
         <v>98.055105348460202</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="20">
         <v>98.795698924731099</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="20">
         <v>98.055105348460202</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="20">
         <v>97.423510466988702</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="20">
         <v>97.423510466988702</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="20">
         <v>98.965962947005593</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="20">
         <v>98.626019750965995</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="20">
         <v>97.738287560581497</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="20">
         <v>92.927308447937094</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="20">
         <v>94.848484848484802</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="20">
         <v>94.277108433734895</v>
       </c>
-      <c r="X39">
+      <c r="X39" s="20">
         <v>94.277108433734895</v>
       </c>
-      <c r="Y39">
+      <c r="Y39" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="20">
         <v>89.385474860335194</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" s="20">
         <v>94.561933534743204</v>
       </c>
-      <c r="AB39">
+      <c r="AB39" s="20">
         <v>89.385474860335194</v>
       </c>
-      <c r="AC39">
+      <c r="AC39" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="AD39">
+      <c r="AD39" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="AE39">
+      <c r="AE39" s="20">
         <v>94.277108433734895</v>
       </c>
-      <c r="AF39">
+      <c r="AF39" s="20">
         <v>94.848484848484802</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" s="20">
         <v>89.887640449438194</v>
       </c>
-      <c r="AH39">
+      <c r="AH39" s="20">
         <v>93.011811023622002</v>
       </c>
-      <c r="AI39">
+      <c r="AI39" s="20">
         <v>94.1704035874439</v>
       </c>
-      <c r="AJ39">
+      <c r="AJ39" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="AK39">
+      <c r="AK39" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="AL39">
+      <c r="AL39" s="20">
         <v>88.983050847457605</v>
       </c>
-      <c r="AM39">
+      <c r="AM39" s="20">
         <v>90.7780979827089</v>
       </c>
-      <c r="AN39">
+      <c r="AN39" s="20">
         <v>94.665664913598704</v>
       </c>
-      <c r="AO39">
+      <c r="AO39" s="20">
         <v>90.7780979827089</v>
       </c>
-      <c r="AP39">
+      <c r="AP39" s="20">
         <v>88.983050847457605</v>
       </c>
-      <c r="AQ39">
+      <c r="AQ39" s="20">
         <v>88.983050847457605</v>
       </c>
-      <c r="AR39">
+      <c r="AR39" s="20">
         <v>95.166163141993906</v>
       </c>
-      <c r="AS39">
+      <c r="AS39" s="20">
         <v>94.1704035874439</v>
       </c>
-      <c r="AT39">
+      <c r="AT39" s="20">
         <v>89.871611982881603</v>
       </c>
     </row>
@@ -5221,11 +5616,89 @@
       <c r="C40" s="18"/>
       <c r="D40" s="12"/>
       <c r="E40" s="18"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+      <c r="AD40" s="22"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="22"/>
+      <c r="AK40" s="22"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
+      <c r="AQ40" s="22"/>
+      <c r="AR40" s="22"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="22"/>
     </row>
     <row r="41" spans="1:46" ht="33" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>64</v>
       </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="20"/>
+      <c r="AR41" s="20"/>
+      <c r="AS41" s="20"/>
+      <c r="AT41" s="20"/>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -5249,121 +5722,121 @@
       <c r="G42">
         <v>26</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="20">
         <v>95.902329497614303</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="20">
         <v>96.454506621102098</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="20">
         <v>97.285652735889698</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="20">
         <v>97.285652735889698</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="20">
         <v>93.317230273752003</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="20">
         <v>94.844517184942703</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="20">
         <v>96.868296868296795</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="20">
         <v>94.844517184942703</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="20">
         <v>93.317230273752003</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="20">
         <v>93.317230273752003</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="20">
         <v>97.285652735889698</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="20">
         <v>96.454506621102098</v>
       </c>
-      <c r="T42">
+      <c r="T42" s="20">
         <v>94.074675324675297</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="20">
         <v>92.534381139489199</v>
       </c>
-      <c r="V42">
+      <c r="V42" s="20">
         <v>97.115384615384599</v>
       </c>
-      <c r="W42">
+      <c r="W42" s="20">
         <v>91.265060240963805</v>
       </c>
-      <c r="X42">
+      <c r="X42" s="20">
         <v>91.265060240963805</v>
       </c>
-      <c r="Y42">
+      <c r="Y42" s="20">
         <v>94.915254237288096</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="20">
         <v>85.279187817258801</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" s="20">
         <v>94.099378881987505</v>
       </c>
-      <c r="AB42">
+      <c r="AB42" s="20">
         <v>85.279187817258801</v>
       </c>
-      <c r="AC42">
+      <c r="AC42" s="20">
         <v>94.915254237288096</v>
       </c>
-      <c r="AD42">
+      <c r="AD42" s="20">
         <v>94.915254237288096</v>
       </c>
-      <c r="AE42">
+      <c r="AE42" s="20">
         <v>91.265060240963805</v>
       </c>
-      <c r="AF42">
+      <c r="AF42" s="20">
         <v>97.115384615384599</v>
       </c>
-      <c r="AG42">
+      <c r="AG42" s="20">
         <v>89.839572192513302</v>
       </c>
-      <c r="AH42">
+      <c r="AH42" s="20">
         <v>91.732283464566905</v>
       </c>
-      <c r="AI42">
+      <c r="AI42" s="20">
         <v>96.166134185303505</v>
       </c>
-      <c r="AJ42">
+      <c r="AJ42" s="20">
         <v>90.936555891238598</v>
       </c>
-      <c r="AK42">
+      <c r="AK42" s="20">
         <v>90.936555891238598</v>
       </c>
-      <c r="AL42">
+      <c r="AL42" s="20">
         <v>93.220338983050794</v>
       </c>
-      <c r="AM42">
+      <c r="AM42" s="20">
         <v>84.615384615384599</v>
       </c>
-      <c r="AN42">
+      <c r="AN42" s="20">
         <v>93.478260869565204</v>
       </c>
-      <c r="AO42">
+      <c r="AO42" s="20">
         <v>84.615384615384599</v>
       </c>
-      <c r="AP42">
+      <c r="AP42" s="20">
         <v>93.220338983050794</v>
       </c>
-      <c r="AQ42">
+      <c r="AQ42" s="20">
         <v>93.220338983050794</v>
       </c>
-      <c r="AR42">
+      <c r="AR42" s="20">
         <v>90.936555891238598</v>
       </c>
-      <c r="AS42">
+      <c r="AS42" s="20">
         <v>96.166134185303505</v>
       </c>
-      <c r="AT42">
+      <c r="AT42" s="20">
         <v>88.709677419354804</v>
       </c>
     </row>
@@ -5389,121 +5862,121 @@
       <c r="G43">
         <v>33</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="20">
         <v>98.456357002525905</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="20">
         <v>98.584905660377302</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="20">
         <v>99.052132701421797</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="20">
         <v>99.052132701421797</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="20">
         <v>97.342995169082101</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="20">
         <v>98.212835093419898</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="20">
         <v>98.817966903073199</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="20">
         <v>98.212835093419898</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="20">
         <v>97.342995169082101</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="20">
         <v>97.342995169082101</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="20">
         <v>99.052132701421797</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="20">
         <v>98.584905660377302</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="20">
         <v>97.775980590375994</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="20">
         <v>93.320235756385003</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="20">
         <v>97.756410256410206</v>
       </c>
-      <c r="W43">
+      <c r="W43" s="20">
         <v>91.867469879517998</v>
       </c>
-      <c r="X43">
+      <c r="X43" s="20">
         <v>91.867469879517998</v>
       </c>
-      <c r="Y43">
+      <c r="Y43" s="20">
         <v>96.045197740112997</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="20">
         <v>86.294416243654794</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" s="20">
         <v>94.720496894409905</v>
       </c>
-      <c r="AB43">
+      <c r="AB43" s="20">
         <v>86.294416243654794</v>
       </c>
-      <c r="AC43">
+      <c r="AC43" s="20">
         <v>96.045197740112997</v>
       </c>
-      <c r="AD43">
+      <c r="AD43" s="20">
         <v>96.045197740112997</v>
       </c>
-      <c r="AE43">
+      <c r="AE43" s="20">
         <v>91.867469879517998</v>
       </c>
-      <c r="AF43">
+      <c r="AF43" s="20">
         <v>97.756410256410206</v>
       </c>
-      <c r="AG43">
+      <c r="AG43" s="20">
         <v>90.909090909090907</v>
       </c>
-      <c r="AH43">
+      <c r="AH43" s="20">
         <v>92.519685039370003</v>
       </c>
-      <c r="AI43">
+      <c r="AI43" s="20">
         <v>95.216049382715994</v>
       </c>
-      <c r="AJ43">
+      <c r="AJ43" s="20">
         <v>93.202416918428995</v>
       </c>
-      <c r="AK43">
+      <c r="AK43" s="20">
         <v>93.202416918428995</v>
       </c>
-      <c r="AL43">
+      <c r="AL43" s="20">
         <v>91.242937853107307</v>
       </c>
-      <c r="AM43">
+      <c r="AM43" s="20">
         <v>87.771739130434696</v>
       </c>
-      <c r="AN43">
+      <c r="AN43" s="20">
         <v>94.198473282442706</v>
       </c>
-      <c r="AO43">
+      <c r="AO43" s="20">
         <v>87.771739130434696</v>
       </c>
-      <c r="AP43">
+      <c r="AP43" s="20">
         <v>91.242937853107307</v>
       </c>
-      <c r="AQ43">
+      <c r="AQ43" s="20">
         <v>91.242937853107307</v>
       </c>
-      <c r="AR43">
+      <c r="AR43" s="20">
         <v>93.202416918428995</v>
       </c>
-      <c r="AS43">
+      <c r="AS43" s="20">
         <v>95.216049382715994</v>
       </c>
-      <c r="AT43">
+      <c r="AT43" s="20">
         <v>89.473684210526301</v>
       </c>
     </row>
@@ -5529,121 +6002,121 @@
       <c r="G44">
         <v>30</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="20">
         <v>97.782767330900896</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="20">
         <v>98.235800344233994</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="20">
         <v>98.362774666092207</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="20">
         <v>98.362774666092207</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="20">
         <v>96.698872785829295</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="20">
         <v>96.9330104923325</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="20">
         <v>98.299246501614604</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="20">
         <v>96.9330104923325</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="20">
         <v>96.698872785829295</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="20">
         <v>96.698872785829295</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="20">
         <v>98.362774666092207</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="20">
         <v>98.235800344233994</v>
       </c>
-      <c r="T44">
+      <c r="T44" s="20">
         <v>96.815800080612604</v>
       </c>
-      <c r="U44">
+      <c r="U44" s="20">
         <v>92.927308447937094</v>
       </c>
-      <c r="V44">
+      <c r="V44" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="W44">
+      <c r="W44" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="X44">
+      <c r="X44" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="Y44">
+      <c r="Y44" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="Z44">
+      <c r="Z44" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="AB44">
+      <c r="AB44" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AC44">
+      <c r="AC44" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AD44">
+      <c r="AD44" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AE44">
+      <c r="AE44" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="AF44">
+      <c r="AF44" s="20">
         <v>94.578313253011999</v>
       </c>
-      <c r="AG44">
+      <c r="AG44" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AH44">
+      <c r="AH44" s="20">
         <v>93.307086614173201</v>
       </c>
-      <c r="AI44">
+      <c r="AI44" s="20">
         <v>94.065281899109706</v>
       </c>
-      <c r="AJ44">
+      <c r="AJ44" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AK44">
+      <c r="AK44" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AL44">
+      <c r="AL44" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AM44">
+      <c r="AM44" s="20">
         <v>91.812865497076004</v>
       </c>
-      <c r="AN44">
+      <c r="AN44" s="20">
         <v>94.910179640718496</v>
       </c>
-      <c r="AO44">
+      <c r="AO44" s="20">
         <v>91.812865497076004</v>
       </c>
-      <c r="AP44">
+      <c r="AP44" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AQ44">
+      <c r="AQ44" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AR44">
+      <c r="AR44" s="20">
         <v>95.770392749244706</v>
       </c>
-      <c r="AS44">
+      <c r="AS44" s="20">
         <v>94.065281899109706</v>
       </c>
-      <c r="AT44">
+      <c r="AT44" s="20">
         <v>90.229885057471193</v>
       </c>
     </row>
@@ -5669,121 +6142,121 @@
       <c r="G45">
         <v>32</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="20">
         <v>98.147628403031106</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="20">
         <v>98.286937901498902</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="20">
         <v>98.879793192589403</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="20">
         <v>98.879793192589403</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="20">
         <v>96.779388083735896</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="20">
         <v>97.882736156351797</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="20">
         <v>98.582474226804095</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="20">
         <v>97.882736156351797</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="20">
         <v>96.779388083735896</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="20">
         <v>96.779388083735896</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="20">
         <v>98.879793192589403</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="20">
         <v>98.286937901498902</v>
       </c>
-      <c r="T45">
+      <c r="T45" s="20">
         <v>97.327935222671996</v>
       </c>
-      <c r="U45">
+      <c r="U45" s="20">
         <v>93.516699410608993</v>
       </c>
-      <c r="V45">
+      <c r="V45" s="20">
         <v>94.894894894894804</v>
       </c>
-      <c r="W45">
+      <c r="W45" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="X45">
+      <c r="X45" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="Y45">
+      <c r="Y45" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="Z45">
+      <c r="Z45" s="20">
         <v>90.909090909090907</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" s="20">
         <v>95.037593984962399</v>
       </c>
-      <c r="AB45">
+      <c r="AB45" s="20">
         <v>90.909090909090907</v>
       </c>
-      <c r="AC45">
+      <c r="AC45" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="AD45">
+      <c r="AD45" s="20">
         <v>90.395480225988706</v>
       </c>
-      <c r="AE45">
+      <c r="AE45" s="20">
         <v>95.180722891566205</v>
       </c>
-      <c r="AF45">
+      <c r="AF45" s="20">
         <v>94.894894894894804</v>
       </c>
-      <c r="AG45">
+      <c r="AG45" s="20">
         <v>90.6515580736544</v>
       </c>
-      <c r="AH45">
+      <c r="AH45" s="20">
         <v>93.405511811023601</v>
       </c>
-      <c r="AI45">
+      <c r="AI45" s="20">
         <v>94.602698650674597</v>
       </c>
-      <c r="AJ45">
+      <c r="AJ45" s="20">
         <v>95.317220543806599</v>
       </c>
-      <c r="AK45">
+      <c r="AK45" s="20">
         <v>95.317220543806599</v>
       </c>
-      <c r="AL45">
+      <c r="AL45" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AM45">
+      <c r="AM45" s="20">
         <v>91.117478510028604</v>
       </c>
-      <c r="AN45">
+      <c r="AN45" s="20">
         <v>94.958615500376197</v>
       </c>
-      <c r="AO45">
+      <c r="AO45" s="20">
         <v>91.117478510028604</v>
       </c>
-      <c r="AP45">
+      <c r="AP45" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AQ45">
+      <c r="AQ45" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AR45">
+      <c r="AR45" s="20">
         <v>95.317220543806599</v>
       </c>
-      <c r="AS45">
+      <c r="AS45" s="20">
         <v>94.602698650674597</v>
       </c>
-      <c r="AT45">
+      <c r="AT45" s="20">
         <v>90.469416785206207</v>
       </c>
     </row>
@@ -5809,121 +6282,121 @@
       <c r="G46">
         <v>44</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="20">
         <v>99.242211619421795</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="20">
         <v>99.439655172413794</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="20">
         <v>99.3968117190866</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="20">
         <v>99.3968117190866</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="20">
         <v>98.873692679002403</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="20">
         <v>99.418228829993495</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="20">
         <v>98.873692679002403</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="20">
         <v>98.953301127214104</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="20">
         <v>99.3968117190866</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="20">
         <v>99.439655172413794</v>
       </c>
-      <c r="T46">
+      <c r="T46" s="20">
         <v>98.913480885311799</v>
       </c>
-      <c r="U46">
+      <c r="U46" s="20">
         <v>93.909626719056902</v>
       </c>
-      <c r="V46">
+      <c r="V46" s="20">
         <v>94.658753709198805</v>
       </c>
-      <c r="W46">
+      <c r="W46" s="20">
         <v>96.084337349397501</v>
       </c>
-      <c r="X46">
+      <c r="X46" s="20">
         <v>96.084337349397501</v>
       </c>
-      <c r="Y46">
+      <c r="Y46" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="Z46">
+      <c r="Z46" s="20">
         <v>92.441860465116207</v>
       </c>
-      <c r="AA46">
+      <c r="AA46" s="20">
         <v>95.366218236173395</v>
       </c>
-      <c r="AB46">
+      <c r="AB46" s="20">
         <v>92.441860465116207</v>
       </c>
-      <c r="AC46">
+      <c r="AC46" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AD46">
+      <c r="AD46" s="20">
         <v>89.830508474576206</v>
       </c>
-      <c r="AE46">
+      <c r="AE46" s="20">
         <v>96.084337349397501</v>
       </c>
-      <c r="AF46">
+      <c r="AF46" s="20">
         <v>94.658753709198805</v>
       </c>
-      <c r="AG46">
+      <c r="AG46" s="20">
         <v>91.117478510028604</v>
       </c>
-      <c r="AH46">
+      <c r="AH46" s="20">
         <v>93.503937007874001</v>
       </c>
-      <c r="AI46">
+      <c r="AI46" s="20">
         <v>94.082840236686394</v>
       </c>
-      <c r="AJ46">
+      <c r="AJ46" s="20">
         <v>96.072507552869993</v>
       </c>
-      <c r="AK46">
+      <c r="AK46" s="20">
         <v>96.072507552869993</v>
       </c>
-      <c r="AL46">
+      <c r="AL46" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AM46">
+      <c r="AM46" s="20">
         <v>92.352941176470594</v>
       </c>
-      <c r="AN46">
+      <c r="AN46" s="20">
         <v>95.067264573990997</v>
       </c>
-      <c r="AO46">
+      <c r="AO46" s="20">
         <v>92.352941176470594</v>
       </c>
-      <c r="AP46">
+      <c r="AP46" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AQ46">
+      <c r="AQ46" s="20">
         <v>88.700564971751405</v>
       </c>
-      <c r="AR46">
+      <c r="AR46" s="20">
         <v>96.072507552869993</v>
       </c>
-      <c r="AS46">
+      <c r="AS46" s="20">
         <v>94.082840236686394</v>
       </c>
-      <c r="AT46">
+      <c r="AT46" s="20">
         <v>90.489913544668596</v>
       </c>
     </row>
@@ -5949,121 +6422,121 @@
       <c r="G47">
         <v>47</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="20">
         <v>99.017681728880106</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="20">
         <v>99.140154772141003</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="20">
         <v>99.353726841878498</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="20">
         <v>99.353726841878498</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="20">
         <v>98.389694041867898</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="20">
         <v>98.787388843977297</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="20">
         <v>99.246825909188701</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="20">
         <v>98.787388843977297</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="20">
         <v>98.389694041867898</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="20">
         <v>98.389694041867898</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="20">
         <v>99.353726841878498</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="20">
         <v>99.140154772141003</v>
       </c>
-      <c r="T47">
+      <c r="T47" s="20">
         <v>98.588140379185106</v>
       </c>
-      <c r="U47">
+      <c r="U47" s="20">
         <v>94.302554027504897</v>
       </c>
-      <c r="V47">
+      <c r="V47" s="20">
         <v>95.495495495495405</v>
       </c>
-      <c r="W47">
+      <c r="W47" s="20">
         <v>95.783132530120398</v>
       </c>
-      <c r="X47">
+      <c r="X47" s="20">
         <v>95.783132530120398</v>
       </c>
-      <c r="Y47">
+      <c r="Y47" s="20">
         <v>91.525423728813493</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="20">
         <v>92.045454545454504</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" s="20">
         <v>95.639097744360896</v>
       </c>
-      <c r="AB47">
+      <c r="AB47" s="20">
         <v>92.045454545454504</v>
       </c>
-      <c r="AC47">
+      <c r="AC47" s="20">
         <v>91.525423728813493</v>
       </c>
-      <c r="AD47">
+      <c r="AD47" s="20">
         <v>91.525423728813493</v>
       </c>
-      <c r="AE47">
+      <c r="AE47" s="20">
         <v>95.783132530120398</v>
       </c>
-      <c r="AF47">
+      <c r="AF47" s="20">
         <v>95.495495495495405</v>
       </c>
-      <c r="AG47">
+      <c r="AG47" s="20">
         <v>91.784702549575002</v>
       </c>
-      <c r="AH47">
+      <c r="AH47" s="20">
         <v>93.6023622047244</v>
       </c>
-      <c r="AI47">
+      <c r="AI47" s="20">
         <v>94.752623688155893</v>
       </c>
-      <c r="AJ47">
+      <c r="AJ47" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AK47">
+      <c r="AK47" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AL47">
+      <c r="AL47" s="20">
         <v>90.112994350282406</v>
       </c>
-      <c r="AM47">
+      <c r="AM47" s="20">
         <v>91.404011461318007</v>
       </c>
-      <c r="AN47">
+      <c r="AN47" s="20">
         <v>95.109104589917195</v>
       </c>
-      <c r="AO47">
+      <c r="AO47" s="20">
         <v>91.404011461318007</v>
       </c>
-      <c r="AP47">
+      <c r="AP47" s="20">
         <v>90.112994350282406</v>
       </c>
-      <c r="AQ47">
+      <c r="AQ47" s="20">
         <v>90.112994350282406</v>
       </c>
-      <c r="AR47">
+      <c r="AR47" s="20">
         <v>95.468277945619306</v>
       </c>
-      <c r="AS47">
+      <c r="AS47" s="20">
         <v>94.752623688155893</v>
       </c>
-      <c r="AT47">
+      <c r="AT47" s="20">
         <v>90.7539118065433</v>
       </c>
     </row>

--- a/Archive/ROSE results.xlsx
+++ b/Archive/ROSE results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/Ideas/idea4&amp;5 MIL-SI SI-ViT/MIL-SI tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6EE66-E432-E441-89CC-FD667D1D17CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947984AB-EB8C-5F40-8B08-DC7914615CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="190">
   <si>
     <t xml:space="preserve">Train </t>
   </si>
@@ -602,6 +602,15 @@
   </si>
   <si>
     <t>Unet，30% of Dataset is upervised</t>
+  </si>
+  <si>
+    <t>Results of the Unet generated mask on the ROSE dataset</t>
+  </si>
+  <si>
+    <t>Results of the Unet generated mask on the pRCC dataset</t>
+  </si>
+  <si>
+    <t>Supervised Proportion</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1227,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1314,6 +1323,18 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1672,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC64" workbookViewId="0">
-      <selection activeCell="AV86" sqref="AV86"/>
+    <sheetView tabSelected="1" topLeftCell="AE74" workbookViewId="0">
+      <selection activeCell="AN95" sqref="AN95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11774,10 +11795,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE902617-9C4A-024C-BDC7-767D4D3CA9CA}">
-  <dimension ref="A2:AT95"/>
+  <dimension ref="A2:AT100"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="124" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView topLeftCell="A86" zoomScale="177" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12238,888 +12259,1109 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="A28" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="22">
+        <v>92.23</v>
+      </c>
+      <c r="D28" s="22">
+        <v>93.07</v>
+      </c>
+      <c r="E28" s="22">
+        <v>86.24</v>
+      </c>
+      <c r="F28" s="22">
+        <v>89.52</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="A29" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="22">
+        <v>93.64</v>
+      </c>
+      <c r="D29" s="22">
+        <v>95.05</v>
+      </c>
+      <c r="E29" s="22">
+        <v>88.07</v>
+      </c>
+      <c r="F29" s="22">
+        <v>91.43</v>
+      </c>
       <c r="G29" s="26" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="A30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="22">
+        <v>80.92</v>
+      </c>
+      <c r="D30" s="22">
+        <v>76.7</v>
+      </c>
+      <c r="E30" s="22">
+        <v>72.48</v>
+      </c>
+      <c r="F30" s="22">
+        <v>74.53</v>
+      </c>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="22">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="D31" s="22">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="E31" s="22">
+        <v>74.31</v>
+      </c>
+      <c r="F31" s="22">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="22">
+        <v>87.99</v>
+      </c>
+      <c r="D32" s="22">
+        <v>83.19</v>
+      </c>
+      <c r="E32" s="22">
+        <v>86.24</v>
+      </c>
+      <c r="F32" s="22">
+        <v>84.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="22">
+        <v>88.69</v>
+      </c>
+      <c r="D33" s="22">
+        <v>96.39</v>
+      </c>
+      <c r="E33" s="22">
+        <v>73.39</v>
+      </c>
+      <c r="F33" s="22">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="22">
+        <v>88.34</v>
+      </c>
+      <c r="D34" s="22">
+        <v>90.43</v>
+      </c>
+      <c r="E34" s="22">
+        <v>77.98</v>
+      </c>
+      <c r="F34" s="22">
+        <v>83.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="22">
+        <v>94.7</v>
+      </c>
+      <c r="D35" s="22">
+        <v>93.52</v>
+      </c>
+      <c r="E35" s="22">
+        <v>92.66</v>
+      </c>
+      <c r="F35" s="22">
+        <v>93.09</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="22">
+        <v>92.93</v>
+      </c>
+      <c r="D36" s="22">
+        <v>96.84</v>
+      </c>
+      <c r="E36" s="22">
+        <v>84.4</v>
+      </c>
+      <c r="F36" s="22">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="C37" s="22">
+        <v>95.05</v>
+      </c>
+      <c r="D37" s="22">
+        <v>96.12</v>
+      </c>
+      <c r="E37" s="22">
+        <v>90.83</v>
+      </c>
+      <c r="F37" s="22">
+        <v>93.4</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="26" t="s">
-        <v>158</v>
+      <c r="C38" s="22">
+        <v>92.58</v>
+      </c>
+      <c r="D38" s="22">
+        <v>94</v>
+      </c>
+      <c r="E38" s="22">
+        <v>86.24</v>
+      </c>
+      <c r="F38" s="22">
+        <v>89.95</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+        <v>133</v>
+      </c>
+      <c r="C39" s="22">
+        <v>93.29</v>
+      </c>
+      <c r="D39" s="22">
+        <v>95.92</v>
+      </c>
+      <c r="E39" s="22">
+        <v>86.24</v>
+      </c>
+      <c r="F39" s="22">
+        <v>90.82</v>
+      </c>
       <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>132</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C40" s="22">
+        <v>93.99</v>
+      </c>
+      <c r="D40" s="22">
+        <v>90.35</v>
+      </c>
+      <c r="E40" s="22">
+        <v>94.5</v>
+      </c>
+      <c r="F40" s="22">
+        <v>92.38</v>
+      </c>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="C41" s="22">
+        <v>93.29</v>
+      </c>
+      <c r="D41" s="22">
+        <v>92.45</v>
+      </c>
+      <c r="E41" s="22">
+        <v>89.91</v>
+      </c>
+      <c r="F41" s="22">
+        <v>91.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="25">
+        <v>95.76</v>
+      </c>
+      <c r="D42" s="25">
+        <v>98.02</v>
+      </c>
+      <c r="E42" s="25">
+        <v>90.83</v>
+      </c>
+      <c r="F42" s="25">
+        <v>94.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C47" s="22">
-        <v>93.639575971731404</v>
+        <v>91.24</v>
       </c>
       <c r="D47" s="22">
-        <v>96.907216494845301</v>
+        <v>89.55</v>
       </c>
       <c r="E47" s="22">
-        <v>86.238532110091697</v>
+        <v>87.08</v>
       </c>
       <c r="F47" s="22">
-        <v>91.262135922330103</v>
+        <v>87.08</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C48" s="22">
-        <v>92.579505300353304</v>
+        <v>92.13</v>
       </c>
       <c r="D48" s="22">
-        <v>93.137254901960702</v>
+        <v>90.06</v>
       </c>
       <c r="E48" s="22">
-        <v>87.155963302752298</v>
+        <v>87.01</v>
       </c>
       <c r="F48" s="22">
-        <v>90.047393364928894</v>
-      </c>
-      <c r="G48" s="26"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="22">
+        <v>88.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="25">
+        <v>94</v>
+      </c>
+      <c r="D49" s="21">
+        <v>91.98</v>
+      </c>
+      <c r="E49" s="21">
+        <v>90.68</v>
+      </c>
+      <c r="F49" s="21">
+        <v>91.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="22">
+        <v>91.732283464566905</v>
+      </c>
+      <c r="C54" s="22">
+        <v>84.615384615384599</v>
+      </c>
+      <c r="D54" s="22">
+        <v>93.220338983050794</v>
+      </c>
+      <c r="E54" s="22">
+        <v>88.709677419354804</v>
+      </c>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="22">
+        <v>92.519685039370003</v>
+      </c>
+      <c r="C55" s="22">
+        <v>87.771739130434696</v>
+      </c>
+      <c r="D55" s="22">
+        <v>91.242937853107307</v>
+      </c>
+      <c r="E55" s="22">
+        <v>89.473684210526301</v>
+      </c>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="22">
+        <v>93.307086614173201</v>
+      </c>
+      <c r="C56" s="22">
+        <v>91.812865497076004</v>
+      </c>
+      <c r="D56" s="22">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="E56" s="22">
+        <v>90.229885057471193</v>
+      </c>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="22">
+        <v>93.405511811023601</v>
+      </c>
+      <c r="C57" s="22">
+        <v>91.117478510028604</v>
+      </c>
+      <c r="D57" s="22">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="E57" s="22">
+        <v>90.469416785206207</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="22">
+        <v>93.503937007874001</v>
+      </c>
+      <c r="C58" s="22">
+        <v>92.352941176470594</v>
+      </c>
+      <c r="D58" s="22">
+        <v>88.700564971751405</v>
+      </c>
+      <c r="E58" s="22">
+        <v>90.489913544668596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="22">
+        <v>93.6023622047244</v>
+      </c>
+      <c r="C59" s="22">
+        <v>91.404011461318007</v>
+      </c>
+      <c r="D59" s="22">
+        <v>90.112994350282406</v>
+      </c>
+      <c r="E59" s="22">
+        <v>90.7539118065433</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="25">
+        <v>94</v>
+      </c>
+      <c r="C60" s="25">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="D60" s="25">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="E60" s="25">
+        <v>91.32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+    </row>
+    <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="22">
+        <v>91.929133858267704</v>
+      </c>
+      <c r="D65" s="22">
+        <v>90</v>
+      </c>
+      <c r="E65" s="22">
+        <v>86.440677966101603</v>
+      </c>
+      <c r="F65" s="22">
+        <v>88.184438040345796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="22">
+        <v>90.354330708661394</v>
+      </c>
+      <c r="D66" s="22">
+        <v>88.323353293413106</v>
+      </c>
+      <c r="E66" s="22">
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F66" s="22">
+        <v>85.7558139534883</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="22">
+        <v>91.240157480314906</v>
+      </c>
+      <c r="D67" s="22">
+        <v>89.552238805970106</v>
+      </c>
+      <c r="E67" s="22">
+        <v>84.745762711864401</v>
+      </c>
+      <c r="F67" s="22">
+        <v>87.082728592162496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" s="34">
+        <v>90.944881889763707</v>
+      </c>
+      <c r="D68" s="34">
+        <v>92.532467532467507</v>
+      </c>
+      <c r="E68" s="34">
+        <v>80.508474576271098</v>
+      </c>
+      <c r="F68" s="34">
+        <v>86.102719033232603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="22">
+        <v>91.633858267716505</v>
+      </c>
+      <c r="D69" s="22">
+        <v>89.212827988338105</v>
+      </c>
+      <c r="E69" s="22">
+        <v>86.440677966101603</v>
+      </c>
+      <c r="F69" s="22">
+        <v>87.804878048780495</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="22">
+        <v>91.830708661417304</v>
+      </c>
+      <c r="D70" s="22">
+        <v>88.825214899713401</v>
+      </c>
+      <c r="E70" s="22">
+        <v>87.570621468926504</v>
+      </c>
+      <c r="F70" s="22">
+        <v>88.193456614509202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="33">
+        <v>93.9960629921259</v>
+      </c>
+      <c r="D71" s="33">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="E71" s="33">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="F71" s="33">
+        <v>91.322901849217601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="28">
+        <v>92.814960629921202</v>
+      </c>
+      <c r="D72" s="28">
+        <v>91.445427728613495</v>
+      </c>
+      <c r="E72" s="28">
+        <v>87.570621468926504</v>
+      </c>
+      <c r="F72" s="28">
+        <v>89.4660894660894</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="22">
+        <v>80.708661417322801</v>
+      </c>
+      <c r="D73" s="22">
+        <v>92.473118279569803</v>
+      </c>
+      <c r="E73" s="22">
+        <v>48.587570621468899</v>
+      </c>
+      <c r="F73" s="22">
+        <v>63.703703703703603</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="22">
+        <v>92.814960629921202</v>
+      </c>
+      <c r="D74" s="22">
+        <v>94.603174603174594</v>
+      </c>
+      <c r="E74" s="22">
+        <v>84.180790960451901</v>
+      </c>
+      <c r="F74" s="22">
+        <v>89.088191330343705</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="25">
+        <v>94</v>
+      </c>
+      <c r="D75" s="21">
+        <v>91.98</v>
+      </c>
+      <c r="E75" s="21">
+        <v>90.68</v>
+      </c>
+      <c r="F75" s="21">
+        <v>91.32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="19">
+        <v>224</v>
+      </c>
+      <c r="B80" s="40">
+        <v>16</v>
+      </c>
+      <c r="C80" s="22">
+        <v>91.535433070866105</v>
+      </c>
+      <c r="D80" s="22">
+        <v>91.104294478527606</v>
+      </c>
+      <c r="E80" s="22">
+        <v>83.898305084745701</v>
+      </c>
+      <c r="F80" s="22">
+        <v>87.352941176470594</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="19">
+        <v>224</v>
+      </c>
+      <c r="B81" s="40">
+        <v>32</v>
+      </c>
+      <c r="C81" s="22">
+        <v>93.307086614173201</v>
+      </c>
+      <c r="D81" s="22">
+        <v>90.168539325842701</v>
+      </c>
+      <c r="E81" s="22">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="F81" s="22">
+        <v>90.422535211267601</v>
+      </c>
+      <c r="G81" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="19">
+        <v>384</v>
+      </c>
+      <c r="B82" s="40">
+        <v>16</v>
+      </c>
+      <c r="C82" s="22">
+        <v>93.6023622047244</v>
+      </c>
+      <c r="D82" s="22">
+        <v>92.878338278931693</v>
+      </c>
+      <c r="E82" s="22">
+        <v>88.418079096045204</v>
+      </c>
+      <c r="F82" s="22">
+        <v>90.593342981186595</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="32">
+        <v>384</v>
+      </c>
+      <c r="B83" s="41">
+        <v>32</v>
+      </c>
+      <c r="C83" s="33">
+        <v>93.9960629921259</v>
+      </c>
+      <c r="D83" s="33">
+        <v>91.977077363896797</v>
+      </c>
+      <c r="E83" s="33">
+        <v>90.677966101694906</v>
+      </c>
+      <c r="F83" s="33">
+        <v>91.322901849217601</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="19">
+        <v>384</v>
+      </c>
+      <c r="B84" s="40">
+        <v>64</v>
+      </c>
+      <c r="C84" s="22">
+        <v>93.110236220472402</v>
+      </c>
+      <c r="D84" s="22">
+        <v>91.040462427745595</v>
+      </c>
+      <c r="E84" s="22">
+        <v>88.983050847457605</v>
+      </c>
+      <c r="F84" s="22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20">
+        <v>384</v>
+      </c>
+      <c r="B85" s="24">
+        <v>128</v>
+      </c>
+      <c r="C85" s="28">
+        <v>92.618110236220403</v>
+      </c>
+      <c r="D85" s="28">
+        <v>92.923076923076906</v>
+      </c>
+      <c r="E85" s="28">
+        <v>85.310734463276802</v>
+      </c>
+      <c r="F85" s="28">
+        <v>88.9543446244477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="C90" s="22">
+        <v>93.405511811023601</v>
+      </c>
+      <c r="D90" s="22">
+        <v>92.835820895522303</v>
+      </c>
+      <c r="E90" s="22">
+        <v>87.853107344632704</v>
+      </c>
+      <c r="F90" s="22">
+        <v>92.64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="C91" s="22">
+        <v>93.8976377952755</v>
+      </c>
+      <c r="D91" s="22">
+        <v>92.690058479532098</v>
+      </c>
+      <c r="E91" s="22">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="F91" s="22">
+        <v>93.23</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="C92" s="28">
+        <v>92.618110236220403</v>
+      </c>
+      <c r="D92" s="28">
+        <v>90.670553935859999</v>
+      </c>
+      <c r="E92" s="28">
+        <v>87.853107344632704</v>
+      </c>
+      <c r="F92" s="28">
+        <v>91.81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="C97" s="22">
         <v>95.053003533568898</v>
       </c>
-      <c r="D49" s="22">
-        <v>94.392523364485896</v>
-      </c>
-      <c r="E49" s="22">
-        <v>92.660550458715505</v>
-      </c>
-      <c r="F49" s="22">
-        <v>93.518518518518505</v>
-      </c>
-      <c r="G49" s="26"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="22">
-        <v>93.639575971731404</v>
-      </c>
-      <c r="D50" s="22">
-        <v>92.523364485981304</v>
-      </c>
-      <c r="E50" s="22">
-        <v>90.825688073394502</v>
-      </c>
-      <c r="F50" s="22">
-        <v>91.6666666666666</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="24" t="s">
+      <c r="D97" s="22">
+        <v>97.029702970296995</v>
+      </c>
+      <c r="E97" s="22">
+        <v>89.908256880733902</v>
+      </c>
+      <c r="F97" s="22">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="28">
+      <c r="B98" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="C98" s="22">
+        <v>95.406360424028193</v>
+      </c>
+      <c r="D98" s="22">
+        <v>96.153846153846104</v>
+      </c>
+      <c r="E98" s="22">
+        <v>91.743119266055004</v>
+      </c>
+      <c r="F98" s="22">
+        <v>95.11</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" s="43">
+        <v>0.3</v>
+      </c>
+      <c r="C99" s="28">
         <v>95.053003533568898</v>
       </c>
-      <c r="D51" s="28">
-        <v>97.029702970296995</v>
-      </c>
-      <c r="E51" s="28">
-        <v>89.908256880733902</v>
-      </c>
-      <c r="F51" s="28">
-        <v>93.3333333333333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E55" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="22">
-        <v>91.24</v>
-      </c>
-      <c r="D56" s="22">
-        <v>89.55</v>
-      </c>
-      <c r="E56" s="22">
-        <v>87.08</v>
-      </c>
-      <c r="F56" s="22">
-        <v>87.08</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="22">
-        <v>92.13</v>
-      </c>
-      <c r="D57" s="22">
-        <v>90.06</v>
-      </c>
-      <c r="E57" s="22">
-        <v>87.01</v>
-      </c>
-      <c r="F57" s="22">
-        <v>88.51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="25">
-        <v>94</v>
-      </c>
-      <c r="D58" s="21">
-        <v>91.98</v>
-      </c>
-      <c r="E58" s="21">
-        <v>90.68</v>
-      </c>
-      <c r="F58" s="21">
-        <v>91.32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="22">
-        <v>91.732283464566905</v>
-      </c>
-      <c r="C63" s="22">
-        <v>84.615384615384599</v>
-      </c>
-      <c r="D63" s="22">
-        <v>93.220338983050794</v>
-      </c>
-      <c r="E63" s="22">
-        <v>88.709677419354804</v>
-      </c>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="22">
-        <v>92.519685039370003</v>
-      </c>
-      <c r="C64" s="22">
-        <v>87.771739130434696</v>
-      </c>
-      <c r="D64" s="22">
-        <v>91.242937853107307</v>
-      </c>
-      <c r="E64" s="22">
-        <v>89.473684210526301</v>
-      </c>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="22">
-        <v>93.307086614173201</v>
-      </c>
-      <c r="C65" s="22">
-        <v>91.812865497076004</v>
-      </c>
-      <c r="D65" s="22">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="E65" s="22">
-        <v>90.229885057471193</v>
-      </c>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66" s="22">
-        <v>93.405511811023601</v>
-      </c>
-      <c r="C66" s="22">
-        <v>91.117478510028604</v>
-      </c>
-      <c r="D66" s="22">
-        <v>89.830508474576206</v>
-      </c>
-      <c r="E66" s="22">
-        <v>90.469416785206207</v>
-      </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="22">
-        <v>93.503937007874001</v>
-      </c>
-      <c r="C67" s="22">
-        <v>92.352941176470594</v>
-      </c>
-      <c r="D67" s="22">
-        <v>88.700564971751405</v>
-      </c>
-      <c r="E67" s="22">
-        <v>90.489913544668596</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="22">
-        <v>93.6023622047244</v>
-      </c>
-      <c r="C68" s="22">
-        <v>91.404011461318007</v>
-      </c>
-      <c r="D68" s="22">
-        <v>90.112994350282406</v>
-      </c>
-      <c r="E68" s="22">
-        <v>90.7539118065433</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" s="25">
-        <v>94</v>
-      </c>
-      <c r="C69" s="25">
-        <v>91.977077363896797</v>
-      </c>
-      <c r="D69" s="25">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="E69" s="25">
-        <v>91.32</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
-    </row>
-    <row r="73" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="B73" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="22">
-        <v>91.929133858267704</v>
-      </c>
-      <c r="D74" s="22">
-        <v>90</v>
-      </c>
-      <c r="E74" s="22">
-        <v>86.440677966101603</v>
-      </c>
-      <c r="F74" s="22">
-        <v>88.184438040345796</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="22">
-        <v>90.354330708661394</v>
-      </c>
-      <c r="D75" s="22">
-        <v>88.323353293413106</v>
-      </c>
-      <c r="E75" s="22">
-        <v>83.3333333333333</v>
-      </c>
-      <c r="F75" s="22">
-        <v>85.7558139534883</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="22">
-        <v>91.240157480314906</v>
-      </c>
-      <c r="D76" s="22">
-        <v>89.552238805970106</v>
-      </c>
-      <c r="E76" s="22">
-        <v>84.745762711864401</v>
-      </c>
-      <c r="F76" s="22">
-        <v>87.082728592162496</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B77" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="34">
-        <v>90.944881889763707</v>
-      </c>
-      <c r="D77" s="34">
-        <v>92.532467532467507</v>
-      </c>
-      <c r="E77" s="34">
-        <v>80.508474576271098</v>
-      </c>
-      <c r="F77" s="34">
-        <v>86.102719033232603</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C78" s="22">
-        <v>91.633858267716505</v>
-      </c>
-      <c r="D78" s="22">
-        <v>89.212827988338105</v>
-      </c>
-      <c r="E78" s="22">
-        <v>86.440677966101603</v>
-      </c>
-      <c r="F78" s="22">
-        <v>87.804878048780495</v>
-      </c>
-      <c r="G78" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="22">
-        <v>91.830708661417304</v>
-      </c>
-      <c r="D79" s="22">
-        <v>88.825214899713401</v>
-      </c>
-      <c r="E79" s="22">
-        <v>87.570621468926504</v>
-      </c>
-      <c r="F79" s="22">
-        <v>88.193456614509202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="33">
-        <v>93.9960629921259</v>
-      </c>
-      <c r="D80" s="33">
-        <v>91.977077363896797</v>
-      </c>
-      <c r="E80" s="33">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="F80" s="33">
-        <v>91.322901849217601</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="28">
-        <v>92.814960629921202</v>
-      </c>
-      <c r="D81" s="28">
-        <v>91.445427728613495</v>
-      </c>
-      <c r="E81" s="28">
-        <v>87.570621468926504</v>
-      </c>
-      <c r="F81" s="28">
-        <v>89.4660894660894</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C82" s="22">
-        <v>80.708661417322801</v>
-      </c>
-      <c r="D82" s="22">
-        <v>92.473118279569803</v>
-      </c>
-      <c r="E82" s="22">
-        <v>48.587570621468899</v>
-      </c>
-      <c r="F82" s="22">
-        <v>63.703703703703603</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C83" s="22">
-        <v>92.814960629921202</v>
-      </c>
-      <c r="D83" s="22">
-        <v>94.603174603174594</v>
-      </c>
-      <c r="E83" s="22">
-        <v>84.180790960451901</v>
-      </c>
-      <c r="F83" s="22">
-        <v>89.088191330343705</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C84" s="25">
-        <v>94</v>
-      </c>
-      <c r="D84" s="21">
-        <v>91.98</v>
-      </c>
-      <c r="E84" s="21">
-        <v>90.68</v>
-      </c>
-      <c r="F84" s="21">
-        <v>91.32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19">
-        <v>224</v>
-      </c>
-      <c r="B89" s="19">
-        <v>16</v>
-      </c>
-      <c r="C89" s="22">
-        <v>91.535433070866105</v>
-      </c>
-      <c r="D89" s="22">
-        <v>91.104294478527606</v>
-      </c>
-      <c r="E89" s="22">
-        <v>83.898305084745701</v>
-      </c>
-      <c r="F89" s="22">
-        <v>87.352941176470594</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="19">
-        <v>224</v>
-      </c>
-      <c r="B90" s="19">
-        <v>32</v>
-      </c>
-      <c r="C90" s="22">
-        <v>93.307086614173201</v>
-      </c>
-      <c r="D90" s="22">
-        <v>90.168539325842701</v>
-      </c>
-      <c r="E90" s="22">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="F90" s="22">
-        <v>90.422535211267601</v>
-      </c>
-      <c r="G90" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="19">
-        <v>384</v>
-      </c>
-      <c r="B91" s="19">
-        <v>16</v>
-      </c>
-      <c r="C91" s="22">
-        <v>93.6023622047244</v>
-      </c>
-      <c r="D91" s="22">
-        <v>92.878338278931693</v>
-      </c>
-      <c r="E91" s="22">
-        <v>88.418079096045204</v>
-      </c>
-      <c r="F91" s="22">
-        <v>90.593342981186595</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="32">
-        <v>384</v>
-      </c>
-      <c r="B92" s="32">
-        <v>32</v>
-      </c>
-      <c r="C92" s="33">
-        <v>93.9960629921259</v>
-      </c>
-      <c r="D92" s="33">
-        <v>91.977077363896797</v>
-      </c>
-      <c r="E92" s="33">
-        <v>90.677966101694906</v>
-      </c>
-      <c r="F92" s="33">
-        <v>91.322901849217601</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="19">
-        <v>384</v>
-      </c>
-      <c r="B93" s="19">
-        <v>64</v>
-      </c>
-      <c r="C93" s="22">
-        <v>93.110236220472402</v>
-      </c>
-      <c r="D93" s="22">
-        <v>91.040462427745595</v>
-      </c>
-      <c r="E93" s="22">
-        <v>88.983050847457605</v>
-      </c>
-      <c r="F93" s="22">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="20">
-        <v>384</v>
-      </c>
-      <c r="B94" s="20">
-        <v>128</v>
-      </c>
-      <c r="C94" s="28">
-        <v>92.618110236220403</v>
-      </c>
-      <c r="D94" s="28">
-        <v>92.923076923076906</v>
-      </c>
-      <c r="E94" s="28">
-        <v>85.310734463276802</v>
-      </c>
-      <c r="F94" s="28">
-        <v>88.9543446244477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="D99" s="28">
+        <v>95.238095238095198</v>
+      </c>
+      <c r="E99" s="28">
+        <v>91.743119266055004</v>
+      </c>
+      <c r="F99" s="28">
+        <v>94.74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Archive/ROSE results.xlsx
+++ b/Archive/ROSE results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/Ideas/idea4&amp;5 MIL-SI SI-ViT/MIL-SI tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947984AB-EB8C-5F40-8B08-DC7914615CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C98BD-6069-D14D-803D-0759E826A122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1880" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="194">
   <si>
     <t xml:space="preserve">Train </t>
   </si>
@@ -611,6 +611,18 @@
   </si>
   <si>
     <t>Supervised Proportion</t>
+  </si>
+  <si>
+    <t>Unet，1% of Dataset is upervised</t>
+  </si>
+  <si>
+    <t>Unet，5% of Dataset is upervised</t>
+  </si>
+  <si>
+    <t>ViT_b_384_401_PT_lf05_b4_p32_ROSE_MIL_Unet_Ratio05_log</t>
+  </si>
+  <si>
+    <t>ViT_b_384_401_PT_lf05_b4_p32_ROSE_MIL_Unet_Ratio01_log</t>
   </si>
 </sst>
 </file>
@@ -1691,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU89"/>
+  <dimension ref="A1:AU91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE74" workbookViewId="0">
-      <selection activeCell="AN95" sqref="AN95"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7797,7 +7809,7 @@
         <v>87.352941176470594</v>
       </c>
       <c r="AU54" s="16">
-        <f t="shared" ref="AU54:AU89" si="6">AVERAGE(AN54,AT54)</f>
+        <f t="shared" ref="AU54:AU84" si="6">AVERAGE(AN54,AT54)</f>
         <v>90.495997215454196</v>
       </c>
     </row>
@@ -11354,10 +11366,10 @@
     </row>
     <row r="87" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>26</v>
@@ -11372,136 +11384,136 @@
         <v>50</v>
       </c>
       <c r="G87">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H87" s="16">
-        <v>98.287959584619699</v>
+        <v>99.607072691552005</v>
       </c>
       <c r="I87" s="16">
-        <v>98.7068965517241</v>
+        <v>99.870298313877996</v>
       </c>
       <c r="J87" s="16">
-        <v>98.664368806548893</v>
+        <v>99.526066350710906</v>
       </c>
       <c r="K87" s="16">
-        <v>98.664368806548893</v>
+        <v>99.526066350710906</v>
       </c>
       <c r="L87" s="16">
-        <v>97.584541062801904</v>
+        <v>99.758454106280197</v>
       </c>
       <c r="M87" s="16">
-        <v>97.5060337892196</v>
+        <v>99.12</v>
       </c>
       <c r="N87" s="16">
-        <v>98.685628097392794</v>
+        <v>99.6978851963746</v>
       </c>
       <c r="O87" s="16">
-        <v>97.5060337892196</v>
+        <v>99.12</v>
       </c>
       <c r="P87" s="16">
-        <v>97.584541062801904</v>
+        <v>99.758454106280197</v>
       </c>
       <c r="Q87" s="16">
-        <v>97.584541062801904</v>
+        <v>99.758454106280197</v>
       </c>
       <c r="R87" s="16">
-        <v>98.664368806548893</v>
+        <v>99.526066350710906</v>
       </c>
       <c r="S87" s="16">
-        <v>98.7068965517241</v>
+        <v>99.870298313877996</v>
       </c>
       <c r="T87" s="16">
-        <v>97.545271629778597</v>
+        <v>99.438202247191001</v>
       </c>
       <c r="U87" s="16">
-        <v>93.320235756385003</v>
+        <v>93.713163064832997</v>
       </c>
       <c r="V87" s="16">
-        <v>93.313953488371993</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="W87" s="16">
-        <v>96.686746987951807</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="X87" s="16">
-        <v>96.686746987951807</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="Y87" s="16">
-        <v>87.005649717514103</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="Z87" s="16">
-        <v>93.3333333333333</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AA87" s="16">
-        <v>94.970414201183402</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="AB87" s="16">
-        <v>93.3333333333333</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AC87" s="16">
-        <v>87.005649717514103</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AD87" s="16">
-        <v>87.005649717514103</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AE87" s="16">
-        <v>96.686746987951807</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="AF87" s="16">
-        <v>93.313953488371993</v>
+        <v>95.180722891566205</v>
       </c>
       <c r="AG87" s="16">
-        <v>90.058479532163702</v>
+        <v>90.960451977401107</v>
       </c>
       <c r="AH87" s="16">
-        <v>93.405511811023601</v>
+        <v>93.110236220472402</v>
       </c>
       <c r="AI87" s="16">
-        <v>93.6857562408223</v>
+        <v>94.4444444444444</v>
       </c>
       <c r="AJ87" s="16">
-        <v>96.374622356495394</v>
+        <v>95.015105740181198</v>
       </c>
       <c r="AK87" s="16">
-        <v>96.374622356495394</v>
+        <v>95.015105740181198</v>
       </c>
       <c r="AL87" s="16">
-        <v>87.853107344632704</v>
+        <v>89.548022598870006</v>
       </c>
       <c r="AM87" s="16">
-        <v>92.835820895522303</v>
+        <v>90.571428571428498</v>
       </c>
       <c r="AN87" s="16">
-        <v>95.011169024571799</v>
+        <v>94.728915662650493</v>
       </c>
       <c r="AO87" s="16">
-        <v>92.835820895522303</v>
+        <v>90.571428571428498</v>
       </c>
       <c r="AP87" s="16">
-        <v>87.853107344632704</v>
+        <v>89.548022598870006</v>
       </c>
       <c r="AQ87" s="16">
-        <v>87.853107344632704</v>
+        <v>89.548022598870006</v>
       </c>
       <c r="AR87" s="16">
-        <v>96.374622356495394</v>
+        <v>95.015105740181198</v>
       </c>
       <c r="AS87" s="16">
-        <v>93.6857562408223</v>
+        <v>94.4444444444444</v>
       </c>
       <c r="AT87" s="16">
-        <v>90.275761973875106</v>
+        <v>90.056818181818102</v>
       </c>
       <c r="AU87" s="16">
-        <f t="shared" si="6"/>
-        <v>92.643465499223453</v>
+        <f t="shared" ref="AU87:AU88" si="7">AVERAGE(AN87,AT87)</f>
+        <v>92.392866922234305</v>
       </c>
     </row>
     <row r="88" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>26</v>
@@ -11516,136 +11528,136 @@
         <v>50</v>
       </c>
       <c r="G88">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H88" s="16">
-        <v>97.333707549817504</v>
+        <v>98.175694639348805</v>
       </c>
       <c r="I88" s="16">
-        <v>98.056994818652797</v>
+        <v>98.287671232876704</v>
       </c>
       <c r="J88" s="16">
-        <v>97.845756139594997</v>
+        <v>98.922878069797505</v>
       </c>
       <c r="K88" s="16">
-        <v>97.845756139594997</v>
+        <v>98.922878069797505</v>
       </c>
       <c r="L88" s="16">
-        <v>96.376811594202906</v>
+        <v>96.779388083735896</v>
       </c>
       <c r="M88" s="16">
-        <v>95.990376904570894</v>
+        <v>97.962510187448999</v>
       </c>
       <c r="N88" s="16">
-        <v>97.951261591546199</v>
+        <v>98.604251664161495</v>
       </c>
       <c r="O88" s="16">
-        <v>95.990376904570894</v>
+        <v>97.962510187448999</v>
       </c>
       <c r="P88" s="16">
-        <v>96.376811594202906</v>
+        <v>96.779388083735896</v>
       </c>
       <c r="Q88" s="16">
-        <v>96.376811594202906</v>
+        <v>96.779388083735896</v>
       </c>
       <c r="R88" s="16">
-        <v>97.845756139594997</v>
+        <v>98.922878069797505</v>
       </c>
       <c r="S88" s="16">
-        <v>98.056994818652797</v>
+        <v>98.287671232876704</v>
       </c>
       <c r="T88" s="16">
-        <v>96.183206106870202</v>
+        <v>97.367355204536196</v>
       </c>
       <c r="U88" s="16">
         <v>93.713163064832997</v>
       </c>
       <c r="V88" s="16">
-        <v>95.180722891566205</v>
+        <v>94.910179640718496</v>
       </c>
       <c r="W88" s="16">
-        <v>95.180722891566205</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="X88" s="16">
-        <v>95.180722891566205</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="Y88" s="16">
-        <v>90.960451977401107</v>
+        <v>90.395480225988706</v>
       </c>
       <c r="Z88" s="16">
-        <v>90.960451977401107</v>
+        <v>91.428571428571402</v>
       </c>
       <c r="AA88" s="16">
-        <v>95.180722891566205</v>
+        <v>95.195195195195197</v>
       </c>
       <c r="AB88" s="16">
-        <v>90.960451977401107</v>
+        <v>91.428571428571402</v>
       </c>
       <c r="AC88" s="16">
-        <v>90.960451977401107</v>
+        <v>90.395480225988706</v>
       </c>
       <c r="AD88" s="16">
-        <v>90.960451977401107</v>
+        <v>90.395480225988706</v>
       </c>
       <c r="AE88" s="16">
-        <v>95.180722891566205</v>
+        <v>95.481927710843294</v>
       </c>
       <c r="AF88" s="16">
-        <v>95.180722891566205</v>
+        <v>94.910179640718496</v>
       </c>
       <c r="AG88" s="16">
-        <v>90.960451977401107</v>
+        <v>90.909090909090907</v>
       </c>
       <c r="AH88" s="16">
-        <v>93.8976377952755</v>
+        <v>93.208661417322801</v>
       </c>
       <c r="AI88" s="16">
-        <v>94.510385756676499</v>
+        <v>94.720965309200594</v>
       </c>
       <c r="AJ88" s="16">
-        <v>96.223564954682701</v>
+        <v>94.864048338368505</v>
       </c>
       <c r="AK88" s="16">
-        <v>96.223564954682701</v>
+        <v>94.864048338368505</v>
       </c>
       <c r="AL88" s="16">
-        <v>89.548022598870006</v>
+        <v>90.112994350282406</v>
       </c>
       <c r="AM88" s="16">
-        <v>92.690058479532098</v>
+        <v>90.368271954674199</v>
       </c>
       <c r="AN88" s="16">
-        <v>95.359281437125702</v>
+        <v>94.792452830188594</v>
       </c>
       <c r="AO88" s="16">
-        <v>92.690058479532098</v>
+        <v>90.368271954674199</v>
       </c>
       <c r="AP88" s="16">
-        <v>89.548022598870006</v>
+        <v>90.112994350282406</v>
       </c>
       <c r="AQ88" s="16">
-        <v>89.548022598870006</v>
+        <v>90.112994350282406</v>
       </c>
       <c r="AR88" s="16">
-        <v>96.223564954682701</v>
+        <v>94.864048338368505</v>
       </c>
       <c r="AS88" s="16">
-        <v>94.510385756676499</v>
+        <v>94.720965309200594</v>
       </c>
       <c r="AT88" s="16">
-        <v>91.091954022988503</v>
+        <v>90.240452616690206</v>
       </c>
       <c r="AU88" s="16">
-        <f t="shared" si="6"/>
-        <v>93.22561773005711</v>
+        <f t="shared" si="7"/>
+        <v>92.5164527234394</v>
       </c>
     </row>
     <row r="89" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>26</v>
@@ -11660,109 +11672,109 @@
         <v>50</v>
       </c>
       <c r="G89">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H89" s="16">
-        <v>97.361773786135203</v>
+        <v>98.287959584619699</v>
       </c>
       <c r="I89" s="16">
-        <v>97.8102189781021</v>
+        <v>98.7068965517241</v>
       </c>
       <c r="J89" s="16">
-        <v>98.147350280051697</v>
+        <v>98.664368806548893</v>
       </c>
       <c r="K89" s="16">
-        <v>98.147350280051697</v>
+        <v>98.664368806548893</v>
       </c>
       <c r="L89" s="16">
-        <v>95.893719806763201</v>
+        <v>97.584541062801904</v>
       </c>
       <c r="M89" s="16">
-        <v>96.515397082657998</v>
+        <v>97.5060337892196</v>
       </c>
       <c r="N89" s="16">
-        <v>97.978494623655905</v>
+        <v>98.685628097392794</v>
       </c>
       <c r="O89" s="16">
-        <v>96.515397082657998</v>
+        <v>97.5060337892196</v>
       </c>
       <c r="P89" s="16">
-        <v>95.893719806763201</v>
+        <v>97.584541062801904</v>
       </c>
       <c r="Q89" s="16">
-        <v>95.893719806763201</v>
+        <v>97.584541062801904</v>
       </c>
       <c r="R89" s="16">
-        <v>98.147350280051697</v>
+        <v>98.664368806548893</v>
       </c>
       <c r="S89" s="16">
-        <v>97.8102189781021</v>
+        <v>98.7068965517241</v>
       </c>
       <c r="T89" s="16">
-        <v>96.203554119547604</v>
+        <v>97.545271629778597</v>
       </c>
       <c r="U89" s="16">
-        <v>93.516699410608993</v>
+        <v>93.320235756385003</v>
       </c>
       <c r="V89" s="16">
-        <v>94.626865671641795</v>
+        <v>93.313953488371993</v>
       </c>
       <c r="W89" s="16">
-        <v>95.481927710843294</v>
+        <v>96.686746987951807</v>
       </c>
       <c r="X89" s="16">
-        <v>95.481927710843294</v>
+        <v>96.686746987951807</v>
       </c>
       <c r="Y89" s="16">
-        <v>89.830508474576206</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="Z89" s="16">
-        <v>91.379310344827502</v>
+        <v>93.3333333333333</v>
       </c>
       <c r="AA89" s="16">
-        <v>95.0524737631184</v>
+        <v>94.970414201183402</v>
       </c>
       <c r="AB89" s="16">
-        <v>91.379310344827502</v>
+        <v>93.3333333333333</v>
       </c>
       <c r="AC89" s="16">
-        <v>89.830508474576206</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AD89" s="16">
-        <v>89.830508474576206</v>
+        <v>87.005649717514103</v>
       </c>
       <c r="AE89" s="16">
-        <v>95.481927710843294</v>
+        <v>96.686746987951807</v>
       </c>
       <c r="AF89" s="16">
-        <v>94.626865671641795</v>
+        <v>93.313953488371993</v>
       </c>
       <c r="AG89" s="16">
-        <v>90.598290598290504</v>
+        <v>90.058479532163702</v>
       </c>
       <c r="AH89" s="16">
-        <v>92.618110236220403</v>
+        <v>93.405511811023601</v>
       </c>
       <c r="AI89" s="16">
-        <v>93.610698365527398</v>
+        <v>93.6857562408223</v>
       </c>
       <c r="AJ89" s="16">
-        <v>95.166163141993906</v>
+        <v>96.374622356495394</v>
       </c>
       <c r="AK89" s="16">
-        <v>95.166163141993906</v>
+        <v>96.374622356495394</v>
       </c>
       <c r="AL89" s="16">
         <v>87.853107344632704</v>
       </c>
       <c r="AM89" s="16">
-        <v>90.670553935859999</v>
+        <v>92.835820895522303</v>
       </c>
       <c r="AN89" s="16">
-        <v>94.382022471910105</v>
+        <v>95.011169024571799</v>
       </c>
       <c r="AO89" s="16">
-        <v>90.670553935859999</v>
+        <v>92.835820895522303</v>
       </c>
       <c r="AP89" s="16">
         <v>87.853107344632704</v>
@@ -11771,16 +11783,304 @@
         <v>87.853107344632704</v>
       </c>
       <c r="AR89" s="16">
+        <v>96.374622356495394</v>
+      </c>
+      <c r="AS89" s="16">
+        <v>93.6857562408223</v>
+      </c>
+      <c r="AT89" s="16">
+        <v>90.275761973875106</v>
+      </c>
+      <c r="AU89" s="16">
+        <f>AVERAGE(AN89,AT89)</f>
+        <v>92.643465499223453</v>
+      </c>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" s="36">
+        <v>50</v>
+      </c>
+      <c r="G90">
+        <v>32</v>
+      </c>
+      <c r="H90" s="16">
+        <v>97.333707549817504</v>
+      </c>
+      <c r="I90" s="16">
+        <v>98.056994818652797</v>
+      </c>
+      <c r="J90" s="16">
+        <v>97.845756139594997</v>
+      </c>
+      <c r="K90" s="16">
+        <v>97.845756139594997</v>
+      </c>
+      <c r="L90" s="16">
+        <v>96.376811594202906</v>
+      </c>
+      <c r="M90" s="16">
+        <v>95.990376904570894</v>
+      </c>
+      <c r="N90" s="16">
+        <v>97.951261591546199</v>
+      </c>
+      <c r="O90" s="16">
+        <v>95.990376904570894</v>
+      </c>
+      <c r="P90" s="16">
+        <v>96.376811594202906</v>
+      </c>
+      <c r="Q90" s="16">
+        <v>96.376811594202906</v>
+      </c>
+      <c r="R90" s="16">
+        <v>97.845756139594997</v>
+      </c>
+      <c r="S90" s="16">
+        <v>98.056994818652797</v>
+      </c>
+      <c r="T90" s="16">
+        <v>96.183206106870202</v>
+      </c>
+      <c r="U90" s="16">
+        <v>93.713163064832997</v>
+      </c>
+      <c r="V90" s="16">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="W90" s="16">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="X90" s="16">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="Y90" s="16">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="Z90" s="16">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AA90" s="16">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="AB90" s="16">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AC90" s="16">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AD90" s="16">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AE90" s="16">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="AF90" s="16">
+        <v>95.180722891566205</v>
+      </c>
+      <c r="AG90" s="16">
+        <v>90.960451977401107</v>
+      </c>
+      <c r="AH90" s="16">
+        <v>93.8976377952755</v>
+      </c>
+      <c r="AI90" s="16">
+        <v>94.510385756676499</v>
+      </c>
+      <c r="AJ90" s="16">
+        <v>96.223564954682701</v>
+      </c>
+      <c r="AK90" s="16">
+        <v>96.223564954682701</v>
+      </c>
+      <c r="AL90" s="16">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="AM90" s="16">
+        <v>92.690058479532098</v>
+      </c>
+      <c r="AN90" s="16">
+        <v>95.359281437125702</v>
+      </c>
+      <c r="AO90" s="16">
+        <v>92.690058479532098</v>
+      </c>
+      <c r="AP90" s="16">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="AQ90" s="16">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="AR90" s="16">
+        <v>96.223564954682701</v>
+      </c>
+      <c r="AS90" s="16">
+        <v>94.510385756676499</v>
+      </c>
+      <c r="AT90" s="16">
+        <v>91.091954022988503</v>
+      </c>
+      <c r="AU90" s="16">
+        <f>AVERAGE(AN90,AT90)</f>
+        <v>93.22561773005711</v>
+      </c>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>185</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="F91" s="36">
+        <v>50</v>
+      </c>
+      <c r="G91">
+        <v>29</v>
+      </c>
+      <c r="H91" s="16">
+        <v>97.361773786135203</v>
+      </c>
+      <c r="I91" s="16">
+        <v>97.8102189781021</v>
+      </c>
+      <c r="J91" s="16">
+        <v>98.147350280051697</v>
+      </c>
+      <c r="K91" s="16">
+        <v>98.147350280051697</v>
+      </c>
+      <c r="L91" s="16">
+        <v>95.893719806763201</v>
+      </c>
+      <c r="M91" s="16">
+        <v>96.515397082657998</v>
+      </c>
+      <c r="N91" s="16">
+        <v>97.978494623655905</v>
+      </c>
+      <c r="O91" s="16">
+        <v>96.515397082657998</v>
+      </c>
+      <c r="P91" s="16">
+        <v>95.893719806763201</v>
+      </c>
+      <c r="Q91" s="16">
+        <v>95.893719806763201</v>
+      </c>
+      <c r="R91" s="16">
+        <v>98.147350280051697</v>
+      </c>
+      <c r="S91" s="16">
+        <v>97.8102189781021</v>
+      </c>
+      <c r="T91" s="16">
+        <v>96.203554119547604</v>
+      </c>
+      <c r="U91" s="16">
+        <v>93.516699410608993</v>
+      </c>
+      <c r="V91" s="16">
+        <v>94.626865671641795</v>
+      </c>
+      <c r="W91" s="16">
+        <v>95.481927710843294</v>
+      </c>
+      <c r="X91" s="16">
+        <v>95.481927710843294</v>
+      </c>
+      <c r="Y91" s="16">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="Z91" s="16">
+        <v>91.379310344827502</v>
+      </c>
+      <c r="AA91" s="16">
+        <v>95.0524737631184</v>
+      </c>
+      <c r="AB91" s="16">
+        <v>91.379310344827502</v>
+      </c>
+      <c r="AC91" s="16">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AD91" s="16">
+        <v>89.830508474576206</v>
+      </c>
+      <c r="AE91" s="16">
+        <v>95.481927710843294</v>
+      </c>
+      <c r="AF91" s="16">
+        <v>94.626865671641795</v>
+      </c>
+      <c r="AG91" s="16">
+        <v>90.598290598290504</v>
+      </c>
+      <c r="AH91" s="16">
+        <v>92.618110236220403</v>
+      </c>
+      <c r="AI91" s="16">
+        <v>93.610698365527398</v>
+      </c>
+      <c r="AJ91" s="16">
         <v>95.166163141993906</v>
       </c>
-      <c r="AS89" s="16">
+      <c r="AK91" s="16">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="AL91" s="16">
+        <v>87.853107344632704</v>
+      </c>
+      <c r="AM91" s="16">
+        <v>90.670553935859999</v>
+      </c>
+      <c r="AN91" s="16">
+        <v>94.382022471910105</v>
+      </c>
+      <c r="AO91" s="16">
+        <v>90.670553935859999</v>
+      </c>
+      <c r="AP91" s="16">
+        <v>87.853107344632704</v>
+      </c>
+      <c r="AQ91" s="16">
+        <v>87.853107344632704</v>
+      </c>
+      <c r="AR91" s="16">
+        <v>95.166163141993906</v>
+      </c>
+      <c r="AS91" s="16">
         <v>93.610698365527398</v>
       </c>
-      <c r="AT89" s="16">
+      <c r="AT91" s="16">
         <v>89.239598278335706</v>
       </c>
-      <c r="AU89" s="16">
-        <f t="shared" si="6"/>
+      <c r="AU91" s="16">
+        <f>AVERAGE(AN91,AT91)</f>
         <v>91.810810375122912</v>
       </c>
     </row>

--- a/Archive/ROSE results.xlsx
+++ b/Archive/ROSE results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/Ideas/idea4&amp;5 MIL-SI SI-ViT/MIL-SI tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C98BD-6069-D14D-803D-0759E826A122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271857C1-437F-8D45-B03D-F91BC2B7D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="1380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="195">
   <si>
     <t xml:space="preserve">Train </t>
   </si>
@@ -623,6 +623,9 @@
   </si>
   <si>
     <t>ViT_b_384_401_PT_lf05_b4_p32_ROSE_MIL_Unet_Ratio01_log</t>
+  </si>
+  <si>
+    <t>As a cancer classification task, the reported Pre,Rec,F1-score is based on Possitive category</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1242,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1347,6 +1350,18 @@
     </xf>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1705,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView topLeftCell="AC70" workbookViewId="0">
+      <selection activeCell="AT87" sqref="AT87:AT91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12095,10 +12110,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE902617-9C4A-024C-BDC7-767D4D3CA9CA}">
-  <dimension ref="A2:AT100"/>
+  <dimension ref="A2:AT108"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScale="177" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="177" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13509,19 +13524,19 @@
         <v>71</v>
       </c>
       <c r="B90" s="42">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C90" s="22">
-        <v>93.405511811023601</v>
+        <v>93.110236220472402</v>
       </c>
       <c r="D90" s="22">
-        <v>92.835820895522303</v>
+        <v>90.571428571428498</v>
       </c>
       <c r="E90" s="22">
-        <v>87.853107344632704</v>
-      </c>
-      <c r="F90" s="22">
-        <v>92.64</v>
+        <v>89.548022598870006</v>
+      </c>
+      <c r="F90" s="46">
+        <v>90.056818181818102</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -13529,137 +13544,259 @@
         <v>71</v>
       </c>
       <c r="B91" s="42">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C91" s="22">
-        <v>93.8976377952755</v>
+        <v>93.208661417322801</v>
       </c>
       <c r="D91" s="22">
-        <v>92.690058479532098</v>
+        <v>90.368271954674199</v>
       </c>
       <c r="E91" s="22">
-        <v>89.548022598870006</v>
-      </c>
-      <c r="F91" s="22">
-        <v>93.23</v>
+        <v>90.112994350282406</v>
+      </c>
+      <c r="F91" s="46">
+        <v>90.240452616690206</v>
       </c>
       <c r="G91" s="26" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="20" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="43">
+      <c r="B92" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="C92" s="22">
+        <v>93.405511811023601</v>
+      </c>
+      <c r="D92" s="22">
+        <v>92.835820895522303</v>
+      </c>
+      <c r="E92" s="22">
+        <v>87.853107344632704</v>
+      </c>
+      <c r="F92" s="46">
+        <v>90.275761973875106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" s="42">
+        <v>0.2</v>
+      </c>
+      <c r="C93" s="22">
+        <v>93.8976377952755</v>
+      </c>
+      <c r="D93" s="22">
+        <v>92.690058479532098</v>
+      </c>
+      <c r="E93" s="22">
+        <v>89.548022598870006</v>
+      </c>
+      <c r="F93" s="46">
+        <v>91.091954022988503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" s="45">
         <v>0.3</v>
       </c>
-      <c r="C92" s="28">
+      <c r="C94" s="46">
         <v>92.618110236220403</v>
       </c>
-      <c r="D92" s="28">
+      <c r="D94" s="46">
         <v>90.670553935859999</v>
       </c>
-      <c r="E92" s="28">
+      <c r="E94" s="46">
         <v>87.853107344632704</v>
       </c>
-      <c r="F92" s="28">
-        <v>91.81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="9"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B94" s="9"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B95" s="9"/>
-    </row>
-    <row r="96" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+      <c r="F94" s="46">
+        <v>89.239598278335706</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="43">
+        <v>1</v>
+      </c>
+      <c r="C95" s="28">
+        <v>94</v>
+      </c>
+      <c r="D95" s="24">
+        <v>91.98</v>
+      </c>
+      <c r="E95" s="24">
+        <v>90.68</v>
+      </c>
+      <c r="F95" s="24">
+        <v>91.32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="23" t="s">
+      <c r="B99" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="23" t="s">
+      <c r="C99" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="23" t="s">
+      <c r="D99" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E96" s="23" t="s">
+      <c r="E99" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F96" s="23" t="s">
+      <c r="F99" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
+    <row r="100" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B97" s="42">
+      <c r="B100" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="C100" s="22">
+        <v>95.759717314487602</v>
+      </c>
+      <c r="D100" s="22">
+        <v>95.327102803738299</v>
+      </c>
+      <c r="E100" s="22">
+        <v>93.577981651376106</v>
+      </c>
+      <c r="F100" s="46">
+        <v>94.4444444444444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B101" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="C101" s="22">
+        <v>95.053003533568898</v>
+      </c>
+      <c r="D101" s="22">
+        <v>94.392523364485896</v>
+      </c>
+      <c r="E101" s="22">
+        <v>92.660550458715505</v>
+      </c>
+      <c r="F101" s="46">
+        <v>93.518518518518505</v>
+      </c>
+      <c r="G101" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B102" s="42">
         <v>0.1</v>
       </c>
-      <c r="C97" s="22">
+      <c r="C102" s="22">
         <v>95.053003533568898</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D102" s="22">
         <v>97.029702970296995</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E102" s="22">
         <v>89.908256880733902</v>
       </c>
-      <c r="F97" s="22">
-        <v>94.7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="19" t="s">
+      <c r="F102" s="46">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="42">
+      <c r="B103" s="42">
         <v>0.2</v>
       </c>
-      <c r="C98" s="22">
+      <c r="C103" s="22">
         <v>95.406360424028193</v>
       </c>
-      <c r="D98" s="22">
+      <c r="D103" s="22">
         <v>96.153846153846104</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E103" s="22">
         <v>91.743119266055004</v>
       </c>
-      <c r="F98" s="22">
-        <v>95.11</v>
-      </c>
-      <c r="G98" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="20" t="s">
+      <c r="F103" s="46">
+        <v>93.896713615023401</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B99" s="43">
+      <c r="B104" s="45">
         <v>0.3</v>
       </c>
-      <c r="C99" s="28">
+      <c r="C104" s="46">
         <v>95.053003533568898</v>
       </c>
-      <c r="D99" s="28">
+      <c r="D104" s="46">
         <v>95.238095238095198</v>
       </c>
-      <c r="E99" s="28">
+      <c r="E104" s="46">
         <v>91.743119266055004</v>
       </c>
-      <c r="F99" s="28">
-        <v>94.74</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="F104" s="46">
+        <v>93.457943925233593</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="43">
+        <v>1</v>
+      </c>
+      <c r="C105" s="28">
+        <v>95.76</v>
+      </c>
+      <c r="D105" s="28">
+        <v>98.02</v>
+      </c>
+      <c r="E105" s="28">
+        <v>90.83</v>
+      </c>
+      <c r="F105" s="28">
+        <v>94.29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="1:7" ht="78" x14ac:dyDescent="0.2">
+      <c r="A108" s="47" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Archive/ROSE results.xlsx
+++ b/Archive/ROSE results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangtianyi/Desktop/Ideas/idea4&amp;5 MIL-SI SI-ViT/MIL-SI tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271857C1-437F-8D45-B03D-F91BC2B7D3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0389744B-AB41-DC48-AB49-9AC409DC2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1380" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="3200" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
@@ -1242,7 +1242,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1351,17 +1351,11 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -12112,8 +12106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE902617-9C4A-024C-BDC7-767D4D3CA9CA}">
   <dimension ref="A2:AT108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="177" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="139" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12624,16 +12618,16 @@
         <v>132</v>
       </c>
       <c r="C30" s="22">
-        <v>80.92</v>
+        <v>88.339222614840907</v>
       </c>
       <c r="D30" s="22">
-        <v>76.7</v>
+        <v>88.775510204081598</v>
       </c>
       <c r="E30" s="22">
-        <v>72.48</v>
+        <v>79.816513761467803</v>
       </c>
       <c r="F30" s="22">
-        <v>74.53</v>
+        <v>84.057971014492693</v>
       </c>
       <c r="G30" s="26"/>
     </row>
@@ -12645,16 +12639,16 @@
         <v>132</v>
       </c>
       <c r="C31" s="22">
-        <v>79.150000000000006</v>
+        <v>90.106007067137796</v>
       </c>
       <c r="D31" s="22">
-        <v>72.319999999999993</v>
+        <v>87.850467289719603</v>
       </c>
       <c r="E31" s="22">
-        <v>74.31</v>
+        <v>86.238532110091697</v>
       </c>
       <c r="F31" s="22">
-        <v>73.3</v>
+        <v>87.037037037036995</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -13535,7 +13529,7 @@
       <c r="E90" s="22">
         <v>89.548022598870006</v>
       </c>
-      <c r="F90" s="46">
+      <c r="F90" s="45">
         <v>90.056818181818102</v>
       </c>
     </row>
@@ -13555,7 +13549,7 @@
       <c r="E91" s="22">
         <v>90.112994350282406</v>
       </c>
-      <c r="F91" s="46">
+      <c r="F91" s="45">
         <v>90.240452616690206</v>
       </c>
       <c r="G91" s="26" t="s">
@@ -13578,7 +13572,7 @@
       <c r="E92" s="22">
         <v>87.853107344632704</v>
       </c>
-      <c r="F92" s="46">
+      <c r="F92" s="45">
         <v>90.275761973875106</v>
       </c>
     </row>
@@ -13598,27 +13592,27 @@
       <c r="E93" s="22">
         <v>89.548022598870006</v>
       </c>
-      <c r="F93" s="46">
+      <c r="F93" s="45">
         <v>91.091954022988503</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="44" t="s">
+      <c r="A94" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B94" s="45">
+      <c r="B94" s="44">
         <v>0.3</v>
       </c>
-      <c r="C94" s="46">
+      <c r="C94" s="45">
         <v>92.618110236220403</v>
       </c>
-      <c r="D94" s="46">
+      <c r="D94" s="45">
         <v>90.670553935859999</v>
       </c>
-      <c r="E94" s="46">
+      <c r="E94" s="45">
         <v>87.853107344632704</v>
       </c>
-      <c r="F94" s="46">
+      <c r="F94" s="45">
         <v>89.239598278335706</v>
       </c>
     </row>
@@ -13684,7 +13678,7 @@
       <c r="E100" s="22">
         <v>93.577981651376106</v>
       </c>
-      <c r="F100" s="46">
+      <c r="F100" s="45">
         <v>94.4444444444444</v>
       </c>
     </row>
@@ -13704,7 +13698,7 @@
       <c r="E101" s="22">
         <v>92.660550458715505</v>
       </c>
-      <c r="F101" s="46">
+      <c r="F101" s="45">
         <v>93.518518518518505</v>
       </c>
       <c r="G101" s="26" t="s">
@@ -13727,7 +13721,7 @@
       <c r="E102" s="22">
         <v>89.908256880733902</v>
       </c>
-      <c r="F102" s="46">
+      <c r="F102" s="45">
         <v>93.3333333333333</v>
       </c>
     </row>
@@ -13747,27 +13741,27 @@
       <c r="E103" s="22">
         <v>91.743119266055004</v>
       </c>
-      <c r="F103" s="46">
+      <c r="F103" s="45">
         <v>93.896713615023401</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="44" t="s">
+      <c r="A104" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B104" s="45">
+      <c r="B104" s="44">
         <v>0.3</v>
       </c>
-      <c r="C104" s="46">
+      <c r="C104" s="45">
         <v>95.053003533568898</v>
       </c>
-      <c r="D104" s="46">
+      <c r="D104" s="45">
         <v>95.238095238095198</v>
       </c>
-      <c r="E104" s="46">
+      <c r="E104" s="45">
         <v>91.743119266055004</v>
       </c>
-      <c r="F104" s="46">
+      <c r="F104" s="45">
         <v>93.457943925233593</v>
       </c>
     </row>
@@ -13793,7 +13787,7 @@
     </row>
     <row r="106" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="108" spans="1:7" ht="78" x14ac:dyDescent="0.2">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="19" t="s">
         <v>194</v>
       </c>
     </row>
